--- a/ztml/rdata/simple_dataset.xlsx
+++ b/ztml/rdata/simple_dataset.xlsx
@@ -24,136 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="79">
-  <si>
-    <t>GeAsSe</t>
-  </si>
-  <si>
-    <t>GeAsTe</t>
-  </si>
-  <si>
-    <t>GeBiSe</t>
-  </si>
-  <si>
-    <t>GeBiTe</t>
-  </si>
-  <si>
-    <t>GeSbSe</t>
-  </si>
-  <si>
-    <t>GeSbTe</t>
-  </si>
-  <si>
-    <t>SiBiTe</t>
-  </si>
-  <si>
-    <t>SiSbTe</t>
-  </si>
-  <si>
-    <t>SnAsSe</t>
-  </si>
-  <si>
-    <t>SnAsTe</t>
-  </si>
-  <si>
-    <t>SnBiSe</t>
-  </si>
-  <si>
-    <t>SnBiTe</t>
-  </si>
-  <si>
-    <t>SnSbSe</t>
-  </si>
-  <si>
-    <t>SnSbTe</t>
-  </si>
-  <si>
-    <t>PbAsSe</t>
-  </si>
-  <si>
-    <t>PbAsTe</t>
-  </si>
-  <si>
-    <t>PbBiSe</t>
-  </si>
-  <si>
-    <t>PbBiTe</t>
-  </si>
-  <si>
-    <t>PbSbTe</t>
-  </si>
-  <si>
-    <t>SiAsTe</t>
-  </si>
-  <si>
-    <t>PbSbSe</t>
-  </si>
-  <si>
-    <t>PbSbS</t>
-  </si>
-  <si>
-    <t>GeAsSe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
   <si>
     <r>
       <t>N</t>
@@ -744,9 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZT_max_100K</t>
-  </si>
-  <si>
     <t>150 K</t>
   </si>
   <si>
@@ -778,6 +646,438 @@
   </si>
   <si>
     <t>650 K</t>
+  </si>
+  <si>
+    <t>100 K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(200K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(250K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(300K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(350K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(400K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(450K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(500K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(550K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(600K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(650K)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(100K)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(150K)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1173,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT71"/>
+  <dimension ref="A1:BF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1194,154 +1494,191 @@
     <col min="29" max="30" width="8.125" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.75" style="4" customWidth="1"/>
-    <col min="36" max="46" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="13.75" style="1"/>
+    <col min="35" max="46" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.75" style="4" customWidth="1"/>
+    <col min="48" max="58" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="13.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1356,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
@@ -1443,45 +1780,81 @@
         <v>1.9585825000000001</v>
       </c>
       <c r="AI2" s="4">
+        <v>0.27368399999999998</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0.35445900000000002</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0.401229</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0.43809199999999998</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0.46502900000000003</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0.49890899999999999</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0.55500799999999995</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0.60258599999999996</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0.66075700000000004</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>0.70370100000000002</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0.557504</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0.59111899999999995</v>
+      </c>
+      <c r="AU2" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AV2" s="4">
         <v>0.08</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AW2" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AX2" s="4">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AY2" s="4">
         <v>0.36499999999999999</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AZ2" s="4">
         <v>0.45600000000000002</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="BA2" s="4">
         <v>0.51200000000000001</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="BB2" s="4">
         <v>0.55800000000000005</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="BC2" s="4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="BD2" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="BE2" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="BF2" s="4">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1496,13 +1869,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -1583,45 +1956,81 @@
         <v>1.8025950000000002</v>
       </c>
       <c r="AI3" s="4">
+        <v>-3.0840000000000001</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>-3.0273500000000002</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>-2.9887000000000001</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>-2.9520200000000001</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>-2.8150499999999998</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0.28371099999999999</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.29447899999999999</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>-0.22861400000000001</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>-0.24592600000000001</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>-0.25431599999999999</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>-0.25687900000000002</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>-0.28733900000000001</v>
+      </c>
+      <c r="AU3" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AV3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AW3" s="4">
         <v>0.127</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AX3" s="4">
         <v>0.188</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AY3" s="4">
         <v>0.249</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AZ3" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="BA3" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="BB3" s="4">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="BC3" s="4">
         <v>0.56599999999999995</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="BD3" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="BE3" s="4">
         <v>0.68700000000000006</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="BF3" s="4">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1636,13 +2045,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
@@ -1723,45 +2132,81 @@
         <v>1.7729875000000002</v>
       </c>
       <c r="AI4" s="4">
+        <v>11.040699999999999</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1.75623</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>1.6854100000000001</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>1.66428</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>1.67265</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1.6230500000000001</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1.56423</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1.46584</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>1.32369</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1.1426799999999999</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>1.0055099999999999</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0.88432999999999995</v>
+      </c>
+      <c r="AU4" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AV4" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AW4" s="4">
         <v>0.105</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AX4" s="4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AY4" s="4">
         <v>0.246</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AZ4" s="4">
         <v>0.317</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="BA4" s="4">
         <v>0.38400000000000001</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="BB4" s="4">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="BC4" s="4">
         <v>0.504</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="BD4" s="4">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="BE4" s="4">
         <v>0.59799999999999998</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="BF4" s="4">
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1776,13 +2221,13 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
@@ -1863,45 +2308,81 @@
         <v>1.6707325</v>
       </c>
       <c r="AI5" s="4">
+        <v>-2.5742099999999999</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>-2.4096199999999999</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>-1.95442</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>-1.41919</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>-1.00576</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>-0.78753200000000001</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>-0.67089100000000002</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>-0.60417799999999999</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>-0.570187</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>-0.53878499999999996</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>-0.51688299999999998</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>-0.50158400000000003</v>
+      </c>
+      <c r="AU5" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AV5" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AW5" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AX5" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AY5" s="4">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AZ5" s="4">
         <v>0.50600000000000001</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="BA5" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="BB5" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="BC5" s="4">
         <v>0.69699999999999995</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="BD5" s="4">
         <v>0.73399999999999999</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="BE5" s="4">
         <v>0.76600000000000001</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="BF5" s="4">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1916,13 +2397,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -2003,45 +2484,81 @@
         <v>1.8285175</v>
       </c>
       <c r="AI6" s="4">
+        <v>-2.69543</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>-2.6336300000000001</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>1.68228</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1.5537300000000001</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>1.4972000000000001</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1.4422200000000001</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>1.37944</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>1.3218799999999999</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>1.2558400000000001</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>1.1855</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>1.1105100000000001</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>1.0446899999999999</v>
+      </c>
+      <c r="AU6" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AV6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AW6" s="4">
         <v>0.08</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AX6" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AY6" s="4">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AZ6" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="BA6" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="BB6" s="4">
         <v>0.39400000000000002</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="BC6" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="BD6" s="4">
         <v>0.49199999999999999</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="BE6" s="4">
         <v>0.53</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="BF6" s="4">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2056,13 +2573,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -2143,45 +2660,81 @@
         <v>1.715635</v>
       </c>
       <c r="AI7" s="4">
+        <v>-5.5202799999999996</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>-5.6588500000000002</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>-5.4044100000000004</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>-4.9169499999999999</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>-4.25962</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>-3.5097900000000002</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>-2.30314</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>-0.62129500000000004</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>-0.58373200000000003</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>-0.56018400000000002</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>-0.53244999999999998</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>-0.52010900000000004</v>
+      </c>
+      <c r="AU7" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AV7" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AW7" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AX7" s="4">
         <v>0.21</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AY7" s="4">
         <v>0.28199999999999997</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AZ7" s="4">
         <v>0.35299999999999998</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="BA7" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="BB7" s="4">
         <v>0.51800000000000002</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="BC7" s="4">
         <v>0.59499999999999997</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="BD7" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="BE7" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="BF7" s="4">
         <v>0.746</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+    <row r="8" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -2196,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2282,46 +2835,82 @@
       <c r="AH8" s="6">
         <v>1.7191624999999999</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="7">
+        <v>-0.39330599999999999</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>-0.43668699999999999</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>-0.46592499999999998</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>-0.46826299999999998</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>-0.46893099999999999</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>-0.44911099999999998</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>-0.43838500000000002</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>-0.43963000000000002</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>-0.43004399999999998</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>-0.42844900000000002</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>-0.44442300000000001</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>-0.45693</v>
+      </c>
+      <c r="AU8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AV8" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AW8" s="4">
         <v>0.35099999999999998</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AX8" s="4">
         <v>0.48599999999999999</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AY8" s="4">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AZ8" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="BA8" s="4">
         <v>0.73299999999999998</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="BB8" s="4">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="BC8" s="4">
         <v>0.80800000000000005</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="BD8" s="4">
         <v>0.82699999999999996</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="BE8" s="4">
         <v>0.84</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="BF8" s="4">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2336,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -2423,45 +3012,81 @@
         <v>1.7719075</v>
       </c>
       <c r="AI9" s="4">
+        <v>-2.4028299999999998</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>-2.5987200000000001</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>-2.38185</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>-1.7496</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>-0.620722</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>-0.55920800000000004</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>-0.53273700000000002</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>-0.51479600000000003</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>-0.48841499999999999</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>-0.49508200000000002</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>-0.52147100000000002</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>-0.55470900000000001</v>
+      </c>
+      <c r="AU9" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AV9" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AW9" s="4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AX9" s="4">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AY9" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AZ9" s="4">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="BA9" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="BB9" s="4">
         <v>0.64400000000000002</v>
       </c>
-      <c r="AQ9" s="4">
+      <c r="BC9" s="4">
         <v>0.69699999999999995</v>
       </c>
-      <c r="AR9" s="4">
+      <c r="BD9" s="4">
         <v>0.73399999999999999</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="BE9" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="BF9" s="4">
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+    <row r="10" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -2476,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -2562,46 +3187,82 @@
       <c r="AH10" s="6">
         <v>1.8304724999999999</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI10" s="7">
+        <v>0.37023200000000001</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0.38792199999999999</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0.41411399999999998</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>0.44686199999999998</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0.47085100000000002</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>0.53876299999999999</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>0.589785</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0.64658400000000005</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0.53476299999999999</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>0.56220499999999995</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0.59361900000000001</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>0.62968199999999996</v>
+      </c>
+      <c r="AU10" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AV10" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AW10" s="4">
         <v>0.189</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AX10" s="4">
         <v>0.30499999999999999</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AY10" s="4">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AZ10" s="4">
         <v>0.47899999999999998</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="BA10" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="BB10" s="4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="BC10" s="4">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR10" s="4">
+      <c r="BD10" s="4">
         <v>0.71099999999999997</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="BE10" s="4">
         <v>0.73399999999999999</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="BF10" s="4">
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+    <row r="11" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -2616,13 +3277,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2">
         <v>5</v>
@@ -2702,46 +3363,82 @@
       <c r="AH11" s="6">
         <v>1.6993849999999999</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="7">
+        <v>-0.40923500000000002</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>-0.49183700000000002</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>-0.541296</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>-0.53878400000000004</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>-0.52674200000000004</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>-0.51570899999999997</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>-0.50428799999999996</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>-0.48986299999999999</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>-0.48857800000000001</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>-0.48172799999999999</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>-0.50788599999999995</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>-0.52457500000000001</v>
+      </c>
+      <c r="AU11" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AV11" s="4">
         <v>0.129</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AW11" s="4">
         <v>0.26</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AX11" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AY11" s="4">
         <v>0.501</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AZ11" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="BA11" s="4">
         <v>0.65500000000000003</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="BB11" s="4">
         <v>0.70799999999999996</v>
       </c>
-      <c r="AQ11" s="4">
+      <c r="BC11" s="4">
         <v>0.746</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="BD11" s="4">
         <v>0.77600000000000002</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="BE11" s="4">
         <v>0.79400000000000004</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="BF11" s="4">
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2756,13 +3453,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
@@ -2843,45 +3540,81 @@
         <v>1.7082600000000001</v>
       </c>
       <c r="AI12" s="4">
+        <v>5.7944399999999998</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1.0456799999999999</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>1.00979</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>1.00915</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0.98555999999999999</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0.98536400000000002</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>0.95347199999999999</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>0.89215199999999995</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>0.84328499999999995</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0.77856400000000003</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0.72521400000000003</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>0.68002300000000004</v>
+      </c>
+      <c r="AU12" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AV12" s="4">
         <v>0.05</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AW12" s="4">
         <v>0.11</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AX12" s="4">
         <v>0.183</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AY12" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AZ12" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="BA12" s="4">
         <v>0.41</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="BB12" s="4">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="BC12" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="BD12" s="4">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="BE12" s="4">
         <v>0.63100000000000001</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="BF12" s="4">
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2896,13 +3629,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
@@ -2983,45 +3716,81 @@
         <v>1.6115925</v>
       </c>
       <c r="AI13" s="4">
+        <v>-0.458451</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>-0.50442699999999996</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>-0.54578300000000002</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>-0.570434</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>-0.56995899999999999</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>-0.56723800000000002</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>-0.53742400000000001</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>-0.49970399999999998</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>-0.45834399999999997</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>-0.43247600000000003</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>-0.39616099999999999</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>-0.38030900000000001</v>
+      </c>
+      <c r="AU13" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AV13" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AW13" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AX13" s="4">
         <v>0.219</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AY13" s="4">
         <v>0.312</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AZ13" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="BA13" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="BB13" s="4">
         <v>0.54200000000000004</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="BC13" s="4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="BD13" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="BE13" s="4">
         <v>0.69</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="BF13" s="4">
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3036,13 +3805,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1">
         <v>5</v>
@@ -3123,45 +3892,81 @@
         <v>1.7492049999999999</v>
       </c>
       <c r="AI14" s="4">
+        <v>-1.9721</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>-1.96967</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>1.35076</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>1.26495</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>1.20506</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>1.1250100000000001</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>1.01857</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0.89738700000000005</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0.74630300000000005</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0.61355599999999999</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0.54393199999999997</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0.51275700000000002</v>
+      </c>
+      <c r="AU14" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AV14" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AW14" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AX14" s="4">
         <v>0.151</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AY14" s="4">
         <v>0.224</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AZ14" s="4">
         <v>0.29599999999999999</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="BA14" s="4">
         <v>0.36599999999999999</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="BB14" s="4">
         <v>0.43</v>
       </c>
-      <c r="AQ14" s="4">
+      <c r="BC14" s="4">
         <v>0.49</v>
       </c>
-      <c r="AR14" s="4">
+      <c r="BD14" s="4">
         <v>0.54200000000000004</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="BE14" s="4">
         <v>0.58399999999999996</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="BF14" s="4">
         <v>0.621</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -3176,13 +3981,13 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
@@ -3263,45 +4068,81 @@
         <v>1.6488125</v>
       </c>
       <c r="AI15" s="4">
+        <v>-3.3906700000000001</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>-2.4766499999999998</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>-1.6289</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>-1.34439</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>-1.10684</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>-0.91423500000000002</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>-0.77310500000000004</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>-0.66615999999999997</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>-0.59468100000000002</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>-0.531281</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>-0.49476199999999998</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>-0.48314400000000002</v>
+      </c>
+      <c r="AU15" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AV15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AW15" s="4">
         <v>0.154</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AX15" s="4">
         <v>0.253</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AY15" s="4">
         <v>0.35299999999999998</v>
       </c>
-      <c r="AN15" s="4">
+      <c r="AZ15" s="4">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="BA15" s="4">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="BB15" s="4">
         <v>0.59099999999999997</v>
       </c>
-      <c r="AQ15" s="4">
+      <c r="BC15" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="AR15" s="4">
+      <c r="BD15" s="4">
         <v>0.69199999999999995</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="BE15" s="4">
         <v>0.72899999999999998</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="BF15" s="4">
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -3316,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1">
         <v>6</v>
@@ -3403,45 +4244,81 @@
         <v>1.7418</v>
       </c>
       <c r="AI16" s="4">
+        <v>0.81620199999999998</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0.91040500000000002</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>0.985402</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0.99303900000000001</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0.96916599999999997</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>0.95610300000000004</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>0.96174800000000005</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0.99631999999999998</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>1.0296099999999999</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0.80832999999999999</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>0.81123599999999996</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>0.81213400000000002</v>
+      </c>
+      <c r="AU16" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AV16" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AW16" s="4">
         <v>0.159</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AX16" s="4">
         <v>0.253</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AY16" s="4">
         <v>0.34899999999999998</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AZ16" s="4">
         <v>0.43099999999999999</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="BA16" s="4">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="BB16" s="4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="BC16" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR16" s="4">
+      <c r="BD16" s="4">
         <v>0.65500000000000003</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="BE16" s="4">
         <v>0.67900000000000005</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="BF16" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -3456,13 +4333,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -3543,45 +4420,81 @@
         <v>1.6176249999999999</v>
       </c>
       <c r="AI17" s="4">
+        <v>-1.33345</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>-1.0758700000000001</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>-0.90901399999999999</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>-0.88780099999999995</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>-0.85088799999999998</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>-0.81338999999999995</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>-0.75344900000000004</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>-0.68929099999999999</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>-0.607151</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>-0.54284500000000002</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>-0.50503399999999998</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>-0.49013299999999999</v>
+      </c>
+      <c r="AU17" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AV17" s="4">
         <v>0.104</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AW17" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AX17" s="4">
         <v>0.318</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AY17" s="4">
         <v>0.41499999999999998</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AZ17" s="4">
         <v>0.497</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="BA17" s="4">
         <v>0.56299999999999994</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="BB17" s="4">
         <v>0.61899999999999999</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="BC17" s="4">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AR17" s="4">
+      <c r="BD17" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="AS17" s="4">
+      <c r="BE17" s="4">
         <v>0.73699999999999999</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="BF17" s="4">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -3596,13 +4509,13 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1">
         <v>6</v>
@@ -3683,45 +4596,81 @@
         <v>1.6532825</v>
       </c>
       <c r="AI18" s="4">
+        <v>2.4213300000000002</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>2.3782999999999999</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>2.3336999999999999</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>2.2880199999999999</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>2.2842099999999999</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>2.2747999999999999</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>2.2822100000000001</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>2.24308</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>2.16825</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>2.0924700000000001</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>1.95624</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>1.8026599999999999</v>
+      </c>
+      <c r="AU18" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AV18" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AW18" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AX18" s="4">
         <v>0.15</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AY18" s="4">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AZ18" s="4">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="BA18" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="BB18" s="4">
         <v>0.378</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="BC18" s="4">
         <v>0.42799999999999999</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="BD18" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="AS18" s="4">
+      <c r="BE18" s="4">
         <v>0.51900000000000002</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="BF18" s="4">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -3736,13 +4685,13 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1">
         <v>6</v>
@@ -3823,45 +4772,81 @@
         <v>1.56196</v>
       </c>
       <c r="AI19" s="4">
+        <v>-0.67610899999999996</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>-0.63281600000000005</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>-0.65845399999999998</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>-0.67826699999999995</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>-0.68328599999999995</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>-0.66461300000000001</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>-0.62519800000000003</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>-0.55707700000000004</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>-0.49550699999999998</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>-0.43699300000000002</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>-0.39264199999999999</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>-0.35579100000000002</v>
+      </c>
+      <c r="AU19" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AV19" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AW19" s="4">
         <v>0.124</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AX19" s="4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AY19" s="4">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AN19" s="4">
+      <c r="AZ19" s="4">
         <v>0.373</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="BA19" s="4">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="BB19" s="4">
         <v>0.51400000000000001</v>
       </c>
-      <c r="AQ19" s="4">
+      <c r="BC19" s="4">
         <v>0.57099999999999995</v>
       </c>
-      <c r="AR19" s="4">
+      <c r="BD19" s="4">
         <v>0.622</v>
       </c>
-      <c r="AS19" s="4">
+      <c r="BE19" s="4">
         <v>0.66400000000000003</v>
       </c>
-      <c r="AT19" s="4">
+      <c r="BF19" s="4">
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+    <row r="20" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3876,13 +4861,13 @@
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I20" s="2">
         <v>6</v>
@@ -3962,46 +4947,82 @@
       <c r="AH20" s="6">
         <v>1.5872174999999999</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AI20" s="7">
+        <v>-3.8671000000000002</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>-3.4574500000000001</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>-1.21689</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>-1.1872499999999999</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>-1.1381600000000001</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>-1.05358</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>-0.98427699999999996</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>-0.89132599999999995</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>-0.80587500000000001</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>-0.70253299999999996</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>-0.60677300000000001</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>-0.55828100000000003</v>
+      </c>
+      <c r="AU20" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AV20" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AW20" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AX20" s="4">
         <v>0.23200000000000001</v>
       </c>
-      <c r="AM20" s="4">
+      <c r="AY20" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="AN20" s="4">
+      <c r="AZ20" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="BA20" s="4">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AP20" s="4">
+      <c r="BB20" s="4">
         <v>0.53900000000000003</v>
       </c>
-      <c r="AQ20" s="4">
+      <c r="BC20" s="4">
         <v>0.59</v>
       </c>
-      <c r="AR20" s="4">
+      <c r="BD20" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AS20" s="4">
+      <c r="BE20" s="4">
         <v>0.67200000000000004</v>
       </c>
-      <c r="AT20" s="4">
+      <c r="BF20" s="4">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
+    <row r="21" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -4016,13 +5037,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2">
         <v>4</v>
@@ -4102,46 +5123,82 @@
       <c r="AH21" s="6">
         <v>2.0107050000000002</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AI21" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AR21" s="7">
+        <v>0.877</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AU21" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AV21" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AW21" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AX21" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AY21" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AZ21" s="4">
         <v>0.495</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="BA21" s="4">
         <v>0.56200000000000006</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="BB21" s="4">
         <v>0.59899999999999998</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="BC21" s="4">
         <v>0.629</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="BD21" s="4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="AS21" s="4">
+      <c r="BE21" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="BF21" s="4">
         <v>0.749</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -4156,13 +5213,13 @@
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -4243,45 +5300,81 @@
         <v>1.82278875</v>
       </c>
       <c r="AI22" s="4">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>-0.47</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>-0.443</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>-0.374</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>-0.34699999999999998</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="AU22" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AV22" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AW22" s="4">
         <v>0.15</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AX22" s="4">
         <v>0.25</v>
       </c>
-      <c r="AM22" s="4">
+      <c r="AY22" s="4">
         <v>0.35399999999999998</v>
       </c>
-      <c r="AN22" s="4">
+      <c r="AZ22" s="4">
         <v>0.45</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="BA22" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AP22" s="4">
+      <c r="BB22" s="4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="AQ22" s="4">
+      <c r="BC22" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AR22" s="4">
+      <c r="BD22" s="4">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="BE22" s="4">
         <v>0.74099999999999999</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="BF22" s="4">
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -4296,13 +5389,13 @@
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
         <v>4</v>
@@ -4383,45 +5476,81 @@
         <v>1.8013975000000002</v>
       </c>
       <c r="AI23" s="4">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>2.298</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>1.679</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>1.159</v>
+      </c>
+      <c r="AU23" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AV23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AW23" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AX23" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AY23" s="4">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AN23" s="4">
+      <c r="AZ23" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="BA23" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="AP23" s="4">
+      <c r="BB23" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AQ23" s="4">
+      <c r="BC23" s="4">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AR23" s="4">
+      <c r="BD23" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="AS23" s="4">
+      <c r="BE23" s="4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="AT23" s="4">
+      <c r="BF23" s="4">
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -4436,13 +5565,13 @@
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -4523,45 +5652,81 @@
         <v>1.6753625000000001</v>
       </c>
       <c r="AI24" s="4">
+        <v>-2.5289999999999999</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>-2.6680000000000001</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>-2.7029999999999998</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>-2.383</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>-1.448</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>-0.48199999999999998</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>-0.436</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="AU24" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AV24" s="4">
         <v>0.09</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AW24" s="4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AL24" s="4">
+      <c r="AX24" s="4">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AM24" s="4">
+      <c r="AY24" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="AN24" s="4">
+      <c r="AZ24" s="4">
         <v>0.46600000000000003</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="BA24" s="4">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AP24" s="4">
+      <c r="BB24" s="4">
         <v>0.627</v>
       </c>
-      <c r="AQ24" s="4">
+      <c r="BC24" s="4">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR24" s="4">
+      <c r="BD24" s="4">
         <v>0.72899999999999998</v>
       </c>
-      <c r="AS24" s="4">
+      <c r="BE24" s="4">
         <v>0.76600000000000001</v>
       </c>
-      <c r="AT24" s="4">
+      <c r="BF24" s="4">
         <v>0.79</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -4576,13 +5741,13 @@
         <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1">
         <v>4</v>
@@ -4663,45 +5828,81 @@
         <v>1.8910912499999999</v>
       </c>
       <c r="AI25" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>1.798</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>1.724</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU25" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AV25" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AW25" s="4">
         <v>0.104</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AX25" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AY25" s="4">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AZ25" s="4">
         <v>0.29599999999999999</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="BA25" s="4">
         <v>0.35099999999999998</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="BB25" s="4">
         <v>0.40100000000000002</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="BC25" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="BD25" s="4">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="BE25" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="BF25" s="4">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -4716,13 +5917,13 @@
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1">
         <v>4</v>
@@ -4803,45 +6004,81 @@
         <v>1.7527312500000001</v>
       </c>
       <c r="AI26" s="4">
+        <v>-6.3819999999999997</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>-5.2329999999999997</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>-2.5790000000000002</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>-2.0659999999999998</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>-1.4419999999999999</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>-1.097</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>-0.78900000000000003</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>-0.72199999999999998</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>-0.67</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="AU26" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AV26" s="4">
         <v>0.06</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AW26" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AX26" s="4">
         <v>0.23400000000000001</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AY26" s="4">
         <v>0.34</v>
       </c>
-      <c r="AN26" s="4">
+      <c r="AZ26" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="BA26" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="AP26" s="4">
+      <c r="BB26" s="4">
         <v>0.61499999999999999</v>
       </c>
-      <c r="AQ26" s="4">
+      <c r="BC26" s="4">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AR26" s="4">
+      <c r="BD26" s="4">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AS26" s="4">
+      <c r="BE26" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="AT26" s="4">
+      <c r="BF26" s="4">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -4856,13 +6093,13 @@
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -4943,45 +6180,81 @@
         <v>1.90668375</v>
       </c>
       <c r="AI27" s="4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>-0.39</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="AU27" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AV27" s="4">
         <v>0.112</v>
       </c>
-      <c r="AK27" s="4">
+      <c r="AW27" s="4">
         <v>0.222</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AX27" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AM27" s="4">
+      <c r="AY27" s="4">
         <v>0.434</v>
       </c>
-      <c r="AN27" s="4">
+      <c r="AZ27" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AO27" s="4">
+      <c r="BA27" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AP27" s="4">
+      <c r="BB27" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="AQ27" s="4">
+      <c r="BC27" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="AR27" s="4">
+      <c r="BD27" s="4">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AS27" s="4">
+      <c r="BE27" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="AT27" s="4">
+      <c r="BF27" s="4">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
+    <row r="28" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -4996,13 +6269,13 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2">
         <v>3</v>
@@ -5082,46 +6355,82 @@
       <c r="AH28" s="6">
         <v>1.72048</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AI28" s="7">
+        <v>-4.1210000000000004</v>
+      </c>
+      <c r="AJ28" s="7">
+        <v>-3.28</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>-2.5139999999999998</v>
+      </c>
+      <c r="AL28" s="7">
+        <v>-1.232</v>
+      </c>
+      <c r="AM28" s="7">
+        <v>-0.76300000000000001</v>
+      </c>
+      <c r="AN28" s="7">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="AO28" s="7">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="AP28" s="7">
+        <v>-0.496</v>
+      </c>
+      <c r="AQ28" s="7">
+        <v>-0.45900000000000002</v>
+      </c>
+      <c r="AR28" s="7">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="AS28" s="7">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="AT28" s="7">
+        <v>-0.45300000000000001</v>
+      </c>
+      <c r="AU28" s="4">
         <v>0.06</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AV28" s="4">
         <v>0.152</v>
       </c>
-      <c r="AK28" s="4">
+      <c r="AW28" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AX28" s="4">
         <v>0.376</v>
       </c>
-      <c r="AM28" s="4">
+      <c r="AY28" s="4">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AN28" s="4">
+      <c r="AZ28" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="AO28" s="4">
+      <c r="BA28" s="4">
         <v>0.65200000000000002</v>
       </c>
-      <c r="AP28" s="4">
+      <c r="BB28" s="4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="AQ28" s="4">
+      <c r="BC28" s="4">
         <v>0.748</v>
       </c>
-      <c r="AR28" s="4">
+      <c r="BD28" s="4">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AS28" s="4">
+      <c r="BE28" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AT28" s="4">
+      <c r="BF28" s="4">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
+    <row r="29" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -5136,13 +6445,13 @@
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -5222,46 +6531,82 @@
       <c r="AH29" s="6">
         <v>1.8116287499999999</v>
       </c>
-      <c r="AI29" s="4">
+      <c r="AI29" s="7">
+        <v>-5.3630000000000004</v>
+      </c>
+      <c r="AJ29" s="7">
+        <v>-0.48599999999999999</v>
+      </c>
+      <c r="AK29" s="7">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="AL29" s="7">
+        <v>-0.59399999999999997</v>
+      </c>
+      <c r="AM29" s="7">
+        <v>-0.57199999999999995</v>
+      </c>
+      <c r="AN29" s="7">
+        <v>-0.55100000000000005</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="AP29" s="7">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="AR29" s="7">
+        <v>-0.45900000000000002</v>
+      </c>
+      <c r="AS29" s="7">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="AU29" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AV29" s="4">
         <v>0.09</v>
       </c>
-      <c r="AK29" s="4">
+      <c r="AW29" s="4">
         <v>0.19800000000000001</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AX29" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="AM29" s="4">
+      <c r="AY29" s="4">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AN29" s="4">
+      <c r="AZ29" s="4">
         <v>0.56200000000000006</v>
       </c>
-      <c r="AO29" s="4">
+      <c r="BA29" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="AP29" s="4">
+      <c r="BB29" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="AQ29" s="4">
+      <c r="BC29" s="4">
         <v>0.745</v>
       </c>
-      <c r="AR29" s="4">
+      <c r="BD29" s="4">
         <v>0.78</v>
       </c>
-      <c r="AS29" s="4">
+      <c r="BE29" s="4">
         <v>0.79900000000000004</v>
       </c>
-      <c r="AT29" s="4">
+      <c r="BF29" s="4">
         <v>0.81</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -5276,13 +6621,13 @@
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -5363,45 +6708,81 @@
         <v>1.7188299999999999</v>
       </c>
       <c r="AI30" s="4">
+        <v>-7.5629999999999997</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>-0.312</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>-0.373</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>-0.42</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>-0.41299999999999998</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>-0.44500000000000001</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="AU30" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AV30" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AK30" s="4">
+      <c r="AW30" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AL30" s="4">
+      <c r="AX30" s="4">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AM30" s="4">
+      <c r="AY30" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="AN30" s="4">
+      <c r="AZ30" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="AO30" s="4">
+      <c r="BA30" s="4">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AP30" s="4">
+      <c r="BB30" s="4">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AQ30" s="4">
+      <c r="BC30" s="4">
         <v>0.69199999999999995</v>
       </c>
-      <c r="AR30" s="4">
+      <c r="BD30" s="4">
         <v>0.72899999999999998</v>
       </c>
-      <c r="AS30" s="4">
+      <c r="BE30" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="AT30" s="4">
+      <c r="BF30" s="4">
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -5416,13 +6797,13 @@
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I31" s="1">
         <v>5</v>
@@ -5503,45 +6884,81 @@
         <v>1.73432125</v>
       </c>
       <c r="AI31" s="4">
+        <v>81.834999999999994</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>1.621</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1.653</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>1.492</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>1.393</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>1.161</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AU31" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AV31" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AK31" s="4">
+      <c r="AW31" s="4">
         <v>0.09</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AX31" s="4">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AM31" s="4">
+      <c r="AY31" s="4">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AN31" s="4">
+      <c r="AZ31" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="AO31" s="4">
+      <c r="BA31" s="4">
         <v>0.33600000000000002</v>
       </c>
-      <c r="AP31" s="4">
+      <c r="BB31" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="AQ31" s="4">
+      <c r="BC31" s="4">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AR31" s="4">
+      <c r="BD31" s="4">
         <v>0.499</v>
       </c>
-      <c r="AS31" s="4">
+      <c r="BE31" s="4">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AT31" s="4">
+      <c r="BF31" s="4">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -5556,13 +6973,13 @@
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1">
         <v>5</v>
@@ -5643,45 +7060,81 @@
         <v>1.62807375</v>
       </c>
       <c r="AI32" s="4">
+        <v>-7.6520000000000001</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>-7.0369999999999999</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>-1.194</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>-1.097</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>-1.028</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>-0.97299999999999998</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>-0.872</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>-0.753</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>-0.61899999999999999</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>-0.501</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>-0.40500000000000003</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="AU32" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AV32" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AK32" s="4">
+      <c r="AW32" s="4">
         <v>0.128</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AX32" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AM32" s="4">
+      <c r="AY32" s="4">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AN32" s="4">
+      <c r="AZ32" s="4">
         <v>0.38300000000000001</v>
       </c>
-      <c r="AO32" s="4">
+      <c r="BA32" s="4">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AP32" s="4">
+      <c r="BB32" s="4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="AQ32" s="4">
+      <c r="BC32" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AR32" s="4">
+      <c r="BD32" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AS32" s="4">
+      <c r="BE32" s="4">
         <v>0.67900000000000005</v>
       </c>
-      <c r="AT32" s="4">
+      <c r="BF32" s="4">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -5696,13 +7149,13 @@
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1">
         <v>5</v>
@@ -5783,45 +7236,81 @@
         <v>1.7942612499999999</v>
       </c>
       <c r="AI33" s="4">
+        <v>-1.052</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AU33" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AV33" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AK33" s="4">
+      <c r="AW33" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AL33" s="4">
+      <c r="AX33" s="4">
         <v>0.151</v>
       </c>
-      <c r="AM33" s="4">
+      <c r="AY33" s="4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AN33" s="4">
+      <c r="AZ33" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="AO33" s="4">
+      <c r="BA33" s="4">
         <v>0.35</v>
       </c>
-      <c r="AP33" s="4">
+      <c r="BB33" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="AQ33" s="4">
+      <c r="BC33" s="4">
         <v>0.46600000000000003</v>
       </c>
-      <c r="AR33" s="4">
+      <c r="BD33" s="4">
         <v>0.51400000000000001</v>
       </c>
-      <c r="AS33" s="4">
+      <c r="BE33" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="AT33" s="4">
+      <c r="BF33" s="4">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -5836,13 +7325,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1">
         <v>5</v>
@@ -5923,45 +7412,81 @@
         <v>1.6790750000000001</v>
       </c>
       <c r="AI34" s="4">
+        <v>-9.0950000000000006</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>-2.802</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>-2.7829999999999999</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>-2.605</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>-2.3029999999999999</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>-1.7849999999999999</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>-1.0640000000000001</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>-0.755</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>-0.62</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>-0.55300000000000005</v>
+      </c>
+      <c r="AU34" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AV34" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AK34" s="4">
+      <c r="AW34" s="4">
         <v>0.152</v>
       </c>
-      <c r="AL34" s="4">
+      <c r="AX34" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="AM34" s="4">
+      <c r="AY34" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="AN34" s="4">
+      <c r="AZ34" s="4">
         <v>0.41199999999999998</v>
       </c>
-      <c r="AO34" s="4">
+      <c r="BA34" s="4">
         <v>0.496</v>
       </c>
-      <c r="AP34" s="4">
+      <c r="BB34" s="4">
         <v>0.57099999999999995</v>
       </c>
-      <c r="AQ34" s="4">
+      <c r="BC34" s="4">
         <v>0.63500000000000001</v>
       </c>
-      <c r="AR34" s="4">
+      <c r="BD34" s="4">
         <v>0.68700000000000006</v>
       </c>
-      <c r="AS34" s="4">
+      <c r="BE34" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="AT34" s="4">
+      <c r="BF34" s="4">
         <v>0.753</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -5976,13 +7501,13 @@
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1">
         <v>6</v>
@@ -6063,45 +7588,81 @@
         <v>1.6773975000000001</v>
       </c>
       <c r="AI35" s="4">
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>-3.2429999999999999</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>2.298</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>2.246</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>2.097</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>1.992</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>1.879</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AU35" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ35" s="4">
+      <c r="AV35" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AK35" s="4">
+      <c r="AW35" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AX35" s="4">
         <v>0.154</v>
       </c>
-      <c r="AM35" s="4">
+      <c r="AY35" s="4">
         <v>0.218</v>
       </c>
-      <c r="AN35" s="4">
+      <c r="AZ35" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="AO35" s="4">
+      <c r="BA35" s="4">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AP35" s="4">
+      <c r="BB35" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="AQ35" s="4">
+      <c r="BC35" s="4">
         <v>0.42699999999999999</v>
       </c>
-      <c r="AR35" s="4">
+      <c r="BD35" s="4">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AS35" s="4">
+      <c r="BE35" s="4">
         <v>0.504</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="BF35" s="4">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -6116,13 +7677,13 @@
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1">
         <v>6</v>
@@ -6203,45 +7764,81 @@
         <v>1.5739325</v>
       </c>
       <c r="AI36" s="4">
+        <v>-7.202</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>-7.0430000000000001</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>-1.4319999999999999</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>-1.3859999999999999</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>-1.329</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>-1.2430000000000001</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>-1.111</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>-0.89800000000000002</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>-0.64100000000000001</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>-0.38600000000000001</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="AU36" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AV36" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="AK36" s="4">
+      <c r="AW36" s="4">
         <v>0.12</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AX36" s="4">
         <v>0.19900000000000001</v>
       </c>
-      <c r="AM36" s="4">
+      <c r="AY36" s="4">
         <v>0.28100000000000003</v>
       </c>
-      <c r="AN36" s="4">
+      <c r="AZ36" s="4">
         <v>0.35899999999999999</v>
       </c>
-      <c r="AO36" s="4">
+      <c r="BA36" s="4">
         <v>0.42699999999999999</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="BB36" s="4">
         <v>0.49</v>
       </c>
-      <c r="AQ36" s="4">
+      <c r="BC36" s="4">
         <v>0.54800000000000004</v>
       </c>
-      <c r="AR36" s="4">
+      <c r="BD36" s="4">
         <v>0.60099999999999998</v>
       </c>
-      <c r="AS36" s="4">
+      <c r="BE36" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AT36" s="4">
+      <c r="BF36" s="4">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -6256,13 +7853,13 @@
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I37" s="1">
         <v>6</v>
@@ -6343,45 +7940,81 @@
         <v>1.72612875</v>
       </c>
       <c r="AI37" s="4">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>2.137</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="AU37" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AV37" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="AK37" s="4">
+      <c r="AW37" s="4">
         <v>0.108</v>
       </c>
-      <c r="AL37" s="4">
+      <c r="AX37" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AM37" s="4">
+      <c r="AY37" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AN37" s="4">
+      <c r="AZ37" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AO37" s="4">
+      <c r="BA37" s="4">
         <v>0.33</v>
       </c>
-      <c r="AP37" s="4">
+      <c r="BB37" s="4">
         <v>0.377</v>
       </c>
-      <c r="AQ37" s="4">
+      <c r="BC37" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AR37" s="4">
+      <c r="BD37" s="4">
         <v>0.46</v>
       </c>
-      <c r="AS37" s="4">
+      <c r="BE37" s="4">
         <v>0.495</v>
       </c>
-      <c r="AT37" s="4">
+      <c r="BF37" s="4">
         <v>0.53</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -6396,13 +8029,13 @@
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1">
         <v>6</v>
@@ -6483,45 +8116,81 @@
         <v>1.6194237500000002</v>
       </c>
       <c r="AI38" s="4">
+        <v>19.161999999999999</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>-3.3069999999999999</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>-3.2509999999999999</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>-3.0939999999999999</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>-2.7869999999999999</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>-2.3759999999999999</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>-1.8819999999999999</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>-1.367</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>-0.97499999999999998</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>-0.73899999999999999</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>-0.621</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>-0.58399999999999996</v>
+      </c>
+      <c r="AU38" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AV38" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK38" s="4">
+      <c r="AW38" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AL38" s="4">
+      <c r="AX38" s="4">
         <v>0.23100000000000001</v>
       </c>
-      <c r="AM38" s="4">
+      <c r="AY38" s="4">
         <v>0.316</v>
       </c>
-      <c r="AN38" s="4">
+      <c r="AZ38" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="AO38" s="4">
+      <c r="BA38" s="4">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AP38" s="4">
+      <c r="BB38" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AQ38" s="4">
+      <c r="BC38" s="4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="AR38" s="4">
+      <c r="BD38" s="4">
         <v>0.64700000000000002</v>
       </c>
-      <c r="AS38" s="4">
+      <c r="BE38" s="4">
         <v>0.68899999999999995</v>
       </c>
-      <c r="AT38" s="4">
+      <c r="BF38" s="4">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -6536,13 +8205,13 @@
         <v>9</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1">
         <v>4</v>
@@ -6623,45 +8292,81 @@
         <v>1.93042</v>
       </c>
       <c r="AI39" s="4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="AU39" s="4">
         <v>0.06</v>
       </c>
-      <c r="AJ39" s="4">
+      <c r="AV39" s="4">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AK39" s="4">
+      <c r="AW39" s="4">
         <v>0.29799999999999999</v>
       </c>
-      <c r="AL39" s="4">
+      <c r="AX39" s="4">
         <v>0.42299999999999999</v>
       </c>
-      <c r="AM39" s="4">
+      <c r="AY39" s="4">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AN39" s="4">
+      <c r="AZ39" s="4">
         <v>0.59199999999999997</v>
       </c>
-      <c r="AO39" s="4">
+      <c r="BA39" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AP39" s="4">
+      <c r="BB39" s="4">
         <v>0.66800000000000004</v>
       </c>
-      <c r="AQ39" s="4">
+      <c r="BC39" s="4">
         <v>0.69599999999999995</v>
       </c>
-      <c r="AR39" s="4">
+      <c r="BD39" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="AS39" s="4">
+      <c r="BE39" s="4">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AT39" s="4">
+      <c r="BF39" s="4">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
+    <row r="40" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -6676,13 +8381,13 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2">
         <v>4</v>
@@ -6762,46 +8467,82 @@
       <c r="AH40" s="6">
         <v>1.7686774999999999</v>
       </c>
-      <c r="AI40" s="4">
+      <c r="AI40" s="7">
+        <v>9.4540000000000006</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>0.754</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>0.623</v>
+      </c>
+      <c r="AN40" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AO40" s="7">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AP40" s="7">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AQ40" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AS40" s="7">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>0.373</v>
+      </c>
+      <c r="AU40" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ40" s="4">
+      <c r="AV40" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="AK40" s="4">
+      <c r="AW40" s="4">
         <v>0.125</v>
       </c>
-      <c r="AL40" s="4">
+      <c r="AX40" s="4">
         <v>0.21</v>
       </c>
-      <c r="AM40" s="4">
+      <c r="AY40" s="4">
         <v>0.30499999999999999</v>
       </c>
-      <c r="AN40" s="4">
+      <c r="AZ40" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AO40" s="4">
+      <c r="BA40" s="4">
         <v>0.46</v>
       </c>
-      <c r="AP40" s="4">
+      <c r="BB40" s="4">
         <v>0.52100000000000002</v>
       </c>
-      <c r="AQ40" s="4">
+      <c r="BC40" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AR40" s="4">
+      <c r="BD40" s="4">
         <v>0.67</v>
       </c>
-      <c r="AS40" s="4">
+      <c r="BE40" s="4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="AT40" s="4">
+      <c r="BF40" s="4">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
+    <row r="41" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -6816,13 +8557,13 @@
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2">
         <v>4</v>
@@ -6902,46 +8643,82 @@
       <c r="AH41" s="6">
         <v>1.665735</v>
       </c>
-      <c r="AI41" s="4">
+      <c r="AI41" s="7">
+        <v>-1.2769999999999999</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>-0.81399999999999995</v>
+      </c>
+      <c r="AK41" s="7">
+        <v>-0.61399999999999999</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>-0.50600000000000001</v>
+      </c>
+      <c r="AN41" s="7">
+        <v>-0.47099999999999997</v>
+      </c>
+      <c r="AO41" s="7">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="AP41" s="7">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="AQ41" s="7">
+        <v>-0.41099999999999998</v>
+      </c>
+      <c r="AR41" s="7">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="AS41" s="7">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AU41" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ41" s="4">
+      <c r="AV41" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AK41" s="4">
+      <c r="AW41" s="4">
         <v>0.27</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AX41" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="AM41" s="4">
+      <c r="AY41" s="4">
         <v>0.51600000000000001</v>
       </c>
-      <c r="AN41" s="4">
+      <c r="AZ41" s="4">
         <v>0.60299999999999998</v>
       </c>
-      <c r="AO41" s="4">
+      <c r="BA41" s="4">
         <v>0.66900000000000004</v>
       </c>
-      <c r="AP41" s="4">
+      <c r="BB41" s="4">
         <v>0.71899999999999997</v>
       </c>
-      <c r="AQ41" s="4">
+      <c r="BC41" s="4">
         <v>0.75700000000000001</v>
       </c>
-      <c r="AR41" s="4">
+      <c r="BD41" s="4">
         <v>0.78700000000000003</v>
       </c>
-      <c r="AS41" s="4">
+      <c r="BE41" s="4">
         <v>0.81</v>
       </c>
-      <c r="AT41" s="4">
+      <c r="BF41" s="4">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
+    <row r="42" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -6956,13 +8733,13 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I42" s="2">
         <v>4</v>
@@ -7042,46 +8819,82 @@
       <c r="AH42" s="6">
         <v>1.8241375</v>
       </c>
-      <c r="AI42" s="4">
+      <c r="AI42" s="7">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="AJ42" s="7">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="AK42" s="7">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="AL42" s="7">
+        <v>1.512</v>
+      </c>
+      <c r="AM42" s="7">
+        <v>1.488</v>
+      </c>
+      <c r="AN42" s="7">
+        <v>1.357</v>
+      </c>
+      <c r="AO42" s="7">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="AP42" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="AQ42" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AR42" s="7">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="AS42" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AT42" s="7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AU42" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ42" s="4">
+      <c r="AV42" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AK42" s="4">
+      <c r="AW42" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AL42" s="4">
+      <c r="AX42" s="4">
         <v>0.153</v>
       </c>
-      <c r="AM42" s="4">
+      <c r="AY42" s="4">
         <v>0.22</v>
       </c>
-      <c r="AN42" s="4">
+      <c r="AZ42" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AO42" s="4">
+      <c r="BA42" s="4">
         <v>0.35299999999999998</v>
       </c>
-      <c r="AP42" s="4">
+      <c r="BB42" s="4">
         <v>0.41199999999999998</v>
       </c>
-      <c r="AQ42" s="4">
+      <c r="BC42" s="4">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AR42" s="4">
+      <c r="BD42" s="4">
         <v>0.50600000000000001</v>
       </c>
-      <c r="AS42" s="4">
+      <c r="BE42" s="4">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AT42" s="4">
+      <c r="BF42" s="4">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
+    <row r="43" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -7096,13 +8909,13 @@
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -7182,46 +8995,82 @@
       <c r="AH43" s="6">
         <v>1.7153324999999999</v>
       </c>
-      <c r="AI43" s="4">
+      <c r="AI43" s="7">
+        <v>-3.9140000000000001</v>
+      </c>
+      <c r="AJ43" s="7">
+        <v>-0.54</v>
+      </c>
+      <c r="AK43" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="AL43" s="7">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="AM43" s="7">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="AN43" s="7">
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="AO43" s="7">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="AP43" s="7">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="AQ43" s="7">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AR43" s="7">
+        <v>-0.37</v>
+      </c>
+      <c r="AS43" s="7">
+        <v>-0.36199999999999999</v>
+      </c>
+      <c r="AT43" s="7">
+        <v>-0.374</v>
+      </c>
+      <c r="AU43" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AV43" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AK43" s="4">
+      <c r="AW43" s="4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AL43" s="4">
+      <c r="AX43" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AM43" s="4">
+      <c r="AY43" s="4">
         <v>0.38300000000000001</v>
       </c>
-      <c r="AN43" s="4">
+      <c r="AZ43" s="4">
         <v>0.495</v>
       </c>
-      <c r="AO43" s="4">
+      <c r="BA43" s="4">
         <v>0.59099999999999997</v>
       </c>
-      <c r="AP43" s="4">
+      <c r="BB43" s="4">
         <v>0.66600000000000004</v>
       </c>
-      <c r="AQ43" s="4">
+      <c r="BC43" s="4">
         <v>0.72399999999999998</v>
       </c>
-      <c r="AR43" s="4">
+      <c r="BD43" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="AS43" s="4">
+      <c r="BE43" s="4">
         <v>0.80100000000000005</v>
       </c>
-      <c r="AT43" s="4">
+      <c r="BF43" s="4">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
+    <row r="44" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
@@ -7236,13 +9085,13 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I44" s="2">
         <v>3</v>
@@ -7322,46 +9171,82 @@
       <c r="AH44" s="6">
         <v>1.7162625</v>
       </c>
-      <c r="AI44" s="4">
+      <c r="AI44" s="7">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="AJ44" s="7">
+        <v>-0.309</v>
+      </c>
+      <c r="AK44" s="7">
+        <v>-0.315</v>
+      </c>
+      <c r="AL44" s="7">
+        <v>-0.313</v>
+      </c>
+      <c r="AM44" s="7">
+        <v>-0.311</v>
+      </c>
+      <c r="AN44" s="7">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="AO44" s="7">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="AP44" s="7">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="AQ44" s="7">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="AR44" s="7">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="AS44" s="7">
+        <v>-0.307</v>
+      </c>
+      <c r="AT44" s="7">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="AU44" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ44" s="4">
+      <c r="AV44" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AK44" s="4">
+      <c r="AW44" s="4">
         <v>0.26500000000000001</v>
       </c>
-      <c r="AL44" s="4">
+      <c r="AX44" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="AM44" s="4">
+      <c r="AY44" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AN44" s="4">
+      <c r="AZ44" s="4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AO44" s="4">
+      <c r="BA44" s="4">
         <v>0.70799999999999996</v>
       </c>
-      <c r="AP44" s="4">
+      <c r="BB44" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="AQ44" s="4">
+      <c r="BC44" s="4">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AR44" s="4">
+      <c r="BD44" s="4">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AS44" s="4">
+      <c r="BE44" s="4">
         <v>0.83699999999999997</v>
       </c>
-      <c r="AT44" s="4">
+      <c r="BF44" s="4">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>7</v>
+    <row r="45" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -7376,13 +9261,13 @@
         <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I45" s="2">
         <v>3</v>
@@ -7462,46 +9347,82 @@
       <c r="AH45" s="6">
         <v>1.7666474999999999</v>
       </c>
-      <c r="AI45" s="4">
+      <c r="AI45" s="7">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="AJ45" s="7">
+        <v>-0.437</v>
+      </c>
+      <c r="AK45" s="7">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="AL45" s="7">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="AM45" s="7">
+        <v>-0.40899999999999997</v>
+      </c>
+      <c r="AN45" s="7">
+        <v>-0.379</v>
+      </c>
+      <c r="AO45" s="7">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="AP45" s="7">
+        <v>-0.436</v>
+      </c>
+      <c r="AQ45" s="7">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="AR45" s="7">
+        <v>-0.72899999999999998</v>
+      </c>
+      <c r="AS45" s="7">
+        <v>-0.97299999999999998</v>
+      </c>
+      <c r="AT45" s="7">
+        <v>-1.2829999999999999</v>
+      </c>
+      <c r="AU45" s="4">
         <v>0.05</v>
       </c>
-      <c r="AJ45" s="4">
+      <c r="AV45" s="4">
         <v>0.153</v>
       </c>
-      <c r="AK45" s="4">
+      <c r="AW45" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL45" s="4">
+      <c r="AX45" s="4">
         <v>0.42199999999999999</v>
       </c>
-      <c r="AM45" s="4">
+      <c r="AY45" s="4">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AN45" s="4">
+      <c r="AZ45" s="4">
         <v>0.61199999999999999</v>
       </c>
-      <c r="AO45" s="4">
+      <c r="BA45" s="4">
         <v>0.67</v>
       </c>
-      <c r="AP45" s="4">
+      <c r="BB45" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="AQ45" s="4">
+      <c r="BC45" s="4">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AR45" s="4">
+      <c r="BD45" s="4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AS45" s="4">
+      <c r="BE45" s="4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="AT45" s="4">
+      <c r="BF45" s="4">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
+    <row r="46" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -7516,13 +9437,13 @@
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I46" s="2">
         <v>5</v>
@@ -7602,46 +9523,82 @@
       <c r="AH46" s="6">
         <v>1.80399</v>
       </c>
-      <c r="AI46" s="4">
+      <c r="AI46" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="AJ46" s="7">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AK46" s="7">
+        <v>0.373</v>
+      </c>
+      <c r="AL46" s="7">
+        <v>0.372</v>
+      </c>
+      <c r="AM46" s="7">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="AN46" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AP46" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>0.374</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AS46" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AT46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AU46" s="4">
         <v>0.08</v>
       </c>
-      <c r="AJ46" s="4">
+      <c r="AV46" s="4">
         <v>0.20200000000000001</v>
       </c>
-      <c r="AK46" s="4">
+      <c r="AW46" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="AL46" s="4">
+      <c r="AX46" s="4">
         <v>0.42299999999999999</v>
       </c>
-      <c r="AM46" s="4">
+      <c r="AY46" s="4">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AN46" s="4">
+      <c r="AZ46" s="4">
         <v>0.63800000000000001</v>
       </c>
-      <c r="AO46" s="4">
+      <c r="BA46" s="4">
         <v>0.68300000000000005</v>
       </c>
-      <c r="AP46" s="4">
+      <c r="BB46" s="4">
         <v>0.71899999999999997</v>
       </c>
-      <c r="AQ46" s="4">
+      <c r="BC46" s="4">
         <v>0.749</v>
       </c>
-      <c r="AR46" s="4">
+      <c r="BD46" s="4">
         <v>0.77300000000000002</v>
       </c>
-      <c r="AS46" s="4">
+      <c r="BE46" s="4">
         <v>0.79200000000000004</v>
       </c>
-      <c r="AT46" s="4">
+      <c r="BF46" s="4">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
+    <row r="47" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
@@ -7656,13 +9613,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I47" s="2">
         <v>5</v>
@@ -7742,46 +9699,82 @@
       <c r="AH47" s="6">
         <v>1.6799975</v>
       </c>
-      <c r="AI47" s="4">
+      <c r="AI47" s="7">
+        <v>-0.78900000000000003</v>
+      </c>
+      <c r="AJ47" s="7">
+        <v>-0.70399999999999996</v>
+      </c>
+      <c r="AK47" s="7">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="AL47" s="7">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="AM47" s="7">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="AN47" s="7">
+        <v>-0.379</v>
+      </c>
+      <c r="AO47" s="7">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="AP47" s="7">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="AQ47" s="7">
+        <v>-0.36199999999999999</v>
+      </c>
+      <c r="AR47" s="7">
+        <v>-0.373</v>
+      </c>
+      <c r="AS47" s="7">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="AT47" s="7">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="AU47" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ47" s="4">
+      <c r="AV47" s="4">
         <v>0.182</v>
       </c>
-      <c r="AK47" s="4">
+      <c r="AW47" s="4">
         <v>0.33</v>
       </c>
-      <c r="AL47" s="4">
+      <c r="AX47" s="4">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AM47" s="4">
+      <c r="AY47" s="4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="AN47" s="4">
+      <c r="AZ47" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AO47" s="4">
+      <c r="BA47" s="4">
         <v>0.71199999999999997</v>
       </c>
-      <c r="AP47" s="4">
+      <c r="BB47" s="4">
         <v>0.749</v>
       </c>
-      <c r="AQ47" s="4">
+      <c r="BC47" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="AR47" s="4">
+      <c r="BD47" s="4">
         <v>0.79100000000000004</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="BE47" s="4">
         <v>0.80500000000000005</v>
       </c>
-      <c r="AT47" s="4">
+      <c r="BF47" s="4">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>10</v>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -7796,13 +9789,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I48" s="1">
         <v>5</v>
@@ -7883,45 +9876,81 @@
         <v>1.6875899999999999</v>
       </c>
       <c r="AI48" s="4">
+        <v>-1.2390000000000001</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AK48" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AL48" s="4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AM48" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AN48" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="AO48" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AP48" s="4">
+        <v>0.621</v>
+      </c>
+      <c r="AQ48" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="AR48" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AS48" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="AT48" s="4">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AU48" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ48" s="4">
+      <c r="AV48" s="4">
         <v>0.05</v>
       </c>
-      <c r="AK48" s="4">
+      <c r="AW48" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AL48" s="4">
+      <c r="AX48" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AM48" s="4">
+      <c r="AY48" s="4">
         <v>0.313</v>
       </c>
-      <c r="AN48" s="4">
+      <c r="AZ48" s="4">
         <v>0.41099999999999998</v>
       </c>
-      <c r="AO48" s="4">
+      <c r="BA48" s="4">
         <v>0.497</v>
       </c>
-      <c r="AP48" s="4">
+      <c r="BB48" s="4">
         <v>0.56899999999999995</v>
       </c>
-      <c r="AQ48" s="4">
+      <c r="BC48" s="4">
         <v>0.628</v>
       </c>
-      <c r="AR48" s="4">
+      <c r="BD48" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="AS48" s="4">
+      <c r="BE48" s="4">
         <v>0.71399999999999997</v>
       </c>
-      <c r="AT48" s="4">
+      <c r="BF48" s="4">
         <v>0.746</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -7936,13 +9965,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1">
         <v>5</v>
@@ -8023,45 +10052,81 @@
         <v>1.5948975000000001</v>
       </c>
       <c r="AI49" s="4">
+        <v>-11.176</v>
+      </c>
+      <c r="AJ49" s="4">
+        <v>-0.318</v>
+      </c>
+      <c r="AK49" s="4">
+        <v>-0.42</v>
+      </c>
+      <c r="AL49" s="4">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="AM49" s="4">
+        <v>-0.48</v>
+      </c>
+      <c r="AN49" s="4">
+        <v>-0.45</v>
+      </c>
+      <c r="AO49" s="4">
+        <v>-0.42299999999999999</v>
+      </c>
+      <c r="AP49" s="4">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="AQ49" s="4">
+        <v>-0.36199999999999999</v>
+      </c>
+      <c r="AR49" s="4">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="AS49" s="4">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="AT49" s="4">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="AU49" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ49" s="4">
+      <c r="AV49" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AK49" s="4">
+      <c r="AW49" s="4">
         <v>0.152</v>
       </c>
-      <c r="AL49" s="4">
+      <c r="AX49" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AM49" s="4">
+      <c r="AY49" s="4">
         <v>0.36499999999999999</v>
       </c>
-      <c r="AN49" s="4">
+      <c r="AZ49" s="4">
         <v>0.46</v>
       </c>
-      <c r="AO49" s="4">
+      <c r="BA49" s="4">
         <v>0.54</v>
       </c>
-      <c r="AP49" s="4">
+      <c r="BB49" s="4">
         <v>0.60599999999999998</v>
       </c>
-      <c r="AQ49" s="4">
+      <c r="BC49" s="4">
         <v>0.66</v>
       </c>
-      <c r="AR49" s="4">
+      <c r="BD49" s="4">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AS49" s="4">
+      <c r="BE49" s="4">
         <v>0.73899999999999999</v>
       </c>
-      <c r="AT49" s="4">
+      <c r="BF49" s="4">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -8076,13 +10141,13 @@
         <v>9</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I50" s="1">
         <v>5</v>
@@ -8163,45 +10228,81 @@
         <v>1.7303124999999999</v>
       </c>
       <c r="AI50" s="4">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>1.095</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="AL50" s="4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>0.628</v>
+      </c>
+      <c r="AN50" s="4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="AO50" s="4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AP50" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AQ50" s="4">
+        <v>0.439</v>
+      </c>
+      <c r="AR50" s="4">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AT50" s="4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AU50" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ50" s="4">
+      <c r="AV50" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AK50" s="4">
+      <c r="AW50" s="4">
         <v>0.112</v>
       </c>
-      <c r="AL50" s="4">
+      <c r="AX50" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="AM50" s="4">
+      <c r="AY50" s="4">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AN50" s="4">
+      <c r="AZ50" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AO50" s="4">
+      <c r="BA50" s="4">
         <v>0.47699999999999998</v>
       </c>
-      <c r="AP50" s="4">
+      <c r="BB50" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AQ50" s="4">
+      <c r="BC50" s="4">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AR50" s="4">
+      <c r="BD50" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AS50" s="4">
+      <c r="BE50" s="4">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AT50" s="4">
+      <c r="BF50" s="4">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -8216,13 +10317,13 @@
         <v>9</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1">
         <v>5</v>
@@ -8303,45 +10404,81 @@
         <v>1.6375500000000001</v>
       </c>
       <c r="AI51" s="4">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>-0.48</v>
+      </c>
+      <c r="AL51" s="4">
+        <v>-0.49</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="AN51" s="4">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="AO51" s="4">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="AP51" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="AQ51" s="4">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="AR51" s="4">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="AT51" s="4">
+        <v>-0.41499999999999998</v>
+      </c>
+      <c r="AU51" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ51" s="4">
+      <c r="AV51" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AK51" s="4">
+      <c r="AW51" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AL51" s="4">
+      <c r="AX51" s="4">
         <v>0.33500000000000002</v>
       </c>
-      <c r="AM51" s="4">
+      <c r="AY51" s="4">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AN51" s="4">
+      <c r="AZ51" s="4">
         <v>0.53800000000000003</v>
       </c>
-      <c r="AO51" s="4">
+      <c r="BA51" s="4">
         <v>0.61</v>
       </c>
-      <c r="AP51" s="4">
+      <c r="BB51" s="4">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AQ51" s="4">
+      <c r="BC51" s="4">
         <v>0.71199999999999997</v>
       </c>
-      <c r="AR51" s="4">
+      <c r="BD51" s="4">
         <v>0.747</v>
       </c>
-      <c r="AS51" s="4">
+      <c r="BE51" s="4">
         <v>0.77400000000000002</v>
       </c>
-      <c r="AT51" s="4">
+      <c r="BF51" s="4">
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>14</v>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -8356,13 +10493,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I52" s="1">
         <v>6</v>
@@ -8443,45 +10580,81 @@
         <v>1.719525</v>
       </c>
       <c r="AI52" s="4">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AL52" s="4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AN52" s="4">
+        <v>0.317</v>
+      </c>
+      <c r="AO52" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AP52" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="AQ52" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AR52" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AT52" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AU52" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ52" s="4">
+      <c r="AV52" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AK52" s="4">
+      <c r="AW52" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AL52" s="4">
+      <c r="AX52" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AM52" s="4">
+      <c r="AY52" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AN52" s="4">
+      <c r="AZ52" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AO52" s="4">
+      <c r="BA52" s="4">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AP52" s="4">
+      <c r="BB52" s="4">
         <v>0.63100000000000001</v>
       </c>
-      <c r="AQ52" s="4">
+      <c r="BC52" s="4">
         <v>0.66300000000000003</v>
       </c>
-      <c r="AR52" s="4">
+      <c r="BD52" s="4">
         <v>0.68899999999999995</v>
       </c>
-      <c r="AS52" s="4">
+      <c r="BE52" s="4">
         <v>0.71099999999999997</v>
       </c>
-      <c r="AT52" s="4">
+      <c r="BF52" s="4">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>15</v>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -8496,13 +10669,13 @@
         <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I53" s="1">
         <v>6</v>
@@ -8583,45 +10756,81 @@
         <v>1.6088724999999999</v>
       </c>
       <c r="AI53" s="4">
+        <v>-1.05</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>-0.86099999999999999</v>
+      </c>
+      <c r="AL53" s="4">
+        <v>-0.84899999999999998</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>-0.81699999999999995</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>-0.78500000000000003</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>-0.749</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>-0.69099999999999995</v>
+      </c>
+      <c r="AQ53" s="4">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="AR53" s="4">
+        <v>-0.59399999999999997</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="AT53" s="4">
+        <v>-0.51700000000000002</v>
+      </c>
+      <c r="AU53" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ53" s="4">
+      <c r="AV53" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AK53" s="4">
+      <c r="AW53" s="4">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AL53" s="4">
+      <c r="AX53" s="4">
         <v>0.27800000000000002</v>
       </c>
-      <c r="AM53" s="4">
+      <c r="AY53" s="4">
         <v>0.379</v>
       </c>
-      <c r="AN53" s="4">
+      <c r="AZ53" s="4">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AO53" s="4">
+      <c r="BA53" s="4">
         <v>0.54</v>
       </c>
-      <c r="AP53" s="4">
+      <c r="BB53" s="4">
         <v>0.60199999999999998</v>
       </c>
-      <c r="AQ53" s="4">
+      <c r="BC53" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="AR53" s="4">
+      <c r="BD53" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="AS53" s="4">
+      <c r="BE53" s="4">
         <v>0.73099999999999998</v>
       </c>
-      <c r="AT53" s="4">
+      <c r="BF53" s="4">
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>16</v>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -8636,13 +10845,13 @@
         <v>9</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I54" s="1">
         <v>6</v>
@@ -8723,45 +10932,81 @@
         <v>1.6399599999999999</v>
       </c>
       <c r="AI54" s="4">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="AL54" s="4">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>2.093</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="AO54" s="4">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>1.802</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="AR54" s="4">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="AT54" s="4">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AU54" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ54" s="4">
+      <c r="AV54" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="AK54" s="4">
+      <c r="AW54" s="4">
         <v>0.113</v>
       </c>
-      <c r="AL54" s="4">
+      <c r="AX54" s="4">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AM54" s="4">
+      <c r="AY54" s="4">
         <v>0.25</v>
       </c>
-      <c r="AN54" s="4">
+      <c r="AZ54" s="4">
         <v>0.315</v>
       </c>
-      <c r="AO54" s="4">
+      <c r="BA54" s="4">
         <v>0.376</v>
       </c>
-      <c r="AP54" s="4">
+      <c r="BB54" s="4">
         <v>0.432</v>
       </c>
-      <c r="AQ54" s="4">
+      <c r="BC54" s="4">
         <v>0.48299999999999998</v>
       </c>
-      <c r="AR54" s="4">
+      <c r="BD54" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AS54" s="4">
+      <c r="BE54" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AT54" s="4">
+      <c r="BF54" s="4">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -8776,13 +11021,13 @@
         <v>9</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1">
         <v>6</v>
@@ -8863,45 +11108,81 @@
         <v>1.553385</v>
       </c>
       <c r="AI55" s="4">
+        <v>-5.3869999999999996</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="AL55" s="4">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="AM55" s="4">
+        <v>-0.66300000000000003</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>-0.54</v>
+      </c>
+      <c r="AP55" s="4">
+        <v>-0.46500000000000002</v>
+      </c>
+      <c r="AQ55" s="4">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="AR55" s="4">
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="AS55" s="4">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="AT55" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="AU55" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ55" s="4">
+      <c r="AV55" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="AK55" s="4">
+      <c r="AW55" s="4">
         <v>0.128</v>
       </c>
-      <c r="AL55" s="4">
+      <c r="AX55" s="4">
         <v>0.218</v>
       </c>
-      <c r="AM55" s="4">
+      <c r="AY55" s="4">
         <v>0.311</v>
       </c>
-      <c r="AN55" s="4">
+      <c r="AZ55" s="4">
         <v>0.4</v>
       </c>
-      <c r="AO55" s="4">
+      <c r="BA55" s="4">
         <v>0.47699999999999998</v>
       </c>
-      <c r="AP55" s="4">
+      <c r="BB55" s="4">
         <v>0.54300000000000004</v>
       </c>
-      <c r="AQ55" s="4">
+      <c r="BC55" s="4">
         <v>0.60299999999999998</v>
       </c>
-      <c r="AR55" s="4">
+      <c r="BD55" s="4">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AS55" s="4">
+      <c r="BE55" s="4">
         <v>0.68500000000000005</v>
       </c>
-      <c r="AT55" s="4">
+      <c r="BF55" s="4">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>21</v>
+    <row r="56" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -8916,13 +11197,13 @@
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I56" s="2">
         <v>6</v>
@@ -9002,46 +11283,82 @@
       <c r="AH56" s="6">
         <v>1.7344650000000001</v>
       </c>
-      <c r="AI56" s="4">
+      <c r="AI56" s="7">
+        <v>2.62</v>
+      </c>
+      <c r="AJ56" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="AK56" s="7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AL56" s="7">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AM56" s="7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AO56" s="7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AP56" s="7">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AQ56" s="7">
+        <v>-0.85099999999999998</v>
+      </c>
+      <c r="AR56" s="7">
+        <v>-0.67100000000000004</v>
+      </c>
+      <c r="AS56" s="7">
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="AT56" s="7">
+        <v>-0.49</v>
+      </c>
+      <c r="AU56" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ56" s="4">
+      <c r="AV56" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="AK56" s="4">
+      <c r="AW56" s="4">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AL56" s="4">
+      <c r="AX56" s="4">
         <v>0.33500000000000002</v>
       </c>
-      <c r="AM56" s="4">
+      <c r="AY56" s="4">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AN56" s="4">
+      <c r="AZ56" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="AO56" s="4">
+      <c r="BA56" s="4">
         <v>0.59299999999999997</v>
       </c>
-      <c r="AP56" s="4">
+      <c r="BB56" s="4">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AQ56" s="4">
+      <c r="BC56" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AR56" s="4">
+      <c r="BD56" s="4">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AS56" s="4">
+      <c r="BE56" s="4">
         <v>1.123</v>
       </c>
-      <c r="AT56" s="4">
+      <c r="BF56" s="4">
         <v>1.212</v>
       </c>
     </row>
-    <row r="57" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>20</v>
+    <row r="57" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -9056,13 +11373,13 @@
         <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I57" s="2">
         <v>6</v>
@@ -9142,46 +11459,82 @@
       <c r="AH57" s="6">
         <v>1.6765425</v>
       </c>
-      <c r="AI57" s="4">
+      <c r="AI57" s="7">
+        <v>-336.59300000000002</v>
+      </c>
+      <c r="AJ57" s="7">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="AK57" s="7">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="AL57" s="7">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="AM57" s="7">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="AN57" s="7">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="AO57" s="7">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="AP57" s="7">
+        <v>2.3740000000000001</v>
+      </c>
+      <c r="AQ57" s="7">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="AR57" s="7">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="AS57" s="7">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="AT57" s="7">
+        <v>1.732</v>
+      </c>
+      <c r="AU57" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ57" s="4">
+      <c r="AV57" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AK57" s="4">
+      <c r="AW57" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="AL57" s="4">
+      <c r="AX57" s="4">
         <v>0.121</v>
       </c>
-      <c r="AM57" s="4">
+      <c r="AY57" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="AN57" s="4">
+      <c r="AZ57" s="4">
         <v>0.23499999999999999</v>
       </c>
-      <c r="AO57" s="4">
+      <c r="BA57" s="4">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AP57" s="4">
+      <c r="BB57" s="4">
         <v>0.34300000000000003</v>
       </c>
-      <c r="AQ57" s="4">
+      <c r="BC57" s="4">
         <v>0.39400000000000002</v>
       </c>
-      <c r="AR57" s="4">
+      <c r="BD57" s="4">
         <v>0.44</v>
       </c>
-      <c r="AS57" s="4">
+      <c r="BE57" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="AT57" s="4">
+      <c r="BF57" s="4">
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>18</v>
+    <row r="58" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -9196,13 +11549,13 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I58" s="2">
         <v>6</v>
@@ -9282,46 +11635,82 @@
       <c r="AH58" s="6">
         <v>1.5837174999999999</v>
       </c>
-      <c r="AI58" s="4">
+      <c r="AI58" s="7">
+        <v>-2.1440000000000001</v>
+      </c>
+      <c r="AJ58" s="7">
+        <v>-1.833</v>
+      </c>
+      <c r="AK58" s="7">
+        <v>-1.4219999999999999</v>
+      </c>
+      <c r="AL58" s="7">
+        <v>-1.083</v>
+      </c>
+      <c r="AM58" s="7">
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="AN58" s="7">
+        <v>-0.76700000000000002</v>
+      </c>
+      <c r="AO58" s="7">
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="AP58" s="7">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="AQ58" s="7">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="AR58" s="7">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="AS58" s="7">
+        <v>-0.373</v>
+      </c>
+      <c r="AT58" s="7">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="AU58" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ58" s="4">
+      <c r="AV58" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AK58" s="4">
+      <c r="AW58" s="4">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AL58" s="4">
+      <c r="AX58" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="AM58" s="4">
+      <c r="AY58" s="4">
         <v>0.35699999999999998</v>
       </c>
-      <c r="AN58" s="4">
+      <c r="AZ58" s="4">
         <v>0.442</v>
       </c>
-      <c r="AO58" s="4">
+      <c r="BA58" s="4">
         <v>0.51600000000000001</v>
       </c>
-      <c r="AP58" s="4">
+      <c r="BB58" s="4">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AQ58" s="4">
+      <c r="BC58" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="AR58" s="4">
+      <c r="BD58" s="4">
         <v>0.67400000000000004</v>
       </c>
-      <c r="AS58" s="4">
+      <c r="BE58" s="4">
         <v>0.70399999999999996</v>
       </c>
-      <c r="AT58" s="4">
+      <c r="BF58" s="4">
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
+    <row r="59" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -9336,13 +11725,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I59" s="2">
         <v>4</v>
@@ -9422,46 +11811,82 @@
       <c r="AH59" s="6">
         <v>1.9194891666666667</v>
       </c>
-      <c r="AI59" s="4">
+      <c r="AI59" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="AJ59" s="7">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="AK59" s="7">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="AL59" s="7">
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="AM59" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="AN59" s="7">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="AO59" s="7">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="AP59" s="7">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AQ59" s="7">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="AR59" s="7">
+        <v>0.4768</v>
+      </c>
+      <c r="AS59" s="7">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="AT59" s="7">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="AU59" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ59" s="4">
+      <c r="AV59" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AK59" s="4">
+      <c r="AW59" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AL59" s="4">
+      <c r="AX59" s="4">
         <v>0.253</v>
       </c>
-      <c r="AM59" s="4">
+      <c r="AY59" s="4">
         <v>0.374</v>
       </c>
-      <c r="AN59" s="4">
+      <c r="AZ59" s="4">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AO59" s="4">
+      <c r="BA59" s="4">
         <v>0.53200000000000003</v>
       </c>
-      <c r="AP59" s="4">
+      <c r="BB59" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AQ59" s="4">
+      <c r="BC59" s="4">
         <v>0.624</v>
       </c>
-      <c r="AR59" s="4">
+      <c r="BD59" s="4">
         <v>0.72599999999999998</v>
       </c>
-      <c r="AS59" s="4">
+      <c r="BE59" s="4">
         <v>0.748</v>
       </c>
-      <c r="AT59" s="4">
+      <c r="BF59" s="4">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>3</v>
+    <row r="60" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
@@ -9476,13 +11901,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I60" s="2">
         <v>4</v>
@@ -9562,46 +11987,82 @@
       <c r="AH60" s="6">
         <v>1.6680983333333335</v>
       </c>
-      <c r="AI60" s="4">
+      <c r="AI60" s="7">
+        <v>-0.7339</v>
+      </c>
+      <c r="AJ60" s="7">
+        <v>-0.70220000000000005</v>
+      </c>
+      <c r="AK60" s="7">
+        <v>-0.70979999999999999</v>
+      </c>
+      <c r="AL60" s="7">
+        <v>-0.68720000000000003</v>
+      </c>
+      <c r="AM60" s="7">
+        <v>-0.6946</v>
+      </c>
+      <c r="AN60" s="7">
+        <v>-0.66039999999999999</v>
+      </c>
+      <c r="AO60" s="7">
+        <v>-0.65869999999999995</v>
+      </c>
+      <c r="AP60" s="7">
+        <v>-0.64380000000000004</v>
+      </c>
+      <c r="AQ60" s="7">
+        <v>-0.62419999999999998</v>
+      </c>
+      <c r="AR60" s="7">
+        <v>-0.64029999999999998</v>
+      </c>
+      <c r="AS60" s="7">
+        <v>-0.65639999999999998</v>
+      </c>
+      <c r="AT60" s="7">
+        <v>-0.67759999999999998</v>
+      </c>
+      <c r="AU60" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ60" s="4">
+      <c r="AV60" s="4">
         <v>0.108</v>
       </c>
-      <c r="AK60" s="4">
+      <c r="AW60" s="4">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AL60" s="4">
+      <c r="AX60" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AM60" s="4">
+      <c r="AY60" s="4">
         <v>0.42799999999999999</v>
       </c>
-      <c r="AN60" s="4">
+      <c r="AZ60" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AO60" s="4">
+      <c r="BA60" s="4">
         <v>0.58599999999999997</v>
       </c>
-      <c r="AP60" s="4">
+      <c r="BB60" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="AQ60" s="4">
+      <c r="BC60" s="4">
         <v>0.68600000000000005</v>
       </c>
-      <c r="AR60" s="4">
+      <c r="BD60" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="AS60" s="4">
+      <c r="BE60" s="4">
         <v>0.74</v>
       </c>
-      <c r="AT60" s="4">
+      <c r="BF60" s="4">
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>5</v>
+    <row r="61" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -9616,13 +12077,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I61" s="2">
         <v>4</v>
@@ -9702,46 +12163,82 @@
       <c r="AH61" s="6">
         <v>1.7205716666666668</v>
       </c>
-      <c r="AI61" s="4">
+      <c r="AI61" s="7">
+        <v>1.6236999999999999</v>
+      </c>
+      <c r="AJ61" s="7">
+        <v>-1.7226999999999999</v>
+      </c>
+      <c r="AK61" s="7">
+        <v>-1.4894000000000001</v>
+      </c>
+      <c r="AL61" s="7">
+        <v>-1.0132000000000001</v>
+      </c>
+      <c r="AM61" s="7">
+        <v>-0.79159999999999997</v>
+      </c>
+      <c r="AN61" s="7">
+        <v>-0.71279999999999999</v>
+      </c>
+      <c r="AO61" s="7">
+        <v>-0.66820000000000002</v>
+      </c>
+      <c r="AP61" s="7">
+        <v>-0.6331</v>
+      </c>
+      <c r="AQ61" s="7">
+        <v>-0.61880000000000002</v>
+      </c>
+      <c r="AR61" s="7">
+        <v>-0.60119999999999996</v>
+      </c>
+      <c r="AS61" s="7">
+        <v>-0.62239999999999995</v>
+      </c>
+      <c r="AT61" s="7">
+        <v>-0.65090000000000003</v>
+      </c>
+      <c r="AU61" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ61" s="4">
+      <c r="AV61" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="AK61" s="4">
+      <c r="AW61" s="4">
         <v>0.124</v>
       </c>
-      <c r="AL61" s="4">
+      <c r="AX61" s="4">
         <v>0.221</v>
       </c>
-      <c r="AM61" s="4">
+      <c r="AY61" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AN61" s="4">
+      <c r="AZ61" s="4">
         <v>0.434</v>
       </c>
-      <c r="AO61" s="4">
+      <c r="BA61" s="4">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AP61" s="4">
+      <c r="BB61" s="4">
         <v>0.59799999999999998</v>
       </c>
-      <c r="AQ61" s="4">
+      <c r="BC61" s="4">
         <v>0.65600000000000003</v>
       </c>
-      <c r="AR61" s="4">
+      <c r="BD61" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AS61" s="4">
+      <c r="BE61" s="4">
         <v>0.73399999999999999</v>
       </c>
-      <c r="AT61" s="4">
+      <c r="BF61" s="4">
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>8</v>
+    <row r="62" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -9756,13 +12253,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I62" s="2">
         <v>5</v>
@@ -9842,46 +12339,82 @@
       <c r="AH62" s="6">
         <v>1.7791958333333335</v>
       </c>
-      <c r="AI62" s="4">
+      <c r="AI62" s="7">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="AJ62" s="7">
+        <v>0.1401</v>
+      </c>
+      <c r="AK62" s="7">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="AL62" s="7">
+        <v>-0.23880000000000001</v>
+      </c>
+      <c r="AM62" s="7">
+        <v>-0.26229999999999998</v>
+      </c>
+      <c r="AN62" s="7">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="AO62" s="7">
+        <v>-0.2979</v>
+      </c>
+      <c r="AP62" s="7">
+        <v>-0.31340000000000001</v>
+      </c>
+      <c r="AQ62" s="7">
+        <v>-0.32169999999999999</v>
+      </c>
+      <c r="AR62" s="7">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="AS62" s="7">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="AT62" s="7">
+        <v>0.3891</v>
+      </c>
+      <c r="AU62" s="4">
         <v>0.05</v>
       </c>
-      <c r="AJ62" s="4">
+      <c r="AV62" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AK62" s="4">
+      <c r="AW62" s="4">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AL62" s="4">
+      <c r="AX62" s="4">
         <v>0.373</v>
       </c>
-      <c r="AM62" s="4">
+      <c r="AY62" s="4">
         <v>0.46300000000000002</v>
       </c>
-      <c r="AN62" s="4">
+      <c r="AZ62" s="4">
         <v>0.53400000000000003</v>
       </c>
-      <c r="AO62" s="4">
+      <c r="BA62" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="AP62" s="4">
+      <c r="BB62" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AQ62" s="4">
+      <c r="BC62" s="4">
         <v>0.66600000000000004</v>
       </c>
-      <c r="AR62" s="4">
+      <c r="BD62" s="4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="AS62" s="4">
+      <c r="BE62" s="4">
         <v>0.71699999999999997</v>
       </c>
-      <c r="AT62" s="4">
+      <c r="BF62" s="4">
         <v>0.751</v>
       </c>
     </row>
-    <row r="63" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>9</v>
+    <row r="63" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
@@ -9896,13 +12429,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I63" s="2">
         <v>5</v>
@@ -9982,46 +12515,82 @@
       <c r="AH63" s="6">
         <v>1.6636158333333333</v>
       </c>
-      <c r="AI63" s="4">
+      <c r="AI63" s="7">
+        <v>-2.1291000000000002</v>
+      </c>
+      <c r="AJ63" s="7">
+        <v>-1.6798999999999999</v>
+      </c>
+      <c r="AK63" s="7">
+        <v>-1.0463</v>
+      </c>
+      <c r="AL63" s="7">
+        <v>-0.67379999999999995</v>
+      </c>
+      <c r="AM63" s="7">
+        <v>-0.5615</v>
+      </c>
+      <c r="AN63" s="7">
+        <v>-0.49070000000000003</v>
+      </c>
+      <c r="AO63" s="7">
+        <v>-0.44869999999999999</v>
+      </c>
+      <c r="AP63" s="7">
+        <v>-0.42620000000000002</v>
+      </c>
+      <c r="AQ63" s="7">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="AR63" s="7">
+        <v>-0.42980000000000002</v>
+      </c>
+      <c r="AS63" s="7">
+        <v>-0.45590000000000003</v>
+      </c>
+      <c r="AT63" s="7">
+        <v>-0.4854</v>
+      </c>
+      <c r="AU63" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ63" s="4">
+      <c r="AV63" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AK63" s="4">
+      <c r="AW63" s="4">
         <v>0.222</v>
       </c>
-      <c r="AL63" s="4">
+      <c r="AX63" s="4">
         <v>0.374</v>
       </c>
-      <c r="AM63" s="4">
+      <c r="AY63" s="4">
         <v>0.50900000000000001</v>
       </c>
-      <c r="AN63" s="4">
+      <c r="AZ63" s="4">
         <v>0.61199999999999999</v>
       </c>
-      <c r="AO63" s="4">
+      <c r="BA63" s="4">
         <v>0.68700000000000006</v>
       </c>
-      <c r="AP63" s="4">
+      <c r="BB63" s="4">
         <v>0.73599999999999999</v>
       </c>
-      <c r="AQ63" s="4">
+      <c r="BC63" s="4">
         <v>0.76</v>
       </c>
-      <c r="AR63" s="4">
+      <c r="BD63" s="4">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AS63" s="4">
+      <c r="BE63" s="4">
         <v>0.79100000000000004</v>
       </c>
-      <c r="AT63" s="4">
+      <c r="BF63" s="4">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>10</v>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -10036,13 +12605,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I64" s="1">
         <v>5</v>
@@ -10123,45 +12692,81 @@
         <v>1.6806383333333335</v>
       </c>
       <c r="AI64" s="4">
+        <v>3.6777000000000002</v>
+      </c>
+      <c r="AJ64" s="4">
+        <v>3.2503000000000002</v>
+      </c>
+      <c r="AK64" s="4">
+        <v>2.944</v>
+      </c>
+      <c r="AL64" s="4">
+        <v>2.6086999999999998</v>
+      </c>
+      <c r="AM64" s="4">
+        <v>2.0491999999999999</v>
+      </c>
+      <c r="AN64" s="4">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="AO64" s="4">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="AP64" s="4">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="AQ64" s="4">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="AR64" s="4">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="AS64" s="4">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="AT64" s="4">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="AU64" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ64" s="4">
+      <c r="AV64" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK64" s="4">
+      <c r="AW64" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AL64" s="4">
+      <c r="AX64" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM64" s="4">
+      <c r="AY64" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="AN64" s="4">
+      <c r="AZ64" s="4">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AO64" s="4">
+      <c r="BA64" s="4">
         <v>0.38100000000000001</v>
       </c>
-      <c r="AP64" s="4">
+      <c r="BB64" s="4">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AQ64" s="4">
+      <c r="BC64" s="4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="AR64" s="4">
+      <c r="BD64" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="AS64" s="4">
+      <c r="BE64" s="4">
         <v>0.627</v>
       </c>
-      <c r="AT64" s="4">
+      <c r="BF64" s="4">
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -10176,13 +12781,13 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1">
         <v>5</v>
@@ -10263,45 +12868,81 @@
         <v>1.5914899999999998</v>
       </c>
       <c r="AI65" s="4">
+        <v>-2.4790000000000001</v>
+      </c>
+      <c r="AJ65" s="4">
+        <v>-2.3717000000000001</v>
+      </c>
+      <c r="AK65" s="4">
+        <v>-2.2079</v>
+      </c>
+      <c r="AL65" s="4">
+        <v>0.9577</v>
+      </c>
+      <c r="AM65" s="4">
+        <v>-0.50580000000000003</v>
+      </c>
+      <c r="AN65" s="4">
+        <v>-0.52910000000000001</v>
+      </c>
+      <c r="AO65" s="4">
+        <v>-0.51970000000000005</v>
+      </c>
+      <c r="AP65" s="4">
+        <v>-0.50049999999999994</v>
+      </c>
+      <c r="AQ65" s="4">
+        <v>-0.48520000000000002</v>
+      </c>
+      <c r="AR65" s="4">
+        <v>-0.47370000000000001</v>
+      </c>
+      <c r="AS65" s="4">
+        <v>-0.46400000000000002</v>
+      </c>
+      <c r="AT65" s="4">
+        <v>-0.45140000000000002</v>
+      </c>
+      <c r="AU65" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ65" s="4">
+      <c r="AV65" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AK65" s="4">
+      <c r="AW65" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AL65" s="4">
+      <c r="AX65" s="4">
         <v>0.17</v>
       </c>
-      <c r="AM65" s="4">
+      <c r="AY65" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AN65" s="4">
+      <c r="AZ65" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AO65" s="4">
+      <c r="BA65" s="4">
         <v>0.44</v>
       </c>
-      <c r="AP65" s="4">
+      <c r="BB65" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AQ65" s="4">
+      <c r="BC65" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AR65" s="4">
+      <c r="BD65" s="4">
         <v>0.627</v>
       </c>
-      <c r="AS65" s="4">
+      <c r="BE65" s="4">
         <v>0.66800000000000004</v>
       </c>
-      <c r="AT65" s="4">
+      <c r="BF65" s="4">
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>12</v>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
@@ -10316,13 +12957,13 @@
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I66" s="1">
         <v>5</v>
@@ -10403,45 +13044,81 @@
         <v>1.7235908333333332</v>
       </c>
       <c r="AI66" s="4">
+        <v>4.1154000000000002</v>
+      </c>
+      <c r="AJ66" s="4">
+        <v>4.0053999999999998</v>
+      </c>
+      <c r="AK66" s="4">
+        <v>3.8847</v>
+      </c>
+      <c r="AL66" s="4">
+        <v>0.1971</v>
+      </c>
+      <c r="AM66" s="4">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="AN66" s="4">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="AO66" s="4">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="AP66" s="4">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="AQ66" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="AR66" s="4">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AS66" s="4">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="AT66" s="4">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="AU66" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ66" s="4">
+      <c r="AV66" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AK66" s="4">
+      <c r="AW66" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AL66" s="4">
+      <c r="AX66" s="4">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AM66" s="4">
+      <c r="AY66" s="4">
         <v>0.223</v>
       </c>
-      <c r="AN66" s="4">
+      <c r="AZ66" s="4">
         <v>0.308</v>
       </c>
-      <c r="AO66" s="4">
+      <c r="BA66" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AP66" s="4">
+      <c r="BB66" s="4">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AQ66" s="4">
+      <c r="BC66" s="4">
         <v>0.53200000000000003</v>
       </c>
-      <c r="AR66" s="4">
+      <c r="BD66" s="4">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AS66" s="4">
+      <c r="BE66" s="4">
         <v>0.626</v>
       </c>
-      <c r="AT66" s="4">
+      <c r="BF66" s="4">
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>3</v>
@@ -10456,13 +13133,13 @@
         <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I67" s="1">
         <v>5</v>
@@ -10543,45 +13220,81 @@
         <v>1.6311833333333332</v>
       </c>
       <c r="AI67" s="4">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AJ67" s="4">
+        <v>-0.39629999999999999</v>
+      </c>
+      <c r="AK67" s="4">
+        <v>-0.46910000000000002</v>
+      </c>
+      <c r="AL67" s="4">
+        <v>-0.52549999999999997</v>
+      </c>
+      <c r="AM67" s="4">
+        <v>-0.56930000000000003</v>
+      </c>
+      <c r="AN67" s="4">
+        <v>-0.57830000000000004</v>
+      </c>
+      <c r="AO67" s="4">
+        <v>-0.58919999999999995</v>
+      </c>
+      <c r="AP67" s="4">
+        <v>-0.57430000000000003</v>
+      </c>
+      <c r="AQ67" s="4">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="AR67" s="4">
+        <v>-0.54690000000000005</v>
+      </c>
+      <c r="AS67" s="4">
+        <v>-0.54059999999999997</v>
+      </c>
+      <c r="AT67" s="4">
+        <v>-0.55420000000000003</v>
+      </c>
+      <c r="AU67" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ67" s="4">
+      <c r="AV67" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="AK67" s="4">
+      <c r="AW67" s="4">
         <v>0.155</v>
       </c>
-      <c r="AL67" s="4">
+      <c r="AX67" s="4">
         <v>0.255</v>
       </c>
-      <c r="AM67" s="4">
+      <c r="AY67" s="4">
         <v>0.35899999999999999</v>
       </c>
-      <c r="AN67" s="4">
+      <c r="AZ67" s="4">
         <v>0.45100000000000001</v>
       </c>
-      <c r="AO67" s="4">
+      <c r="BA67" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AP67" s="4">
+      <c r="BB67" s="4">
         <v>0.59499999999999997</v>
       </c>
-      <c r="AQ67" s="4">
+      <c r="BC67" s="4">
         <v>0.64600000000000002</v>
       </c>
-      <c r="AR67" s="4">
+      <c r="BD67" s="4">
         <v>0.68899999999999995</v>
       </c>
-      <c r="AS67" s="4">
+      <c r="BE67" s="4">
         <v>0.72099999999999997</v>
       </c>
-      <c r="AT67" s="4">
+      <c r="BF67" s="4">
         <v>0.747</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>3</v>
@@ -10596,13 +13309,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I68" s="1">
         <v>6</v>
@@ -10683,45 +13396,81 @@
         <v>1.5986125</v>
       </c>
       <c r="AI68" s="4">
+        <v>-1.7576000000000001</v>
+      </c>
+      <c r="AJ68" s="4">
+        <v>-1.3924000000000001</v>
+      </c>
+      <c r="AK68" s="4">
+        <v>-1.0051000000000001</v>
+      </c>
+      <c r="AL68" s="4">
+        <v>-0.8276</v>
+      </c>
+      <c r="AM68" s="4">
+        <v>-0.71950000000000003</v>
+      </c>
+      <c r="AN68" s="4">
+        <v>-0.63959999999999995</v>
+      </c>
+      <c r="AO68" s="4">
+        <v>-0.57030000000000003</v>
+      </c>
+      <c r="AP68" s="4">
+        <v>-0.53369999999999995</v>
+      </c>
+      <c r="AQ68" s="4">
+        <v>-0.5262</v>
+      </c>
+      <c r="AR68" s="4">
+        <v>-0.52159999999999995</v>
+      </c>
+      <c r="AS68" s="4">
+        <v>-0.52869999999999995</v>
+      </c>
+      <c r="AT68" s="4">
+        <v>-0.53049999999999997</v>
+      </c>
+      <c r="AU68" s="4">
         <v>0.03</v>
       </c>
-      <c r="AJ68" s="4">
+      <c r="AV68" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AK68" s="4">
+      <c r="AW68" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="AL68" s="4">
+      <c r="AX68" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="AM68" s="4">
+      <c r="AY68" s="4">
         <v>0.37</v>
       </c>
-      <c r="AN68" s="4">
+      <c r="AZ68" s="4">
         <v>0.45600000000000002</v>
       </c>
-      <c r="AO68" s="4">
+      <c r="BA68" s="4">
         <v>0.53</v>
       </c>
-      <c r="AP68" s="4">
+      <c r="BB68" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="AQ68" s="4">
+      <c r="BC68" s="4">
         <v>0.623</v>
       </c>
-      <c r="AR68" s="4">
+      <c r="BD68" s="4">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AS68" s="4">
+      <c r="BE68" s="4">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AT68" s="4">
+      <c r="BF68" s="4">
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>16</v>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -10736,13 +13485,13 @@
         <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I69" s="1">
         <v>6</v>
@@ -10823,45 +13572,81 @@
         <v>1.6349624999999999</v>
       </c>
       <c r="AI69" s="4">
+        <v>5.2176999999999998</v>
+      </c>
+      <c r="AJ69" s="4">
+        <v>4.2937000000000003</v>
+      </c>
+      <c r="AK69" s="4">
+        <v>3.9161999999999999</v>
+      </c>
+      <c r="AL69" s="4">
+        <v>3.5787</v>
+      </c>
+      <c r="AM69" s="4">
+        <v>3.2742</v>
+      </c>
+      <c r="AN69" s="4">
+        <v>2.9756</v>
+      </c>
+      <c r="AO69" s="4">
+        <v>2.7395999999999998</v>
+      </c>
+      <c r="AP69" s="4">
+        <v>2.5280999999999998</v>
+      </c>
+      <c r="AQ69" s="4">
+        <v>2.3403</v>
+      </c>
+      <c r="AR69" s="4">
+        <v>2.133</v>
+      </c>
+      <c r="AS69" s="4">
+        <v>1.9133</v>
+      </c>
+      <c r="AT69" s="4">
+        <v>1.6646000000000001</v>
+      </c>
+      <c r="AU69" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ69" s="4">
+      <c r="AV69" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AK69" s="4">
+      <c r="AW69" s="4">
         <v>0.122</v>
       </c>
-      <c r="AL69" s="4">
+      <c r="AX69" s="4">
         <v>0.191</v>
       </c>
-      <c r="AM69" s="4">
+      <c r="AY69" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AN69" s="4">
+      <c r="AZ69" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="AO69" s="4">
+      <c r="BA69" s="4">
         <v>0.38400000000000001</v>
       </c>
-      <c r="AP69" s="4">
+      <c r="BB69" s="4">
         <v>0.437</v>
       </c>
-      <c r="AQ69" s="4">
+      <c r="BC69" s="4">
         <v>0.48399999999999999</v>
       </c>
-      <c r="AR69" s="4">
+      <c r="BD69" s="4">
         <v>0.52600000000000002</v>
       </c>
-      <c r="AS69" s="4">
+      <c r="BE69" s="4">
         <v>0.56499999999999995</v>
       </c>
-      <c r="AT69" s="4">
+      <c r="BF69" s="4">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>20</v>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
@@ -10876,13 +13661,13 @@
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I70" s="1">
         <v>6</v>
@@ -10963,45 +13748,81 @@
         <v>1.6680408333333334</v>
       </c>
       <c r="AI70" s="4">
+        <v>5.7907999999999999</v>
+      </c>
+      <c r="AJ70" s="4">
+        <v>5.6835000000000004</v>
+      </c>
+      <c r="AK70" s="4">
+        <v>5.1058000000000003</v>
+      </c>
+      <c r="AL70" s="4">
+        <v>3.1345999999999998</v>
+      </c>
+      <c r="AM70" s="4">
+        <v>2.6272000000000002</v>
+      </c>
+      <c r="AN70" s="4">
+        <v>2.4777999999999998</v>
+      </c>
+      <c r="AO70" s="4">
+        <v>2.3889</v>
+      </c>
+      <c r="AP70" s="4">
+        <v>2.2631000000000001</v>
+      </c>
+      <c r="AQ70" s="4">
+        <v>2.1701000000000001</v>
+      </c>
+      <c r="AR70" s="4">
+        <v>2.0966999999999998</v>
+      </c>
+      <c r="AS70" s="4">
+        <v>1.978</v>
+      </c>
+      <c r="AT70" s="4">
+        <v>1.8514999999999999</v>
+      </c>
+      <c r="AU70" s="4">
         <v>0.02</v>
       </c>
-      <c r="AJ70" s="4">
+      <c r="AV70" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="AK70" s="4">
+      <c r="AW70" s="4">
         <v>0.112</v>
       </c>
-      <c r="AL70" s="4">
+      <c r="AX70" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AM70" s="4">
+      <c r="AY70" s="4">
         <v>0.25700000000000001</v>
       </c>
-      <c r="AN70" s="4">
+      <c r="AZ70" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="AO70" s="4">
+      <c r="BA70" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AP70" s="4">
+      <c r="BB70" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AQ70" s="4">
+      <c r="BC70" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="AR70" s="4">
+      <c r="BD70" s="4">
         <v>0.52400000000000002</v>
       </c>
-      <c r="AS70" s="4">
+      <c r="BE70" s="4">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AT70" s="4">
+      <c r="BF70" s="4">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>18</v>
+    <row r="71" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
@@ -11016,13 +13837,13 @@
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I71" s="2">
         <v>6</v>
@@ -11102,45 +13923,82 @@
       <c r="AH71" s="6">
         <v>1.5803666666666665</v>
       </c>
-      <c r="AI71" s="4">
+      <c r="AI71" s="7">
+        <v>-1.1162000000000001</v>
+      </c>
+      <c r="AJ71" s="7">
+        <v>-1.8694</v>
+      </c>
+      <c r="AK71" s="7">
+        <v>-1.4684999999999999</v>
+      </c>
+      <c r="AL71" s="7">
+        <v>-1.2996000000000001</v>
+      </c>
+      <c r="AM71" s="7">
+        <v>-1.1675</v>
+      </c>
+      <c r="AN71" s="7">
+        <v>-1.0274000000000001</v>
+      </c>
+      <c r="AO71" s="7">
+        <v>-0.90069999999999995</v>
+      </c>
+      <c r="AP71" s="7">
+        <v>-0.78769999999999996</v>
+      </c>
+      <c r="AQ71" s="7">
+        <v>-0.68789999999999996</v>
+      </c>
+      <c r="AR71" s="7">
+        <v>-0.6069</v>
+      </c>
+      <c r="AS71" s="7">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="AT71" s="7">
+        <v>-0.54190000000000005</v>
+      </c>
+      <c r="AU71" s="4">
         <v>0.01</v>
       </c>
-      <c r="AJ71" s="4">
+      <c r="AV71" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AK71" s="4">
+      <c r="AW71" s="4">
         <v>0.114</v>
       </c>
-      <c r="AL71" s="4">
+      <c r="AX71" s="4">
         <v>0.2</v>
       </c>
-      <c r="AM71" s="4">
+      <c r="AY71" s="4">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AN71" s="4">
+      <c r="AZ71" s="4">
         <v>0.38</v>
       </c>
-      <c r="AO71" s="4">
+      <c r="BA71" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AP71" s="4">
+      <c r="BB71" s="4">
         <v>0.52700000000000002</v>
       </c>
-      <c r="AQ71" s="4">
+      <c r="BC71" s="4">
         <v>0.58599999999999997</v>
       </c>
-      <c r="AR71" s="4">
+      <c r="BD71" s="4">
         <v>0.63600000000000001</v>
       </c>
-      <c r="AS71" s="4">
+      <c r="BE71" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="AT71" s="4">
+      <c r="BF71" s="4">
         <v>0.69899999999999995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ztml/rdata/simple_dataset.xlsx
+++ b/ztml/rdata/simple_dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
   <si>
     <r>
       <t>N</t>
@@ -548,58 +548,7 @@
   </si>
   <si>
     <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AC</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BC</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Av</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -1473,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF71"/>
+  <dimension ref="A1:BC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1492,17 +1441,16 @@
     <col min="26" max="26" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="46" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.75" style="4" customWidth="1"/>
-    <col min="48" max="58" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="13.75" style="1"/>
+    <col min="31" max="31" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="43" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.75" style="4" customWidth="1"/>
+    <col min="45" max="55" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="13.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1595,19 +1543,19 @@
         <v>39</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>55</v>
@@ -1631,16 +1579,16 @@
         <v>61</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AV1" s="8" t="s">
         <v>43</v>
@@ -1666,17 +1614,8 @@
       <c r="BC1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1767,92 +1706,83 @@
       <c r="AD2" s="5">
         <v>2.7216399999999998</v>
       </c>
-      <c r="AE2" s="4">
-        <v>1.9911300000000001</v>
+      <c r="AE2" s="5">
+        <v>2.7388849999999998</v>
       </c>
       <c r="AF2" s="4">
-        <v>1.9260350000000002</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>2.7388849999999998</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>1.9585825000000001</v>
+        <v>0.27368399999999998</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0.35445900000000002</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0.401229</v>
       </c>
       <c r="AI2" s="4">
-        <v>0.27368399999999998</v>
+        <v>0.43809199999999998</v>
       </c>
       <c r="AJ2" s="4">
-        <v>0.35445900000000002</v>
+        <v>0.46502900000000003</v>
       </c>
       <c r="AK2" s="4">
-        <v>0.401229</v>
+        <v>0.49890899999999999</v>
       </c>
       <c r="AL2" s="4">
-        <v>0.43809199999999998</v>
+        <v>0.55500799999999995</v>
       </c>
       <c r="AM2" s="4">
-        <v>0.46502900000000003</v>
+        <v>0.60258599999999996</v>
       </c>
       <c r="AN2" s="4">
-        <v>0.49890899999999999</v>
+        <v>0.66075700000000004</v>
       </c>
       <c r="AO2" s="4">
-        <v>0.55500799999999995</v>
+        <v>0.70370100000000002</v>
       </c>
       <c r="AP2" s="4">
-        <v>0.60258599999999996</v>
+        <v>0.557504</v>
       </c>
       <c r="AQ2" s="4">
-        <v>0.66075700000000004</v>
+        <v>0.59111899999999995</v>
       </c>
       <c r="AR2" s="4">
-        <v>0.70370100000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AS2" s="4">
-        <v>0.557504</v>
+        <v>0.08</v>
       </c>
       <c r="AT2" s="4">
-        <v>0.59111899999999995</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AU2" s="4">
-        <v>0.02</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="AV2" s="4">
-        <v>0.08</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="AW2" s="4">
-        <v>0.16600000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AX2" s="4">
-        <v>0.26700000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="AY2" s="4">
-        <v>0.36499999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AZ2" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="BA2" s="4">
-        <v>0.51200000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="BB2" s="4">
-        <v>0.55800000000000005</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="BC2" s="4">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="BE2" s="4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="BF2" s="4">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1943,92 +1873,83 @@
       <c r="AD3" s="5">
         <v>2.905125</v>
       </c>
-      <c r="AE3" s="4">
-        <v>1.8795200000000001</v>
+      <c r="AE3" s="5">
+        <v>2.9162724999999998</v>
       </c>
       <c r="AF3" s="4">
-        <v>1.72567</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>2.9162724999999998</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>1.8025950000000002</v>
+        <v>-3.0840000000000001</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>-3.0273500000000002</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>-2.9887000000000001</v>
       </c>
       <c r="AI3" s="4">
-        <v>-3.0840000000000001</v>
+        <v>-2.9520200000000001</v>
       </c>
       <c r="AJ3" s="4">
-        <v>-3.0273500000000002</v>
+        <v>-2.8150499999999998</v>
       </c>
       <c r="AK3" s="4">
-        <v>-2.9887000000000001</v>
+        <v>0.28371099999999999</v>
       </c>
       <c r="AL3" s="4">
-        <v>-2.9520200000000001</v>
+        <v>0.29447899999999999</v>
       </c>
       <c r="AM3" s="4">
-        <v>-2.8150499999999998</v>
+        <v>-0.22861400000000001</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.28371099999999999</v>
+        <v>-0.24592600000000001</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.29447899999999999</v>
+        <v>-0.25431599999999999</v>
       </c>
       <c r="AP3" s="4">
-        <v>-0.22861400000000001</v>
+        <v>-0.25687900000000002</v>
       </c>
       <c r="AQ3" s="4">
-        <v>-0.24592600000000001</v>
+        <v>-0.28733900000000001</v>
       </c>
       <c r="AR3" s="4">
-        <v>-0.25431599999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AS3" s="4">
-        <v>-0.25687900000000002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT3" s="4">
-        <v>-0.28733900000000001</v>
+        <v>0.127</v>
       </c>
       <c r="AU3" s="4">
-        <v>0.03</v>
+        <v>0.188</v>
       </c>
       <c r="AV3" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.249</v>
       </c>
       <c r="AW3" s="4">
-        <v>0.127</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AX3" s="4">
-        <v>0.188</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AY3" s="4">
-        <v>0.249</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AZ3" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="BA3" s="4">
-        <v>0.40300000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="BB3" s="4">
-        <v>0.48899999999999999</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="BC3" s="4">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="BD3" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="BE3" s="4">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="BF3" s="4">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2119,92 +2040,83 @@
       <c r="AD4" s="5">
         <v>2.9578899999999999</v>
       </c>
-      <c r="AE4" s="4">
-        <v>1.8344400000000001</v>
+      <c r="AE4" s="5">
+        <v>2.8848500000000001</v>
       </c>
       <c r="AF4" s="4">
-        <v>1.711535</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>2.8848500000000001</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>1.7729875000000002</v>
+        <v>11.040699999999999</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1.75623</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1.6854100000000001</v>
       </c>
       <c r="AI4" s="4">
-        <v>11.040699999999999</v>
+        <v>1.66428</v>
       </c>
       <c r="AJ4" s="4">
-        <v>1.75623</v>
+        <v>1.67265</v>
       </c>
       <c r="AK4" s="4">
-        <v>1.6854100000000001</v>
+        <v>1.6230500000000001</v>
       </c>
       <c r="AL4" s="4">
-        <v>1.66428</v>
+        <v>1.56423</v>
       </c>
       <c r="AM4" s="4">
-        <v>1.67265</v>
+        <v>1.46584</v>
       </c>
       <c r="AN4" s="4">
-        <v>1.6230500000000001</v>
+        <v>1.32369</v>
       </c>
       <c r="AO4" s="4">
-        <v>1.56423</v>
+        <v>1.1426799999999999</v>
       </c>
       <c r="AP4" s="4">
-        <v>1.46584</v>
+        <v>1.0055099999999999</v>
       </c>
       <c r="AQ4" s="4">
-        <v>1.32369</v>
+        <v>0.88432999999999995</v>
       </c>
       <c r="AR4" s="4">
-        <v>1.1426799999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS4" s="4">
-        <v>1.0055099999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AT4" s="4">
-        <v>0.88432999999999995</v>
+        <v>0.105</v>
       </c>
       <c r="AU4" s="4">
-        <v>0.02</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="AV4" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.246</v>
       </c>
       <c r="AW4" s="4">
-        <v>0.105</v>
+        <v>0.317</v>
       </c>
       <c r="AX4" s="4">
-        <v>0.17399999999999999</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="AY4" s="4">
-        <v>0.246</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AZ4" s="4">
-        <v>0.317</v>
+        <v>0.504</v>
       </c>
       <c r="BA4" s="4">
-        <v>0.38400000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="BB4" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="BC4" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="BD4" s="4">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="BE4" s="4">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="BF4" s="4">
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2295,92 +2207,83 @@
       <c r="AD5" s="5">
         <v>3.146515</v>
       </c>
-      <c r="AE5" s="4">
-        <v>1.7743599999999999</v>
+      <c r="AE5" s="5">
+        <v>3.0560974999999999</v>
       </c>
       <c r="AF5" s="4">
-        <v>1.567105</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>3.0560974999999999</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>1.6707325</v>
+        <v>-2.5742099999999999</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>-2.4096199999999999</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>-1.95442</v>
       </c>
       <c r="AI5" s="4">
-        <v>-2.5742099999999999</v>
+        <v>-1.41919</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-2.4096199999999999</v>
+        <v>-1.00576</v>
       </c>
       <c r="AK5" s="4">
-        <v>-1.95442</v>
+        <v>-0.78753200000000001</v>
       </c>
       <c r="AL5" s="4">
-        <v>-1.41919</v>
+        <v>-0.67089100000000002</v>
       </c>
       <c r="AM5" s="4">
-        <v>-1.00576</v>
+        <v>-0.60417799999999999</v>
       </c>
       <c r="AN5" s="4">
-        <v>-0.78753200000000001</v>
+        <v>-0.570187</v>
       </c>
       <c r="AO5" s="4">
-        <v>-0.67089100000000002</v>
+        <v>-0.53878499999999996</v>
       </c>
       <c r="AP5" s="4">
-        <v>-0.60417799999999999</v>
+        <v>-0.51688299999999998</v>
       </c>
       <c r="AQ5" s="4">
-        <v>-0.570187</v>
+        <v>-0.50158400000000003</v>
       </c>
       <c r="AR5" s="4">
-        <v>-0.53878499999999996</v>
+        <v>0.03</v>
       </c>
       <c r="AS5" s="4">
-        <v>-0.51688299999999998</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AT5" s="4">
-        <v>-0.50158400000000003</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AU5" s="4">
-        <v>0.03</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="AV5" s="4">
-        <v>9.9000000000000005E-2</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="AW5" s="4">
-        <v>0.19600000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AX5" s="4">
-        <v>0.30399999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="AY5" s="4">
-        <v>0.41099999999999998</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="AZ5" s="4">
-        <v>0.50600000000000001</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="BA5" s="4">
-        <v>0.58299999999999996</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="BB5" s="4">
-        <v>0.64700000000000002</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="BC5" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="BD5" s="4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="BE5" s="4">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="BF5" s="4">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2471,92 +2374,83 @@
       <c r="AD6" s="5">
         <v>2.8865850000000002</v>
       </c>
-      <c r="AE6" s="4">
-        <v>1.85023</v>
+      <c r="AE6" s="5">
+        <v>2.8420925000000001</v>
       </c>
       <c r="AF6" s="4">
-        <v>1.806805</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>2.8420925000000001</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>1.8285175</v>
+        <v>-2.69543</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>-2.6336300000000001</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1.68228</v>
       </c>
       <c r="AI6" s="4">
-        <v>-2.69543</v>
+        <v>1.5537300000000001</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-2.6336300000000001</v>
+        <v>1.4972000000000001</v>
       </c>
       <c r="AK6" s="4">
-        <v>1.68228</v>
+        <v>1.4422200000000001</v>
       </c>
       <c r="AL6" s="4">
-        <v>1.5537300000000001</v>
+        <v>1.37944</v>
       </c>
       <c r="AM6" s="4">
-        <v>1.4972000000000001</v>
+        <v>1.3218799999999999</v>
       </c>
       <c r="AN6" s="4">
-        <v>1.4422200000000001</v>
+        <v>1.2558400000000001</v>
       </c>
       <c r="AO6" s="4">
-        <v>1.37944</v>
+        <v>1.1855</v>
       </c>
       <c r="AP6" s="4">
-        <v>1.3218799999999999</v>
+        <v>1.1105100000000001</v>
       </c>
       <c r="AQ6" s="4">
-        <v>1.2558400000000001</v>
+        <v>1.0446899999999999</v>
       </c>
       <c r="AR6" s="4">
-        <v>1.1855</v>
+        <v>0.01</v>
       </c>
       <c r="AS6" s="4">
-        <v>1.1105100000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AT6" s="4">
-        <v>1.0446899999999999</v>
+        <v>0.08</v>
       </c>
       <c r="AU6" s="4">
-        <v>0.01</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="AV6" s="4">
-        <v>3.7999999999999999E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.08</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.14099999999999999</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="AY6" s="4">
-        <v>0.20699999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="AZ6" s="4">
-        <v>0.27400000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="BA6" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="BB6" s="4">
-        <v>0.39400000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="BC6" s="4">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="BD6" s="4">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="BE6" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="BF6" s="4">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2647,92 +2541,83 @@
       <c r="AD7" s="5">
         <v>3.0705299999999998</v>
       </c>
-      <c r="AE7" s="4">
-        <v>1.77413</v>
+      <c r="AE7" s="5">
+        <v>3.0140849999999997</v>
       </c>
       <c r="AF7" s="4">
-        <v>1.6571400000000001</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>3.0140849999999997</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>1.715635</v>
+        <v>-5.5202799999999996</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>-5.6588500000000002</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>-5.4044100000000004</v>
       </c>
       <c r="AI7" s="4">
-        <v>-5.5202799999999996</v>
+        <v>-4.9169499999999999</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-5.6588500000000002</v>
+        <v>-4.25962</v>
       </c>
       <c r="AK7" s="4">
-        <v>-5.4044100000000004</v>
+        <v>-3.5097900000000002</v>
       </c>
       <c r="AL7" s="4">
-        <v>-4.9169499999999999</v>
+        <v>-2.30314</v>
       </c>
       <c r="AM7" s="4">
-        <v>-4.25962</v>
+        <v>-0.62129500000000004</v>
       </c>
       <c r="AN7" s="4">
-        <v>-3.5097900000000002</v>
+        <v>-0.58373200000000003</v>
       </c>
       <c r="AO7" s="4">
-        <v>-2.30314</v>
+        <v>-0.56018400000000002</v>
       </c>
       <c r="AP7" s="4">
-        <v>-0.62129500000000004</v>
+        <v>-0.53244999999999998</v>
       </c>
       <c r="AQ7" s="4">
-        <v>-0.58373200000000003</v>
+        <v>-0.52010900000000004</v>
       </c>
       <c r="AR7" s="4">
-        <v>-0.56018400000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AS7" s="4">
-        <v>-0.53244999999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AT7" s="4">
-        <v>-0.52010900000000004</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="AU7" s="4">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AV7" s="4">
-        <v>7.3999999999999996E-2</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="AW7" s="4">
-        <v>0.13900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AX7" s="4">
-        <v>0.21</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="AY7" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="AZ7" s="4">
-        <v>0.35299999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="BA7" s="4">
-        <v>0.42599999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="BB7" s="4">
-        <v>0.51800000000000002</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="BC7" s="4">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="BD7" s="4">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="BE7" s="4">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="BF7" s="4">
         <v>0.746</v>
       </c>
     </row>
-    <row r="8" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2823,92 +2708,83 @@
       <c r="AD8" s="6">
         <v>3.1499300000000003</v>
       </c>
-      <c r="AE8" s="7">
-        <v>1.8988400000000001</v>
+      <c r="AE8" s="6">
+        <v>3.0236900000000002</v>
       </c>
       <c r="AF8" s="7">
-        <v>1.539485</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>3.0236900000000002</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>1.7191624999999999</v>
+        <v>-0.39330599999999999</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>-0.43668699999999999</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>-0.46592499999999998</v>
       </c>
       <c r="AI8" s="7">
-        <v>-0.39330599999999999</v>
+        <v>-0.46826299999999998</v>
       </c>
       <c r="AJ8" s="7">
-        <v>-0.43668699999999999</v>
+        <v>-0.46893099999999999</v>
       </c>
       <c r="AK8" s="7">
-        <v>-0.46592499999999998</v>
+        <v>-0.44911099999999998</v>
       </c>
       <c r="AL8" s="7">
-        <v>-0.46826299999999998</v>
+        <v>-0.43838500000000002</v>
       </c>
       <c r="AM8" s="7">
-        <v>-0.46893099999999999</v>
+        <v>-0.43963000000000002</v>
       </c>
       <c r="AN8" s="7">
-        <v>-0.44911099999999998</v>
+        <v>-0.43004399999999998</v>
       </c>
       <c r="AO8" s="7">
-        <v>-0.43838500000000002</v>
+        <v>-0.42844900000000002</v>
       </c>
       <c r="AP8" s="7">
-        <v>-0.43963000000000002</v>
+        <v>-0.44442300000000001</v>
       </c>
       <c r="AQ8" s="7">
-        <v>-0.43004399999999998</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>-0.42844900000000002</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>-0.44442300000000001</v>
-      </c>
-      <c r="AT8" s="7">
         <v>-0.45693</v>
       </c>
+      <c r="AR8" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0.35099999999999998</v>
+      </c>
       <c r="AU8" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="AV8" s="4">
-        <v>0.19600000000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.35099999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AX8" s="4">
-        <v>0.48599999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AY8" s="4">
-        <v>0.59299999999999997</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AZ8" s="4">
-        <v>0.67300000000000004</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="BA8" s="4">
-        <v>0.73299999999999998</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="BB8" s="4">
-        <v>0.77700000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="BC8" s="4">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="BD8" s="4">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="BE8" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="BF8" s="4">
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2999,92 +2875,83 @@
       <c r="AD9" s="5">
         <v>3.0727549999999999</v>
       </c>
-      <c r="AE9" s="4">
-        <v>1.91296</v>
+      <c r="AE9" s="5">
+        <v>2.9799175</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.6308549999999999</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>2.9799175</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>1.7719075</v>
+        <v>-2.4028299999999998</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>-2.5987200000000001</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>-2.38185</v>
       </c>
       <c r="AI9" s="4">
-        <v>-2.4028299999999998</v>
+        <v>-1.7496</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-2.5987200000000001</v>
+        <v>-0.620722</v>
       </c>
       <c r="AK9" s="4">
-        <v>-2.38185</v>
+        <v>-0.55920800000000004</v>
       </c>
       <c r="AL9" s="4">
-        <v>-1.7496</v>
+        <v>-0.53273700000000002</v>
       </c>
       <c r="AM9" s="4">
-        <v>-0.620722</v>
+        <v>-0.51479600000000003</v>
       </c>
       <c r="AN9" s="4">
-        <v>-0.55920800000000004</v>
+        <v>-0.48841499999999999</v>
       </c>
       <c r="AO9" s="4">
-        <v>-0.53273700000000002</v>
+        <v>-0.49508200000000002</v>
       </c>
       <c r="AP9" s="4">
-        <v>-0.51479600000000003</v>
+        <v>-0.52147100000000002</v>
       </c>
       <c r="AQ9" s="4">
-        <v>-0.48841499999999999</v>
+        <v>-0.55470900000000001</v>
       </c>
       <c r="AR9" s="4">
-        <v>-0.49508200000000002</v>
+        <v>0.03</v>
       </c>
       <c r="AS9" s="4">
-        <v>-0.52147100000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AT9" s="4">
-        <v>-0.55470900000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="AU9" s="4">
-        <v>0.03</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AV9" s="4">
-        <v>8.6999999999999994E-2</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="AW9" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AX9" s="4">
-        <v>0.27200000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="AY9" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="AZ9" s="4">
-        <v>0.49399999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="BA9" s="4">
-        <v>0.57699999999999996</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="BB9" s="4">
-        <v>0.64400000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="BC9" s="4">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="BD9" s="4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="BE9" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="BF9" s="4">
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3175,92 +3042,83 @@
       <c r="AD10" s="6">
         <v>2.730515</v>
       </c>
-      <c r="AE10" s="7">
-        <v>1.76339</v>
+      <c r="AE10" s="6">
+        <v>2.8271474999999997</v>
       </c>
       <c r="AF10" s="7">
-        <v>1.8975550000000001</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>2.8271474999999997</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>1.8304724999999999</v>
+        <v>0.37023200000000001</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0.38792199999999999</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.41411399999999998</v>
       </c>
       <c r="AI10" s="7">
-        <v>0.37023200000000001</v>
+        <v>0.44686199999999998</v>
       </c>
       <c r="AJ10" s="7">
-        <v>0.38792199999999999</v>
+        <v>0.47085100000000002</v>
       </c>
       <c r="AK10" s="7">
-        <v>0.41411399999999998</v>
+        <v>0.53876299999999999</v>
       </c>
       <c r="AL10" s="7">
-        <v>0.44686199999999998</v>
+        <v>0.589785</v>
       </c>
       <c r="AM10" s="7">
-        <v>0.47085100000000002</v>
+        <v>0.64658400000000005</v>
       </c>
       <c r="AN10" s="7">
-        <v>0.53876299999999999</v>
+        <v>0.53476299999999999</v>
       </c>
       <c r="AO10" s="7">
-        <v>0.589785</v>
+        <v>0.56220499999999995</v>
       </c>
       <c r="AP10" s="7">
-        <v>0.64658400000000005</v>
+        <v>0.59361900000000001</v>
       </c>
       <c r="AQ10" s="7">
-        <v>0.53476299999999999</v>
-      </c>
-      <c r="AR10" s="7">
-        <v>0.56220499999999995</v>
-      </c>
-      <c r="AS10" s="7">
-        <v>0.59361900000000001</v>
-      </c>
-      <c r="AT10" s="7">
         <v>0.62968199999999996</v>
       </c>
+      <c r="AR10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0.189</v>
+      </c>
       <c r="AU10" s="4">
-        <v>0.02</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AV10" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.189</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.30499999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="AY10" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AZ10" s="4">
-        <v>0.47899999999999998</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="BA10" s="4">
-        <v>0.53100000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="BB10" s="4">
-        <v>0.57599999999999996</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="BC10" s="4">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="BD10" s="4">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="BF10" s="4">
         <v>0.753</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3351,92 +3209,83 @@
       <c r="AD11" s="6">
         <v>2.9135049999999998</v>
       </c>
-      <c r="AE11" s="7">
-        <v>1.69753</v>
+      <c r="AE11" s="6">
+        <v>3.0087074999999999</v>
       </c>
       <c r="AF11" s="7">
-        <v>1.7012399999999999</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>3.0087074999999999</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>1.6993849999999999</v>
+        <v>-0.40923500000000002</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>-0.49183700000000002</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>-0.541296</v>
       </c>
       <c r="AI11" s="7">
-        <v>-0.40923500000000002</v>
+        <v>-0.53878400000000004</v>
       </c>
       <c r="AJ11" s="7">
-        <v>-0.49183700000000002</v>
+        <v>-0.52674200000000004</v>
       </c>
       <c r="AK11" s="7">
-        <v>-0.541296</v>
+        <v>-0.51570899999999997</v>
       </c>
       <c r="AL11" s="7">
-        <v>-0.53878400000000004</v>
+        <v>-0.50428799999999996</v>
       </c>
       <c r="AM11" s="7">
-        <v>-0.52674200000000004</v>
+        <v>-0.48986299999999999</v>
       </c>
       <c r="AN11" s="7">
-        <v>-0.51570899999999997</v>
+        <v>-0.48857800000000001</v>
       </c>
       <c r="AO11" s="7">
-        <v>-0.50428799999999996</v>
+        <v>-0.48172799999999999</v>
       </c>
       <c r="AP11" s="7">
-        <v>-0.48986299999999999</v>
+        <v>-0.50788599999999995</v>
       </c>
       <c r="AQ11" s="7">
-        <v>-0.48857800000000001</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>-0.48172799999999999</v>
-      </c>
-      <c r="AS11" s="7">
-        <v>-0.50788599999999995</v>
-      </c>
-      <c r="AT11" s="7">
         <v>-0.52457500000000001</v>
       </c>
+      <c r="AR11" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>0.26</v>
+      </c>
       <c r="AU11" s="4">
-        <v>0.04</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AV11" s="4">
-        <v>0.129</v>
+        <v>0.501</v>
       </c>
       <c r="AW11" s="4">
-        <v>0.26</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AX11" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="AY11" s="4">
-        <v>0.501</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="AZ11" s="4">
-        <v>0.58899999999999997</v>
+        <v>0.746</v>
       </c>
       <c r="BA11" s="4">
-        <v>0.65500000000000003</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="BB11" s="4">
-        <v>0.70799999999999996</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="BC11" s="4">
-        <v>0.746</v>
-      </c>
-      <c r="BD11" s="4">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="BE11" s="4">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="BF11" s="4">
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3527,92 +3376,83 @@
       <c r="AD12" s="5">
         <v>2.9652149999999997</v>
       </c>
-      <c r="AE12" s="4">
-        <v>1.7215199999999999</v>
+      <c r="AE12" s="5">
+        <v>2.9597324999999999</v>
       </c>
       <c r="AF12" s="4">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>2.9597324999999999</v>
-      </c>
-      <c r="AH12" s="5">
-        <v>1.7082600000000001</v>
+        <v>5.7944399999999998</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>1.0456799999999999</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1.00979</v>
       </c>
       <c r="AI12" s="4">
-        <v>5.7944399999999998</v>
+        <v>1.00915</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1.0456799999999999</v>
+        <v>0.98555999999999999</v>
       </c>
       <c r="AK12" s="4">
-        <v>1.00979</v>
+        <v>0.98536400000000002</v>
       </c>
       <c r="AL12" s="4">
-        <v>1.00915</v>
+        <v>0.95347199999999999</v>
       </c>
       <c r="AM12" s="4">
-        <v>0.98555999999999999</v>
+        <v>0.89215199999999995</v>
       </c>
       <c r="AN12" s="4">
-        <v>0.98536400000000002</v>
+        <v>0.84328499999999995</v>
       </c>
       <c r="AO12" s="4">
-        <v>0.95347199999999999</v>
+        <v>0.77856400000000003</v>
       </c>
       <c r="AP12" s="4">
-        <v>0.89215199999999995</v>
+        <v>0.72521400000000003</v>
       </c>
       <c r="AQ12" s="4">
-        <v>0.84328499999999995</v>
+        <v>0.68002300000000004</v>
       </c>
       <c r="AR12" s="4">
-        <v>0.77856400000000003</v>
+        <v>0.01</v>
       </c>
       <c r="AS12" s="4">
-        <v>0.72521400000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AT12" s="4">
-        <v>0.68002300000000004</v>
+        <v>0.11</v>
       </c>
       <c r="AU12" s="4">
-        <v>0.01</v>
+        <v>0.183</v>
       </c>
       <c r="AV12" s="4">
-        <v>0.05</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.11</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="AX12" s="4">
-        <v>0.183</v>
+        <v>0.41</v>
       </c>
       <c r="AY12" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AZ12" s="4">
-        <v>0.33800000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="BA12" s="4">
-        <v>0.41</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="BB12" s="4">
-        <v>0.47599999999999998</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="BC12" s="4">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="BD12" s="4">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="BE12" s="4">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="BF12" s="4">
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3703,92 +3543,83 @@
       <c r="AD13" s="5">
         <v>3.1523700000000003</v>
       </c>
-      <c r="AE13" s="4">
-        <v>1.66645</v>
+      <c r="AE13" s="5">
+        <v>3.1380600000000003</v>
       </c>
       <c r="AF13" s="4">
-        <v>1.556735</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>3.1380600000000003</v>
-      </c>
-      <c r="AH13" s="5">
-        <v>1.6115925</v>
+        <v>-0.458451</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>-0.50442699999999996</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>-0.54578300000000002</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.458451</v>
+        <v>-0.570434</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.50442699999999996</v>
+        <v>-0.56995899999999999</v>
       </c>
       <c r="AK13" s="4">
-        <v>-0.54578300000000002</v>
+        <v>-0.56723800000000002</v>
       </c>
       <c r="AL13" s="4">
-        <v>-0.570434</v>
+        <v>-0.53742400000000001</v>
       </c>
       <c r="AM13" s="4">
-        <v>-0.56995899999999999</v>
+        <v>-0.49970399999999998</v>
       </c>
       <c r="AN13" s="4">
-        <v>-0.56723800000000002</v>
+        <v>-0.45834399999999997</v>
       </c>
       <c r="AO13" s="4">
-        <v>-0.53742400000000001</v>
+        <v>-0.43247600000000003</v>
       </c>
       <c r="AP13" s="4">
-        <v>-0.49970399999999998</v>
+        <v>-0.39616099999999999</v>
       </c>
       <c r="AQ13" s="4">
-        <v>-0.45834399999999997</v>
+        <v>-0.38030900000000001</v>
       </c>
       <c r="AR13" s="4">
-        <v>-0.43247600000000003</v>
+        <v>0.02</v>
       </c>
       <c r="AS13" s="4">
-        <v>-0.39616099999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AT13" s="4">
-        <v>-0.38030900000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="AU13" s="4">
-        <v>0.02</v>
+        <v>0.219</v>
       </c>
       <c r="AV13" s="4">
-        <v>6.3E-2</v>
+        <v>0.312</v>
       </c>
       <c r="AW13" s="4">
-        <v>0.13300000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="AX13" s="4">
-        <v>0.219</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="AY13" s="4">
-        <v>0.312</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="AZ13" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="BA13" s="4">
-        <v>0.47399999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="BB13" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.69</v>
       </c>
       <c r="BC13" s="4">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="BD13" s="4">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="BE13" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="BF13" s="4">
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3879,92 +3710,83 @@
       <c r="AD14" s="5">
         <v>2.8957800000000002</v>
       </c>
-      <c r="AE14" s="4">
-        <v>1.71469</v>
+      <c r="AE14" s="5">
+        <v>2.9215100000000001</v>
       </c>
       <c r="AF14" s="4">
-        <v>1.78372</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>2.9215100000000001</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>1.7492049999999999</v>
+        <v>-1.9721</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>-1.96967</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>1.35076</v>
       </c>
       <c r="AI14" s="4">
-        <v>-1.9721</v>
+        <v>1.26495</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-1.96967</v>
+        <v>1.20506</v>
       </c>
       <c r="AK14" s="4">
-        <v>1.35076</v>
+        <v>1.1250100000000001</v>
       </c>
       <c r="AL14" s="4">
-        <v>1.26495</v>
+        <v>1.01857</v>
       </c>
       <c r="AM14" s="4">
-        <v>1.20506</v>
+        <v>0.89738700000000005</v>
       </c>
       <c r="AN14" s="4">
-        <v>1.1250100000000001</v>
+        <v>0.74630300000000005</v>
       </c>
       <c r="AO14" s="4">
-        <v>1.01857</v>
+        <v>0.61355599999999999</v>
       </c>
       <c r="AP14" s="4">
-        <v>0.89738700000000005</v>
+        <v>0.54393199999999997</v>
       </c>
       <c r="AQ14" s="4">
-        <v>0.74630300000000005</v>
+        <v>0.51275700000000002</v>
       </c>
       <c r="AR14" s="4">
-        <v>0.61355599999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AS14" s="4">
-        <v>0.54393199999999997</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AT14" s="4">
-        <v>0.51275700000000002</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AU14" s="4">
-        <v>0.01</v>
+        <v>0.151</v>
       </c>
       <c r="AV14" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.224</v>
       </c>
       <c r="AW14" s="4">
-        <v>8.5000000000000006E-2</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="AX14" s="4">
-        <v>0.151</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="AY14" s="4">
-        <v>0.224</v>
+        <v>0.43</v>
       </c>
       <c r="AZ14" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="BA14" s="4">
-        <v>0.36599999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="BB14" s="4">
-        <v>0.43</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="BC14" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="BD14" s="4">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="BE14" s="4">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="BF14" s="4">
         <v>0.621</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4055,92 +3877,83 @@
       <c r="AD15" s="5">
         <v>3.0766249999999999</v>
       </c>
-      <c r="AE15" s="4">
-        <v>1.6552800000000001</v>
+      <c r="AE15" s="5">
+        <v>3.0980024999999998</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.6423450000000002</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>3.0980024999999998</v>
-      </c>
-      <c r="AH15" s="5">
-        <v>1.6488125</v>
+        <v>-3.3906700000000001</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>-2.4766499999999998</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>-1.6289</v>
       </c>
       <c r="AI15" s="4">
-        <v>-3.3906700000000001</v>
+        <v>-1.34439</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-2.4766499999999998</v>
+        <v>-1.10684</v>
       </c>
       <c r="AK15" s="4">
-        <v>-1.6289</v>
+        <v>-0.91423500000000002</v>
       </c>
       <c r="AL15" s="4">
-        <v>-1.34439</v>
+        <v>-0.77310500000000004</v>
       </c>
       <c r="AM15" s="4">
-        <v>-1.10684</v>
+        <v>-0.66615999999999997</v>
       </c>
       <c r="AN15" s="4">
-        <v>-0.91423500000000002</v>
+        <v>-0.59468100000000002</v>
       </c>
       <c r="AO15" s="4">
-        <v>-0.77310500000000004</v>
+        <v>-0.531281</v>
       </c>
       <c r="AP15" s="4">
-        <v>-0.66615999999999997</v>
+        <v>-0.49476199999999998</v>
       </c>
       <c r="AQ15" s="4">
-        <v>-0.59468100000000002</v>
+        <v>-0.48314400000000002</v>
       </c>
       <c r="AR15" s="4">
-        <v>-0.531281</v>
+        <v>0.02</v>
       </c>
       <c r="AS15" s="4">
-        <v>-0.49476199999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT15" s="4">
-        <v>-0.48314400000000002</v>
+        <v>0.154</v>
       </c>
       <c r="AU15" s="4">
-        <v>0.02</v>
+        <v>0.253</v>
       </c>
       <c r="AV15" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AW15" s="4">
-        <v>0.154</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="AX15" s="4">
-        <v>0.253</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="AY15" s="4">
-        <v>0.35299999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AZ15" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="BA15" s="4">
-        <v>0.52300000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="BB15" s="4">
-        <v>0.59099999999999997</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="BC15" s="4">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="BD15" s="4">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="BE15" s="4">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="BF15" s="4">
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4231,92 +4044,83 @@
       <c r="AD16" s="5">
         <v>2.7328049999999999</v>
       </c>
-      <c r="AE16" s="4">
-        <v>1.5777699999999999</v>
+      <c r="AE16" s="5">
+        <v>2.8701075</v>
       </c>
       <c r="AF16" s="4">
-        <v>1.9058299999999999</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2.8701075</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>1.7418</v>
+        <v>0.81620199999999998</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0.91040500000000002</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0.985402</v>
       </c>
       <c r="AI16" s="4">
-        <v>0.81620199999999998</v>
+        <v>0.99303900000000001</v>
       </c>
       <c r="AJ16" s="4">
-        <v>0.91040500000000002</v>
+        <v>0.96916599999999997</v>
       </c>
       <c r="AK16" s="4">
-        <v>0.985402</v>
+        <v>0.95610300000000004</v>
       </c>
       <c r="AL16" s="4">
-        <v>0.99303900000000001</v>
+        <v>0.96174800000000005</v>
       </c>
       <c r="AM16" s="4">
-        <v>0.96916599999999997</v>
+        <v>0.99631999999999998</v>
       </c>
       <c r="AN16" s="4">
-        <v>0.95610300000000004</v>
+        <v>1.0296099999999999</v>
       </c>
       <c r="AO16" s="4">
-        <v>0.96174800000000005</v>
+        <v>0.80832999999999999</v>
       </c>
       <c r="AP16" s="4">
-        <v>0.99631999999999998</v>
+        <v>0.81123599999999996</v>
       </c>
       <c r="AQ16" s="4">
-        <v>1.0296099999999999</v>
+        <v>0.81213400000000002</v>
       </c>
       <c r="AR16" s="4">
-        <v>0.80832999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AS16" s="4">
-        <v>0.81123599999999996</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AT16" s="4">
-        <v>0.81213400000000002</v>
+        <v>0.159</v>
       </c>
       <c r="AU16" s="4">
-        <v>0.03</v>
+        <v>0.253</v>
       </c>
       <c r="AV16" s="4">
-        <v>7.8E-2</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="AW16" s="4">
-        <v>0.159</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="AX16" s="4">
-        <v>0.253</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="AY16" s="4">
-        <v>0.34899999999999998</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="AZ16" s="4">
-        <v>0.43099999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BA16" s="4">
-        <v>0.48099999999999998</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="BB16" s="4">
-        <v>0.52400000000000002</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="BC16" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BD16" s="4">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="BE16" s="4">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="BF16" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4407,92 +4211,83 @@
       <c r="AD17" s="5">
         <v>2.9098299999999999</v>
       </c>
-      <c r="AE17" s="4">
-        <v>1.5103599999999999</v>
+      <c r="AE17" s="5">
+        <v>3.0503049999999998</v>
       </c>
       <c r="AF17" s="4">
-        <v>1.7248899999999998</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>3.0503049999999998</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>1.6176249999999999</v>
+        <v>-1.33345</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>-1.0758700000000001</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>-0.90901399999999999</v>
       </c>
       <c r="AI17" s="4">
-        <v>-1.33345</v>
+        <v>-0.88780099999999995</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-1.0758700000000001</v>
+        <v>-0.85088799999999998</v>
       </c>
       <c r="AK17" s="4">
-        <v>-0.90901399999999999</v>
+        <v>-0.81338999999999995</v>
       </c>
       <c r="AL17" s="4">
-        <v>-0.88780099999999995</v>
+        <v>-0.75344900000000004</v>
       </c>
       <c r="AM17" s="4">
-        <v>-0.85088799999999998</v>
+        <v>-0.68929099999999999</v>
       </c>
       <c r="AN17" s="4">
-        <v>-0.81338999999999995</v>
+        <v>-0.607151</v>
       </c>
       <c r="AO17" s="4">
-        <v>-0.75344900000000004</v>
+        <v>-0.54284500000000002</v>
       </c>
       <c r="AP17" s="4">
-        <v>-0.68929099999999999</v>
+        <v>-0.50503399999999998</v>
       </c>
       <c r="AQ17" s="4">
-        <v>-0.607151</v>
+        <v>-0.49013299999999999</v>
       </c>
       <c r="AR17" s="4">
-        <v>-0.54284500000000002</v>
+        <v>0.03</v>
       </c>
       <c r="AS17" s="4">
-        <v>-0.50503399999999998</v>
+        <v>0.104</v>
       </c>
       <c r="AT17" s="4">
-        <v>-0.49013299999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="AU17" s="4">
-        <v>0.03</v>
+        <v>0.318</v>
       </c>
       <c r="AV17" s="4">
-        <v>0.104</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AW17" s="4">
-        <v>0.20899999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="AX17" s="4">
-        <v>0.318</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="AY17" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="AZ17" s="4">
-        <v>0.497</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="BA17" s="4">
-        <v>0.56299999999999994</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="BB17" s="4">
-        <v>0.61899999999999999</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="BC17" s="4">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="BD17" s="4">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="BE17" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="BF17" s="4">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4583,92 +4378,83 @@
       <c r="AD18" s="5">
         <v>2.9637150000000001</v>
       </c>
-      <c r="AE18" s="4">
-        <v>1.591</v>
+      <c r="AE18" s="5">
+        <v>2.9925325000000003</v>
       </c>
       <c r="AF18" s="4">
-        <v>1.715565</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>2.9925325000000003</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>1.6532825</v>
+        <v>2.4213300000000002</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>2.3782999999999999</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>2.3336999999999999</v>
       </c>
       <c r="AI18" s="4">
-        <v>2.4213300000000002</v>
+        <v>2.2880199999999999</v>
       </c>
       <c r="AJ18" s="4">
-        <v>2.3782999999999999</v>
+        <v>2.2842099999999999</v>
       </c>
       <c r="AK18" s="4">
-        <v>2.3336999999999999</v>
+        <v>2.2747999999999999</v>
       </c>
       <c r="AL18" s="4">
-        <v>2.2880199999999999</v>
+        <v>2.2822100000000001</v>
       </c>
       <c r="AM18" s="4">
-        <v>2.2842099999999999</v>
+        <v>2.24308</v>
       </c>
       <c r="AN18" s="4">
-        <v>2.2747999999999999</v>
+        <v>2.16825</v>
       </c>
       <c r="AO18" s="4">
-        <v>2.2822100000000001</v>
+        <v>2.0924700000000001</v>
       </c>
       <c r="AP18" s="4">
-        <v>2.24308</v>
+        <v>1.95624</v>
       </c>
       <c r="AQ18" s="4">
-        <v>2.16825</v>
+        <v>1.8026599999999999</v>
       </c>
       <c r="AR18" s="4">
-        <v>2.0924700000000001</v>
+        <v>0.02</v>
       </c>
       <c r="AS18" s="4">
-        <v>1.95624</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AT18" s="4">
-        <v>1.8026599999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AU18" s="4">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="AV18" s="4">
-        <v>4.8000000000000001E-2</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AW18" s="4">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="AX18" s="4">
-        <v>0.15</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="AY18" s="4">
-        <v>0.20799999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="AZ18" s="4">
-        <v>0.26700000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="BA18" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="BB18" s="4">
-        <v>0.378</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="BC18" s="4">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="BD18" s="4">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="BE18" s="4">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="BF18" s="4">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4759,92 +4545,83 @@
       <c r="AD19" s="5">
         <v>3.1477500000000003</v>
       </c>
-      <c r="AE19" s="4">
-        <v>1.54186</v>
+      <c r="AE19" s="5">
+        <v>3.1697600000000001</v>
       </c>
       <c r="AF19" s="4">
-        <v>1.58206</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>3.1697600000000001</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>1.56196</v>
+        <v>-0.67610899999999996</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>-0.63281600000000005</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>-0.65845399999999998</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.67610899999999996</v>
+        <v>-0.67826699999999995</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.63281600000000005</v>
+        <v>-0.68328599999999995</v>
       </c>
       <c r="AK19" s="4">
-        <v>-0.65845399999999998</v>
+        <v>-0.66461300000000001</v>
       </c>
       <c r="AL19" s="4">
-        <v>-0.67826699999999995</v>
+        <v>-0.62519800000000003</v>
       </c>
       <c r="AM19" s="4">
-        <v>-0.68328599999999995</v>
+        <v>-0.55707700000000004</v>
       </c>
       <c r="AN19" s="4">
-        <v>-0.66461300000000001</v>
+        <v>-0.49550699999999998</v>
       </c>
       <c r="AO19" s="4">
-        <v>-0.62519800000000003</v>
+        <v>-0.43699300000000002</v>
       </c>
       <c r="AP19" s="4">
-        <v>-0.55707700000000004</v>
+        <v>-0.39264199999999999</v>
       </c>
       <c r="AQ19" s="4">
-        <v>-0.49550699999999998</v>
+        <v>-0.35579100000000002</v>
       </c>
       <c r="AR19" s="4">
-        <v>-0.43699300000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AS19" s="4">
-        <v>-0.39264199999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AT19" s="4">
-        <v>-0.35579100000000002</v>
+        <v>0.124</v>
       </c>
       <c r="AU19" s="4">
-        <v>0.02</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AV19" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AW19" s="4">
-        <v>0.124</v>
+        <v>0.373</v>
       </c>
       <c r="AX19" s="4">
-        <v>0.20499999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="AY19" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="AZ19" s="4">
-        <v>0.373</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="BA19" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="BB19" s="4">
-        <v>0.51400000000000001</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="BC19" s="4">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="BD19" s="4">
-        <v>0.622</v>
-      </c>
-      <c r="BE19" s="4">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="BF19" s="4">
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4935,92 +4712,83 @@
       <c r="AD20" s="6">
         <v>3.075275</v>
       </c>
-      <c r="AE20" s="7">
-        <v>1.5130699999999999</v>
+      <c r="AE20" s="6">
+        <v>3.1347024999999999</v>
       </c>
       <c r="AF20" s="7">
-        <v>1.661365</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>3.1347024999999999</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>1.5872174999999999</v>
+        <v>-3.8671000000000002</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>-3.4574500000000001</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>-1.21689</v>
       </c>
       <c r="AI20" s="7">
-        <v>-3.8671000000000002</v>
+        <v>-1.1872499999999999</v>
       </c>
       <c r="AJ20" s="7">
-        <v>-3.4574500000000001</v>
+        <v>-1.1381600000000001</v>
       </c>
       <c r="AK20" s="7">
-        <v>-1.21689</v>
+        <v>-1.05358</v>
       </c>
       <c r="AL20" s="7">
-        <v>-1.1872499999999999</v>
+        <v>-0.98427699999999996</v>
       </c>
       <c r="AM20" s="7">
-        <v>-1.1381600000000001</v>
+        <v>-0.89132599999999995</v>
       </c>
       <c r="AN20" s="7">
-        <v>-1.05358</v>
+        <v>-0.80587500000000001</v>
       </c>
       <c r="AO20" s="7">
-        <v>-0.98427699999999996</v>
+        <v>-0.70253299999999996</v>
       </c>
       <c r="AP20" s="7">
-        <v>-0.89132599999999995</v>
+        <v>-0.60677300000000001</v>
       </c>
       <c r="AQ20" s="7">
-        <v>-0.80587500000000001</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>-0.70253299999999996</v>
-      </c>
-      <c r="AS20" s="7">
-        <v>-0.60677300000000001</v>
-      </c>
-      <c r="AT20" s="7">
         <v>-0.55828100000000003</v>
       </c>
+      <c r="AR20" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="AU20" s="4">
-        <v>0.02</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="AV20" s="4">
-        <v>6.8000000000000005E-2</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AW20" s="4">
-        <v>0.13600000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AX20" s="4">
-        <v>0.23200000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="AY20" s="4">
-        <v>0.32400000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="AZ20" s="4">
-        <v>0.40799999999999997</v>
+        <v>0.59</v>
       </c>
       <c r="BA20" s="4">
-        <v>0.47799999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="BB20" s="4">
-        <v>0.53900000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="BC20" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="BD20" s="4">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="BE20" s="4">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="BF20" s="4">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5111,92 +4879,83 @@
       <c r="AD21" s="6">
         <v>2.7166924999999997</v>
       </c>
-      <c r="AE21" s="7">
-        <v>2.0526200000000001</v>
+      <c r="AE21" s="6">
+        <v>2.7343262499999996</v>
       </c>
       <c r="AF21" s="7">
-        <v>1.9687900000000003</v>
-      </c>
-      <c r="AG21" s="6">
-        <v>2.7343262499999996</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>2.0107050000000002</v>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0.58499999999999996</v>
       </c>
       <c r="AI21" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AJ21" s="7">
-        <v>0.45300000000000001</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="AK21" s="7">
-        <v>0.58499999999999996</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="AL21" s="7">
-        <v>0.65200000000000002</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AM21" s="7">
-        <v>0.69899999999999995</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="AN21" s="7">
-        <v>0.71899999999999997</v>
+        <v>0.83</v>
       </c>
       <c r="AO21" s="7">
-        <v>0.74299999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="AP21" s="7">
-        <v>0.80200000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="AQ21" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>0.877</v>
-      </c>
-      <c r="AS21" s="7">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="AT21" s="7">
         <v>0.70599999999999996</v>
       </c>
+      <c r="AR21" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="AU21" s="4">
-        <v>0.03</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AV21" s="4">
-        <v>9.4E-2</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="AW21" s="4">
-        <v>0.19400000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="AX21" s="4">
-        <v>0.30599999999999999</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="AY21" s="4">
-        <v>0.40899999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AZ21" s="4">
-        <v>0.495</v>
+        <v>0.629</v>
       </c>
       <c r="BA21" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="BB21" s="4">
-        <v>0.59899999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="BC21" s="4">
-        <v>0.629</v>
-      </c>
-      <c r="BD21" s="4">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="BE21" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="BF21" s="4">
         <v>0.749</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5287,92 +5046,83 @@
       <c r="AD22" s="5">
         <v>2.9011125000000004</v>
       </c>
-      <c r="AE22" s="4">
-        <v>1.9005300000000001</v>
+      <c r="AE22" s="5">
+        <v>2.9120112499999999</v>
       </c>
       <c r="AF22" s="4">
-        <v>1.7450475000000001</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>2.9120112499999999</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>1.82278875</v>
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>-0.47</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>-0.443</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.374</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.47</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="AK22" s="4">
-        <v>-0.443</v>
+        <v>-0.34799999999999998</v>
       </c>
       <c r="AL22" s="4">
-        <v>-0.374</v>
+        <v>-0.34699999999999998</v>
       </c>
       <c r="AM22" s="4">
-        <v>-0.35399999999999998</v>
+        <v>-0.34799999999999998</v>
       </c>
       <c r="AN22" s="4">
-        <v>-0.34799999999999998</v>
+        <v>-0.35</v>
       </c>
       <c r="AO22" s="4">
-        <v>-0.34699999999999998</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="AP22" s="4">
-        <v>-0.34799999999999998</v>
+        <v>-0.34599999999999997</v>
       </c>
       <c r="AQ22" s="4">
-        <v>-0.35</v>
+        <v>-0.35899999999999999</v>
       </c>
       <c r="AR22" s="4">
-        <v>-0.34499999999999997</v>
+        <v>0.02</v>
       </c>
       <c r="AS22" s="4">
-        <v>-0.34599999999999997</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AT22" s="4">
-        <v>-0.35899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AU22" s="4">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="AV22" s="4">
-        <v>7.0999999999999994E-2</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="AW22" s="4">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="AX22" s="4">
-        <v>0.25</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AY22" s="4">
-        <v>0.35399999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="AZ22" s="4">
-        <v>0.45</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="BA22" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="BB22" s="4">
-        <v>0.60099999999999998</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="BC22" s="4">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="BD22" s="4">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="BE22" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="BF22" s="4">
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5463,92 +5213,83 @@
       <c r="AD23" s="5">
         <v>2.9566499999999998</v>
       </c>
-      <c r="AE23" s="4">
-        <v>1.8579600000000001</v>
+      <c r="AE23" s="5">
+        <v>2.8861400000000001</v>
       </c>
       <c r="AF23" s="4">
-        <v>1.7448350000000001</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>2.8861400000000001</v>
-      </c>
-      <c r="AH23" s="5">
-        <v>1.8013975000000002</v>
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>2.298</v>
       </c>
       <c r="AI23" s="4">
-        <v>2.8239999999999998</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-2.5430000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AK23" s="4">
-        <v>2.298</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="AL23" s="4">
-        <v>2.1760000000000002</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="AM23" s="4">
-        <v>2.1</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="AN23" s="4">
-        <v>2.0139999999999998</v>
+        <v>1.679</v>
       </c>
       <c r="AO23" s="4">
-        <v>1.9350000000000001</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="AP23" s="4">
-        <v>1.8260000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" s="4">
-        <v>1.679</v>
+        <v>1.159</v>
       </c>
       <c r="AR23" s="4">
-        <v>1.5189999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS23" s="4">
-        <v>1.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT23" s="4">
-        <v>1.159</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AU23" s="4">
-        <v>0.02</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="AV23" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="AW23" s="4">
-        <v>0.13200000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="AX23" s="4">
-        <v>0.20599999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AY23" s="4">
-        <v>0.27600000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="AZ23" s="4">
-        <v>0.33900000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="BA23" s="4">
-        <v>0.39500000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="BB23" s="4">
-        <v>0.44700000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="BC23" s="4">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="BD23" s="4">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="BE23" s="4">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="BF23" s="4">
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5639,92 +5380,83 @@
       <c r="AD24" s="5">
         <v>3.1438775000000003</v>
       </c>
-      <c r="AE24" s="4">
-        <v>1.76241</v>
+      <c r="AE24" s="5">
+        <v>3.0573937500000001</v>
       </c>
       <c r="AF24" s="4">
-        <v>1.5883150000000001</v>
-      </c>
-      <c r="AG24" s="5">
-        <v>3.0573937500000001</v>
-      </c>
-      <c r="AH24" s="5">
-        <v>1.6753625000000001</v>
+        <v>-2.5289999999999999</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>-2.6680000000000001</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>-2.7029999999999998</v>
       </c>
       <c r="AI24" s="4">
-        <v>-2.5289999999999999</v>
+        <v>-2.383</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-2.6680000000000001</v>
+        <v>-1.448</v>
       </c>
       <c r="AK24" s="4">
-        <v>-2.7029999999999998</v>
+        <v>-0.64600000000000002</v>
       </c>
       <c r="AL24" s="4">
-        <v>-2.383</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="AM24" s="4">
-        <v>-1.448</v>
+        <v>-0.48199999999999998</v>
       </c>
       <c r="AN24" s="4">
-        <v>-0.64600000000000002</v>
+        <v>-0.436</v>
       </c>
       <c r="AO24" s="4">
-        <v>-0.54400000000000004</v>
+        <v>-0.41</v>
       </c>
       <c r="AP24" s="4">
-        <v>-0.48199999999999998</v>
+        <v>-0.38100000000000001</v>
       </c>
       <c r="AQ24" s="4">
-        <v>-0.436</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="AR24" s="4">
-        <v>-0.41</v>
+        <v>0.03</v>
       </c>
       <c r="AS24" s="4">
-        <v>-0.38100000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AT24" s="4">
-        <v>-0.38300000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="AU24" s="4">
-        <v>0.03</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="AV24" s="4">
-        <v>0.09</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="AW24" s="4">
-        <v>0.17399999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="AX24" s="4">
-        <v>0.26700000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="AY24" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="AZ24" s="4">
-        <v>0.46600000000000003</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="BA24" s="4">
-        <v>0.55500000000000005</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="BB24" s="4">
-        <v>0.627</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="BC24" s="4">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="BD24" s="4">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="BE24" s="4">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="BF24" s="4">
         <v>0.79</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5815,92 +5547,83 @@
       <c r="AD25" s="5">
         <v>2.8866824999999996</v>
       </c>
-      <c r="AE25" s="4">
-        <v>1.93336</v>
+      <c r="AE25" s="5">
+        <v>2.8432162499999998</v>
       </c>
       <c r="AF25" s="4">
-        <v>1.8488224999999998</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>2.8432162499999998</v>
-      </c>
-      <c r="AH25" s="5">
-        <v>1.8910912499999999</v>
+        <v>1.27</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1.798</v>
       </c>
       <c r="AI25" s="4">
-        <v>1.27</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="AJ25" s="4">
-        <v>1.57</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="AK25" s="4">
-        <v>1.798</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="AL25" s="4">
-        <v>1.8879999999999999</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="AM25" s="4">
-        <v>1.9079999999999999</v>
+        <v>1.724</v>
       </c>
       <c r="AN25" s="4">
-        <v>1.8879999999999999</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="AO25" s="4">
-        <v>1.8109999999999999</v>
+        <v>1.4359999999999999</v>
       </c>
       <c r="AP25" s="4">
-        <v>1.724</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="AQ25" s="4">
-        <v>1.5860000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR25" s="4">
-        <v>1.4359999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS25" s="4">
-        <v>1.2669999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AT25" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="AU25" s="4">
-        <v>0.02</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AV25" s="4">
-        <v>4.7E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AW25" s="4">
-        <v>0.104</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="AX25" s="4">
-        <v>0.16900000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="AY25" s="4">
-        <v>0.23499999999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="AZ25" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="BA25" s="4">
-        <v>0.35099999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="BB25" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="BC25" s="4">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="BD25" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="BE25" s="4">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="BF25" s="4">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5991,92 +5714,83 @@
       <c r="AD26" s="5">
         <v>3.0700375000000002</v>
       </c>
-      <c r="AE26" s="4">
-        <v>1.8225100000000001</v>
+      <c r="AE26" s="5">
+        <v>3.0144387500000001</v>
       </c>
       <c r="AF26" s="4">
-        <v>1.6829525000000001</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>3.0144387500000001</v>
-      </c>
-      <c r="AH26" s="5">
-        <v>1.7527312500000001</v>
+        <v>-6.3819999999999997</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>-5.2329999999999997</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>-2.8780000000000001</v>
       </c>
       <c r="AI26" s="4">
-        <v>-6.3819999999999997</v>
+        <v>-2.5790000000000002</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-5.2329999999999997</v>
+        <v>-2.0659999999999998</v>
       </c>
       <c r="AK26" s="4">
-        <v>-2.8780000000000001</v>
+        <v>-1.4419999999999999</v>
       </c>
       <c r="AL26" s="4">
-        <v>-2.5790000000000002</v>
+        <v>-1.097</v>
       </c>
       <c r="AM26" s="4">
-        <v>-2.0659999999999998</v>
+        <v>-0.9</v>
       </c>
       <c r="AN26" s="4">
-        <v>-1.4419999999999999</v>
+        <v>-0.78900000000000003</v>
       </c>
       <c r="AO26" s="4">
-        <v>-1.097</v>
+        <v>-0.72199999999999998</v>
       </c>
       <c r="AP26" s="4">
-        <v>-0.9</v>
+        <v>-0.67</v>
       </c>
       <c r="AQ26" s="4">
-        <v>-0.78900000000000003</v>
+        <v>-0.63300000000000001</v>
       </c>
       <c r="AR26" s="4">
-        <v>-0.72199999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="AS26" s="4">
-        <v>-0.67</v>
+        <v>0.06</v>
       </c>
       <c r="AT26" s="4">
-        <v>-0.63300000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AU26" s="4">
-        <v>0.02</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="AV26" s="4">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="AW26" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AX26" s="4">
-        <v>0.23400000000000001</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AY26" s="4">
-        <v>0.34</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="AZ26" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="BA26" s="4">
-        <v>0.53600000000000003</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="BB26" s="4">
-        <v>0.61499999999999999</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="BC26" s="4">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="BD26" s="4">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="BE26" s="4">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="BF26" s="4">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6167,92 +5881,83 @@
       <c r="AD27" s="5">
         <v>2.9013999999999998</v>
       </c>
-      <c r="AE27" s="4">
-        <v>2.0787499999999999</v>
+      <c r="AE27" s="5">
+        <v>2.8731099999999996</v>
       </c>
       <c r="AF27" s="4">
-        <v>1.7346175000000001</v>
-      </c>
-      <c r="AG27" s="5">
-        <v>2.8731099999999996</v>
-      </c>
-      <c r="AH27" s="5">
-        <v>1.90668375</v>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0.55200000000000005</v>
       </c>
       <c r="AI27" s="4">
-        <v>0.91900000000000004</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AJ27" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AK27" s="4">
-        <v>0.55200000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="AL27" s="4">
-        <v>0.56100000000000005</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="AM27" s="4">
-        <v>0.57499999999999996</v>
+        <v>-0.39</v>
       </c>
       <c r="AN27" s="4">
-        <v>0.59</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="AO27" s="4">
-        <v>-0.38700000000000001</v>
+        <v>-0.39900000000000002</v>
       </c>
       <c r="AP27" s="4">
-        <v>-0.39</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="AQ27" s="4">
-        <v>-0.39400000000000002</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="AR27" s="4">
-        <v>-0.39900000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="AS27" s="4">
-        <v>-0.44500000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="AT27" s="4">
-        <v>-0.52500000000000002</v>
+        <v>0.222</v>
       </c>
       <c r="AU27" s="4">
-        <v>0.03</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="AV27" s="4">
-        <v>0.112</v>
+        <v>0.434</v>
       </c>
       <c r="AW27" s="4">
-        <v>0.222</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AX27" s="4">
-        <v>0.33400000000000002</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="AY27" s="4">
-        <v>0.434</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="AZ27" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="BA27" s="4">
-        <v>0.58299999999999996</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="BB27" s="4">
-        <v>0.64600000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="BC27" s="4">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="BD27" s="4">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="BE27" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="BF27" s="4">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6343,92 +6048,83 @@
       <c r="AD28" s="6">
         <v>3.1434199999999999</v>
       </c>
-      <c r="AE28" s="7">
-        <v>1.86259</v>
+      <c r="AE28" s="6">
+        <v>3.0261800000000001</v>
       </c>
       <c r="AF28" s="7">
-        <v>1.5783700000000001</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>3.0261800000000001</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>1.72048</v>
+        <v>-4.1210000000000004</v>
+      </c>
+      <c r="AG28" s="7">
+        <v>-3.28</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>-2.5139999999999998</v>
       </c>
       <c r="AI28" s="7">
-        <v>-4.1210000000000004</v>
+        <v>-1.232</v>
       </c>
       <c r="AJ28" s="7">
-        <v>-3.28</v>
+        <v>-0.76300000000000001</v>
       </c>
       <c r="AK28" s="7">
-        <v>-2.5139999999999998</v>
+        <v>-0.64500000000000002</v>
       </c>
       <c r="AL28" s="7">
-        <v>-1.232</v>
+        <v>-0.55400000000000005</v>
       </c>
       <c r="AM28" s="7">
-        <v>-0.76300000000000001</v>
+        <v>-0.496</v>
       </c>
       <c r="AN28" s="7">
-        <v>-0.64500000000000002</v>
+        <v>-0.45900000000000002</v>
       </c>
       <c r="AO28" s="7">
-        <v>-0.55400000000000005</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="AP28" s="7">
-        <v>-0.496</v>
+        <v>-0.45200000000000001</v>
       </c>
       <c r="AQ28" s="7">
-        <v>-0.45900000000000002</v>
-      </c>
-      <c r="AR28" s="7">
-        <v>-0.44500000000000001</v>
-      </c>
-      <c r="AS28" s="7">
-        <v>-0.45200000000000001</v>
-      </c>
-      <c r="AT28" s="7">
         <v>-0.45300000000000001</v>
       </c>
+      <c r="AR28" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>0.26100000000000001</v>
+      </c>
       <c r="AU28" s="4">
-        <v>0.06</v>
+        <v>0.376</v>
       </c>
       <c r="AV28" s="4">
-        <v>0.152</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AW28" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="AX28" s="4">
-        <v>0.376</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AY28" s="4">
-        <v>0.48899999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="AZ28" s="4">
-        <v>0.58099999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="BA28" s="4">
-        <v>0.65200000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="BB28" s="4">
-        <v>0.70599999999999996</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="BC28" s="4">
-        <v>0.748</v>
-      </c>
-      <c r="BD28" s="4">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="BE28" s="4">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="BF28" s="4">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6519,92 +6215,83 @@
       <c r="AD29" s="6">
         <v>3.0701375</v>
       </c>
-      <c r="AE29" s="7">
-        <v>1.95065</v>
+      <c r="AE29" s="6">
+        <v>2.9820687499999998</v>
       </c>
       <c r="AF29" s="7">
-        <v>1.6726074999999998</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>2.9820687499999998</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>1.8116287499999999</v>
+        <v>-5.3630000000000004</v>
+      </c>
+      <c r="AG29" s="7">
+        <v>-0.48599999999999999</v>
+      </c>
+      <c r="AH29" s="7">
+        <v>-0.55400000000000005</v>
       </c>
       <c r="AI29" s="7">
-        <v>-5.3630000000000004</v>
+        <v>-0.59399999999999997</v>
       </c>
       <c r="AJ29" s="7">
-        <v>-0.48599999999999999</v>
+        <v>-0.57199999999999995</v>
       </c>
       <c r="AK29" s="7">
-        <v>-0.55400000000000005</v>
+        <v>-0.55100000000000005</v>
       </c>
       <c r="AL29" s="7">
-        <v>-0.59399999999999997</v>
+        <v>-0.51500000000000001</v>
       </c>
       <c r="AM29" s="7">
-        <v>-0.57199999999999995</v>
+        <v>-0.49399999999999999</v>
       </c>
       <c r="AN29" s="7">
-        <v>-0.55100000000000005</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="AO29" s="7">
-        <v>-0.51500000000000001</v>
+        <v>-0.45900000000000002</v>
       </c>
       <c r="AP29" s="7">
-        <v>-0.49399999999999999</v>
+        <v>-0.48699999999999999</v>
       </c>
       <c r="AQ29" s="7">
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="AR29" s="7">
-        <v>-0.45900000000000002</v>
-      </c>
-      <c r="AS29" s="7">
-        <v>-0.48699999999999999</v>
-      </c>
-      <c r="AT29" s="7">
         <v>-0.54900000000000004</v>
       </c>
+      <c r="AR29" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="AU29" s="4">
-        <v>0.04</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AV29" s="4">
-        <v>0.09</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="AW29" s="4">
-        <v>0.19800000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="AX29" s="4">
-        <v>0.32900000000000001</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="AY29" s="4">
-        <v>0.45700000000000002</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="AZ29" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.745</v>
       </c>
       <c r="BA29" s="4">
-        <v>0.64100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="BB29" s="4">
-        <v>0.70099999999999996</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="BC29" s="4">
-        <v>0.745</v>
-      </c>
-      <c r="BD29" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="BE29" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="BF29" s="4">
         <v>0.81</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6695,92 +6382,83 @@
       <c r="AD30" s="5">
         <v>2.9053400000000003</v>
       </c>
-      <c r="AE30" s="4">
-        <v>1.7078199999999999</v>
+      <c r="AE30" s="5">
+        <v>3.0010950000000003</v>
       </c>
       <c r="AF30" s="4">
-        <v>1.7298399999999998</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>3.0010950000000003</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>1.7188299999999999</v>
+        <v>-7.5629999999999997</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>-0.312</v>
       </c>
       <c r="AI30" s="4">
-        <v>-7.5629999999999997</v>
+        <v>-0.373</v>
       </c>
       <c r="AJ30" s="4">
-        <v>-0.23</v>
+        <v>-0.41</v>
       </c>
       <c r="AK30" s="4">
-        <v>-0.312</v>
+        <v>-0.42399999999999999</v>
       </c>
       <c r="AL30" s="4">
-        <v>-0.373</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="AM30" s="4">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="AN30" s="4">
-        <v>-0.42399999999999999</v>
+        <v>-0.41299999999999998</v>
       </c>
       <c r="AO30" s="4">
         <v>-0.42499999999999999</v>
       </c>
       <c r="AP30" s="4">
-        <v>-0.42</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="AQ30" s="4">
-        <v>-0.41299999999999998</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="AR30" s="4">
-        <v>-0.42499999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS30" s="4">
-        <v>-0.44500000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AT30" s="4">
-        <v>-0.46800000000000003</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AU30" s="4">
-        <v>0.02</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="AV30" s="4">
-        <v>7.2999999999999995E-2</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="AW30" s="4">
-        <v>0.16400000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="AX30" s="4">
-        <v>0.27600000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="AY30" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="AZ30" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="BA30" s="4">
-        <v>0.57299999999999995</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="BB30" s="4">
-        <v>0.63900000000000001</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="BC30" s="4">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="BD30" s="4">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="BE30" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="BF30" s="4">
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6871,92 +6549,83 @@
       <c r="AD31" s="5">
         <v>2.9610050000000001</v>
       </c>
-      <c r="AE31" s="4">
-        <v>1.7451300000000001</v>
+      <c r="AE31" s="5">
+        <v>2.9558024999999999</v>
       </c>
       <c r="AF31" s="4">
-        <v>1.7235125</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>2.9558024999999999</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>1.73432125</v>
+        <v>81.834999999999994</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>1.621</v>
       </c>
       <c r="AI31" s="4">
-        <v>81.834999999999994</v>
+        <v>1.653</v>
       </c>
       <c r="AJ31" s="4">
-        <v>1.5740000000000001</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="AK31" s="4">
-        <v>1.621</v>
+        <v>1.5589999999999999</v>
       </c>
       <c r="AL31" s="4">
-        <v>1.653</v>
+        <v>1.492</v>
       </c>
       <c r="AM31" s="4">
-        <v>1.6240000000000001</v>
+        <v>1.393</v>
       </c>
       <c r="AN31" s="4">
-        <v>1.5589999999999999</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="AO31" s="4">
-        <v>1.492</v>
+        <v>1.161</v>
       </c>
       <c r="AP31" s="4">
-        <v>1.393</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="AQ31" s="4">
-        <v>1.3009999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="AR31" s="4">
-        <v>1.161</v>
+        <v>0.01</v>
       </c>
       <c r="AS31" s="4">
-        <v>1.0549999999999999</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AT31" s="4">
-        <v>0.95199999999999996</v>
+        <v>0.09</v>
       </c>
       <c r="AU31" s="4">
-        <v>0.01</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="AV31" s="4">
-        <v>4.2999999999999997E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="AW31" s="4">
-        <v>0.09</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AX31" s="4">
-        <v>0.14899999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="AY31" s="4">
-        <v>0.21199999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AZ31" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="BA31" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="BB31" s="4">
-        <v>0.39500000000000002</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="BC31" s="4">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="BD31" s="4">
-        <v>0.499</v>
-      </c>
-      <c r="BE31" s="4">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="BF31" s="4">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7047,92 +6716,83 @@
       <c r="AD32" s="5">
         <v>3.1474849999999996</v>
       </c>
-      <c r="AE32" s="4">
-        <v>1.68015</v>
+      <c r="AE32" s="5">
+        <v>3.1327924999999999</v>
       </c>
       <c r="AF32" s="4">
-        <v>1.5759975000000002</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>3.1327924999999999</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>1.62807375</v>
+        <v>-7.6520000000000001</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>-7.0369999999999999</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>-1.194</v>
       </c>
       <c r="AI32" s="4">
-        <v>-7.6520000000000001</v>
+        <v>-1.097</v>
       </c>
       <c r="AJ32" s="4">
-        <v>-7.0369999999999999</v>
+        <v>-1.028</v>
       </c>
       <c r="AK32" s="4">
-        <v>-1.194</v>
+        <v>-0.97299999999999998</v>
       </c>
       <c r="AL32" s="4">
-        <v>-1.097</v>
+        <v>-0.872</v>
       </c>
       <c r="AM32" s="4">
-        <v>-1.028</v>
+        <v>-0.753</v>
       </c>
       <c r="AN32" s="4">
-        <v>-0.97299999999999998</v>
+        <v>-0.61899999999999999</v>
       </c>
       <c r="AO32" s="4">
-        <v>-0.872</v>
+        <v>-0.501</v>
       </c>
       <c r="AP32" s="4">
-        <v>-0.753</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="AQ32" s="4">
-        <v>-0.61899999999999999</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="AR32" s="4">
-        <v>-0.501</v>
+        <v>0.03</v>
       </c>
       <c r="AS32" s="4">
-        <v>-0.40500000000000003</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AT32" s="4">
-        <v>-0.36299999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="AU32" s="4">
-        <v>0.03</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="AV32" s="4">
-        <v>7.2999999999999995E-2</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="AW32" s="4">
-        <v>0.128</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="AX32" s="4">
-        <v>0.21299999999999999</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="AY32" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="AZ32" s="4">
-        <v>0.38300000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="BA32" s="4">
-        <v>0.45800000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="BB32" s="4">
-        <v>0.52400000000000002</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="BC32" s="4">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="BD32" s="4">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="BE32" s="4">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="BF32" s="4">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7223,92 +6883,83 @@
       <c r="AD33" s="5">
         <v>2.8920175000000001</v>
       </c>
-      <c r="AE33" s="4">
-        <v>1.7679</v>
+      <c r="AE33" s="5">
+        <v>2.9174787499999999</v>
       </c>
       <c r="AF33" s="4">
-        <v>1.8206225</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>2.9174787499999999</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>1.7942612499999999</v>
+        <v>-1.052</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>1.97</v>
       </c>
       <c r="AI33" s="4">
-        <v>-1.052</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="AJ33" s="4">
-        <v>2.2759999999999998</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="AK33" s="4">
-        <v>1.97</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="AL33" s="4">
-        <v>1.7649999999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="AM33" s="4">
-        <v>2.4359999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="AN33" s="4">
-        <v>1.4490000000000001</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AO33" s="4">
-        <v>1.2989999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="AP33" s="4">
-        <v>1.1339999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="AQ33" s="4">
-        <v>0.92900000000000005</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="AR33" s="4">
-        <v>0.76700000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="AS33" s="4">
-        <v>0.74199999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AT33" s="4">
-        <v>0.78700000000000003</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="AU33" s="4">
-        <v>0.01</v>
+        <v>0.151</v>
       </c>
       <c r="AV33" s="4">
-        <v>4.1000000000000002E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="AW33" s="4">
-        <v>8.8999999999999996E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="AX33" s="4">
-        <v>0.151</v>
+        <v>0.35</v>
       </c>
       <c r="AY33" s="4">
-        <v>0.22600000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="AZ33" s="4">
-        <v>0.28599999999999998</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="BA33" s="4">
-        <v>0.35</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="BB33" s="4">
-        <v>0.40899999999999997</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="BC33" s="4">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="BD33" s="4">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="BE33" s="4">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="BF33" s="4">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7399,92 +7050,83 @@
       <c r="AD34" s="5">
         <v>3.0737850000000004</v>
       </c>
-      <c r="AE34" s="4">
-        <v>1.6915199999999999</v>
+      <c r="AE34" s="5">
+        <v>3.0939675000000002</v>
       </c>
       <c r="AF34" s="4">
-        <v>1.6666300000000001</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>3.0939675000000002</v>
-      </c>
-      <c r="AH34" s="5">
-        <v>1.6790750000000001</v>
+        <v>-9.0950000000000006</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>-2.802</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>-2.7829999999999999</v>
       </c>
       <c r="AI34" s="4">
-        <v>-9.0950000000000006</v>
+        <v>-2.605</v>
       </c>
       <c r="AJ34" s="4">
-        <v>-2.802</v>
+        <v>-2.3029999999999999</v>
       </c>
       <c r="AK34" s="4">
-        <v>-2.7829999999999999</v>
+        <v>-1.7849999999999999</v>
       </c>
       <c r="AL34" s="4">
-        <v>-2.605</v>
+        <v>-1.0640000000000001</v>
       </c>
       <c r="AM34" s="4">
-        <v>-2.3029999999999999</v>
+        <v>-0.755</v>
       </c>
       <c r="AN34" s="4">
-        <v>-1.7849999999999999</v>
+        <v>-0.62</v>
       </c>
       <c r="AO34" s="4">
-        <v>-1.0640000000000001</v>
+        <v>-0.54700000000000004</v>
       </c>
       <c r="AP34" s="4">
-        <v>-0.755</v>
+        <v>-0.52200000000000002</v>
       </c>
       <c r="AQ34" s="4">
-        <v>-0.62</v>
+        <v>-0.55300000000000005</v>
       </c>
       <c r="AR34" s="4">
-        <v>-0.54700000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="AS34" s="4">
-        <v>-0.52200000000000002</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AT34" s="4">
-        <v>-0.55300000000000005</v>
+        <v>0.152</v>
       </c>
       <c r="AU34" s="4">
-        <v>0.03</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AV34" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="AW34" s="4">
-        <v>0.152</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AX34" s="4">
-        <v>0.23899999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="AY34" s="4">
-        <v>0.32700000000000001</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="AZ34" s="4">
-        <v>0.41199999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="BA34" s="4">
-        <v>0.496</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="BB34" s="4">
-        <v>0.57099999999999995</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="BC34" s="4">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="BD34" s="4">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="BE34" s="4">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="BF34" s="4">
         <v>0.753</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7575,92 +7217,83 @@
       <c r="AD35" s="5">
         <v>2.9598624999999998</v>
       </c>
-      <c r="AE35" s="4">
-        <v>1.61504</v>
+      <c r="AE35" s="5">
+        <v>2.9895462500000001</v>
       </c>
       <c r="AF35" s="4">
-        <v>1.7397549999999999</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>2.9895462500000001</v>
-      </c>
-      <c r="AH35" s="5">
-        <v>1.6773975000000001</v>
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>-3.2429999999999999</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>2.4470000000000001</v>
       </c>
       <c r="AI35" s="4">
-        <v>-3.1989999999999998</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="AJ35" s="4">
-        <v>-3.2429999999999999</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="AK35" s="4">
-        <v>2.4470000000000001</v>
+        <v>2.298</v>
       </c>
       <c r="AL35" s="4">
-        <v>2.4009999999999998</v>
+        <v>2.246</v>
       </c>
       <c r="AM35" s="4">
-        <v>2.3290000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="AN35" s="4">
-        <v>2.298</v>
+        <v>2.097</v>
       </c>
       <c r="AO35" s="4">
-        <v>2.246</v>
+        <v>1.992</v>
       </c>
       <c r="AP35" s="4">
-        <v>2.19</v>
+        <v>1.879</v>
       </c>
       <c r="AQ35" s="4">
-        <v>2.097</v>
+        <v>1.7</v>
       </c>
       <c r="AR35" s="4">
-        <v>1.992</v>
+        <v>0.02</v>
       </c>
       <c r="AS35" s="4">
-        <v>1.879</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AT35" s="4">
-        <v>1.7</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AU35" s="4">
-        <v>0.02</v>
+        <v>0.154</v>
       </c>
       <c r="AV35" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.218</v>
       </c>
       <c r="AW35" s="4">
-        <v>9.2999999999999999E-2</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AX35" s="4">
-        <v>0.154</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AY35" s="4">
-        <v>0.218</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="AZ35" s="4">
-        <v>0.27900000000000003</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="BA35" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="BB35" s="4">
-        <v>0.38200000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="BC35" s="4">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="BD35" s="4">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="BE35" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="BF35" s="4">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7751,92 +7384,83 @@
       <c r="AD36" s="5">
         <v>3.1461900000000003</v>
       </c>
-      <c r="AE36" s="4">
-        <v>1.55768</v>
+      <c r="AE36" s="5">
+        <v>3.1665150000000004</v>
       </c>
       <c r="AF36" s="4">
-        <v>1.590185</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>3.1665150000000004</v>
-      </c>
-      <c r="AH36" s="5">
-        <v>1.5739325</v>
+        <v>-7.202</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>-7.0430000000000001</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>-1.4319999999999999</v>
       </c>
       <c r="AI36" s="4">
-        <v>-7.202</v>
+        <v>-1.3859999999999999</v>
       </c>
       <c r="AJ36" s="4">
-        <v>-7.0430000000000001</v>
+        <v>-1.329</v>
       </c>
       <c r="AK36" s="4">
-        <v>-1.4319999999999999</v>
+        <v>-1.2430000000000001</v>
       </c>
       <c r="AL36" s="4">
-        <v>-1.3859999999999999</v>
+        <v>-1.111</v>
       </c>
       <c r="AM36" s="4">
-        <v>-1.329</v>
+        <v>-0.89800000000000002</v>
       </c>
       <c r="AN36" s="4">
-        <v>-1.2430000000000001</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="AO36" s="4">
-        <v>-1.111</v>
+        <v>-0.48099999999999998</v>
       </c>
       <c r="AP36" s="4">
-        <v>-0.89800000000000002</v>
+        <v>-0.38600000000000001</v>
       </c>
       <c r="AQ36" s="4">
-        <v>-0.64100000000000001</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="AR36" s="4">
-        <v>-0.48099999999999998</v>
+        <v>0.03</v>
       </c>
       <c r="AS36" s="4">
-        <v>-0.38600000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AT36" s="4">
-        <v>-0.34899999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="AU36" s="4">
-        <v>0.03</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AV36" s="4">
-        <v>6.3E-2</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AW36" s="4">
-        <v>0.12</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AX36" s="4">
-        <v>0.19900000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AY36" s="4">
-        <v>0.28100000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="AZ36" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="BA36" s="4">
-        <v>0.42699999999999999</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="BB36" s="4">
-        <v>0.49</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="BC36" s="4">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="BD36" s="4">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="BE36" s="4">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="BF36" s="4">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7927,92 +7551,83 @@
       <c r="AD37" s="5">
         <v>2.8918875000000002</v>
       </c>
-      <c r="AE37" s="4">
-        <v>1.6152</v>
+      <c r="AE37" s="5">
+        <v>2.9543937500000004</v>
       </c>
       <c r="AF37" s="4">
-        <v>1.8370575</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>2.9543937500000004</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>1.72612875</v>
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>2.137</v>
       </c>
       <c r="AI37" s="4">
-        <v>-0.56599999999999995</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="AJ37" s="4">
-        <v>2.0339999999999998</v>
+        <v>2.1640000000000001</v>
       </c>
       <c r="AK37" s="4">
-        <v>2.137</v>
+        <v>2.12</v>
       </c>
       <c r="AL37" s="4">
-        <v>2.1869999999999998</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="AM37" s="4">
-        <v>2.1640000000000001</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="AN37" s="4">
-        <v>2.12</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="AO37" s="4">
-        <v>2.0569999999999999</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="AP37" s="4">
-        <v>1.9590000000000001</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="AQ37" s="4">
-        <v>1.8180000000000001</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="AR37" s="4">
-        <v>1.6579999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS37" s="4">
-        <v>1.4390000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AT37" s="4">
-        <v>1.1779999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="AU37" s="4">
-        <v>0.02</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="AV37" s="4">
-        <v>5.5E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AW37" s="4">
-        <v>0.108</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AX37" s="4">
-        <v>0.16700000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="AY37" s="4">
-        <v>0.22500000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="AZ37" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="BA37" s="4">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="BB37" s="4">
-        <v>0.377</v>
+        <v>0.495</v>
       </c>
       <c r="BC37" s="4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="BD37" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="BE37" s="4">
-        <v>0.495</v>
-      </c>
-      <c r="BF37" s="4">
         <v>0.53</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8103,92 +7718,83 @@
       <c r="AD38" s="5">
         <v>3.0732949999999999</v>
       </c>
-      <c r="AE38" s="4">
-        <v>1.5542</v>
+      <c r="AE38" s="5">
+        <v>3.1322225000000001</v>
       </c>
       <c r="AF38" s="4">
-        <v>1.6846475000000001</v>
-      </c>
-      <c r="AG38" s="5">
-        <v>3.1322225000000001</v>
-      </c>
-      <c r="AH38" s="5">
-        <v>1.6194237500000002</v>
+        <v>19.161999999999999</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>-3.3069999999999999</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>-3.2509999999999999</v>
       </c>
       <c r="AI38" s="4">
-        <v>19.161999999999999</v>
+        <v>-3.0939999999999999</v>
       </c>
       <c r="AJ38" s="4">
-        <v>-3.3069999999999999</v>
+        <v>-2.7869999999999999</v>
       </c>
       <c r="AK38" s="4">
-        <v>-3.2509999999999999</v>
+        <v>-2.3759999999999999</v>
       </c>
       <c r="AL38" s="4">
-        <v>-3.0939999999999999</v>
+        <v>-1.8819999999999999</v>
       </c>
       <c r="AM38" s="4">
-        <v>-2.7869999999999999</v>
+        <v>-1.367</v>
       </c>
       <c r="AN38" s="4">
-        <v>-2.3759999999999999</v>
+        <v>-0.97499999999999998</v>
       </c>
       <c r="AO38" s="4">
-        <v>-1.8819999999999999</v>
+        <v>-0.73899999999999999</v>
       </c>
       <c r="AP38" s="4">
-        <v>-1.367</v>
+        <v>-0.621</v>
       </c>
       <c r="AQ38" s="4">
-        <v>-0.97499999999999998</v>
+        <v>-0.58399999999999996</v>
       </c>
       <c r="AR38" s="4">
-        <v>-0.73899999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AS38" s="4">
-        <v>-0.621</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT38" s="4">
-        <v>-0.58399999999999996</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AU38" s="4">
-        <v>0.03</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AV38" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.316</v>
       </c>
       <c r="AW38" s="4">
-        <v>0.14499999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AX38" s="4">
-        <v>0.23100000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="AY38" s="4">
-        <v>0.316</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AZ38" s="4">
-        <v>0.39500000000000002</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="BA38" s="4">
-        <v>0.46700000000000003</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="BB38" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="BC38" s="4">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="BD38" s="4">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="BE38" s="4">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="BF38" s="4">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8279,92 +7885,83 @@
       <c r="AD39" s="5">
         <v>2.7269100000000002</v>
       </c>
-      <c r="AE39" s="4">
-        <v>1.945125</v>
+      <c r="AE39" s="5">
+        <v>2.7450675000000002</v>
       </c>
       <c r="AF39" s="4">
-        <v>1.9157150000000001</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>2.7450675000000002</v>
-      </c>
-      <c r="AH39" s="5">
-        <v>1.93042</v>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0.72499999999999998</v>
       </c>
       <c r="AI39" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="AJ39" s="4">
-        <v>0.67100000000000004</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="AK39" s="4">
-        <v>0.72499999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="AL39" s="4">
-        <v>0.72399999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AM39" s="4">
-        <v>0.70099999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="AN39" s="4">
-        <v>0.70199999999999996</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="AO39" s="4">
-        <v>0.72899999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AP39" s="4">
-        <v>0.73099999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="AQ39" s="4">
-        <v>0.76700000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="AR39" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.06</v>
       </c>
       <c r="AS39" s="4">
-        <v>0.61199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AT39" s="4">
-        <v>0.627</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="AU39" s="4">
-        <v>0.06</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="AV39" s="4">
-        <v>0.16500000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="AW39" s="4">
-        <v>0.29799999999999999</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="AX39" s="4">
-        <v>0.42299999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AY39" s="4">
-        <v>0.52300000000000002</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AZ39" s="4">
-        <v>0.59199999999999997</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="BA39" s="4">
-        <v>0.63400000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="BB39" s="4">
-        <v>0.66800000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="BC39" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="BD39" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="BE39" s="4">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="BF39" s="4">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8455,92 +8052,83 @@
       <c r="AD40" s="6">
         <v>2.95533</v>
       </c>
-      <c r="AE40" s="7">
-        <v>1.8213699999999999</v>
+      <c r="AE40" s="6">
+        <v>2.8819724999999998</v>
       </c>
       <c r="AF40" s="7">
-        <v>1.7159849999999999</v>
-      </c>
-      <c r="AG40" s="6">
-        <v>2.8819724999999998</v>
-      </c>
-      <c r="AH40" s="6">
-        <v>1.7686774999999999</v>
+        <v>9.4540000000000006</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0.754</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>0.75</v>
       </c>
       <c r="AI40" s="7">
-        <v>9.4540000000000006</v>
+        <v>0.7</v>
       </c>
       <c r="AJ40" s="7">
-        <v>0.754</v>
+        <v>0.623</v>
       </c>
       <c r="AK40" s="7">
-        <v>0.75</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AL40" s="7">
-        <v>0.7</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="AM40" s="7">
-        <v>0.623</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AN40" s="7">
-        <v>0.55800000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="AO40" s="7">
-        <v>0.54700000000000004</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="AP40" s="7">
-        <v>0.53600000000000003</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="AQ40" s="7">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="AR40" s="7">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="AS40" s="7">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="AT40" s="7">
         <v>0.373</v>
       </c>
+      <c r="AR40" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AT40" s="4">
+        <v>0.125</v>
+      </c>
       <c r="AU40" s="4">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="AV40" s="4">
-        <v>6.2E-2</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AW40" s="4">
-        <v>0.125</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AX40" s="4">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="AY40" s="4">
-        <v>0.30499999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="AZ40" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="BA40" s="4">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="BB40" s="4">
-        <v>0.52100000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="BC40" s="4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="BD40" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="BE40" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="BF40" s="4">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8631,92 +8219,83 @@
       <c r="AD41" s="6">
         <v>3.1452049999999998</v>
       </c>
-      <c r="AE41" s="7">
-        <v>1.76162</v>
+      <c r="AE41" s="6">
+        <v>3.0554224999999997</v>
       </c>
       <c r="AF41" s="7">
-        <v>1.56985</v>
-      </c>
-      <c r="AG41" s="6">
-        <v>3.0554224999999997</v>
-      </c>
-      <c r="AH41" s="6">
-        <v>1.665735</v>
+        <v>-1.2769999999999999</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>-0.81399999999999995</v>
+      </c>
+      <c r="AH41" s="7">
+        <v>-0.61399999999999999</v>
       </c>
       <c r="AI41" s="7">
-        <v>-1.2769999999999999</v>
+        <v>-0.53400000000000003</v>
       </c>
       <c r="AJ41" s="7">
-        <v>-0.81399999999999995</v>
+        <v>-0.50600000000000001</v>
       </c>
       <c r="AK41" s="7">
-        <v>-0.61399999999999999</v>
+        <v>-0.47099999999999997</v>
       </c>
       <c r="AL41" s="7">
-        <v>-0.53400000000000003</v>
+        <v>-0.44800000000000001</v>
       </c>
       <c r="AM41" s="7">
-        <v>-0.50600000000000001</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="AN41" s="7">
-        <v>-0.47099999999999997</v>
+        <v>-0.41099999999999998</v>
       </c>
       <c r="AO41" s="7">
-        <v>-0.44800000000000001</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="AP41" s="7">
-        <v>-0.42699999999999999</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="AQ41" s="7">
-        <v>-0.41099999999999998</v>
-      </c>
-      <c r="AR41" s="7">
-        <v>-0.39400000000000002</v>
-      </c>
-      <c r="AS41" s="7">
-        <v>-0.38300000000000001</v>
-      </c>
-      <c r="AT41" s="7">
         <v>-0.36499999999999999</v>
       </c>
+      <c r="AR41" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>0.27</v>
+      </c>
       <c r="AU41" s="4">
-        <v>0.04</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="AV41" s="4">
-        <v>0.13600000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AW41" s="4">
-        <v>0.27</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AX41" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AY41" s="4">
-        <v>0.51600000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="AZ41" s="4">
-        <v>0.60299999999999998</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="BA41" s="4">
-        <v>0.66900000000000004</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="BB41" s="4">
-        <v>0.71899999999999997</v>
+        <v>0.81</v>
       </c>
       <c r="BC41" s="4">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="BD41" s="4">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="BE41" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="BF41" s="4">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8807,92 +8386,83 @@
       <c r="AD42" s="6">
         <v>2.8848500000000001</v>
       </c>
-      <c r="AE42" s="7">
-        <v>1.8334199999999998</v>
+      <c r="AE42" s="6">
+        <v>2.8414125000000001</v>
       </c>
       <c r="AF42" s="7">
-        <v>1.8148550000000001</v>
-      </c>
-      <c r="AG42" s="6">
-        <v>2.8414125000000001</v>
-      </c>
-      <c r="AH42" s="6">
-        <v>1.8241375</v>
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>1.4530000000000001</v>
       </c>
       <c r="AI42" s="7">
-        <v>4.3209999999999997</v>
+        <v>1.512</v>
       </c>
       <c r="AJ42" s="7">
-        <v>4.2949999999999999</v>
+        <v>1.488</v>
       </c>
       <c r="AK42" s="7">
-        <v>1.4530000000000001</v>
+        <v>1.357</v>
       </c>
       <c r="AL42" s="7">
-        <v>1.512</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="AM42" s="7">
-        <v>1.488</v>
+        <v>1.06</v>
       </c>
       <c r="AN42" s="7">
-        <v>1.357</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="AO42" s="7">
-        <v>1.1970000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="AP42" s="7">
-        <v>1.06</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="AQ42" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="AR42" s="7">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="AS42" s="7">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="AT42" s="7">
         <v>0.77700000000000002</v>
       </c>
+      <c r="AR42" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AT42" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="AU42" s="4">
-        <v>0.03</v>
+        <v>0.153</v>
       </c>
       <c r="AV42" s="4">
-        <v>5.1999999999999998E-2</v>
+        <v>0.22</v>
       </c>
       <c r="AW42" s="4">
-        <v>9.1999999999999998E-2</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="AX42" s="4">
-        <v>0.153</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="AY42" s="4">
-        <v>0.22</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AZ42" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="BA42" s="4">
-        <v>0.35299999999999998</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="BB42" s="4">
-        <v>0.41199999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="BC42" s="4">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="BD42" s="4">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="BE42" s="4">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="BF42" s="4">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8983,92 +8553,83 @@
       <c r="AD43" s="6">
         <v>3.0699550000000002</v>
       </c>
-      <c r="AE43" s="7">
-        <v>1.76553</v>
+      <c r="AE43" s="6">
+        <v>3.0137400000000003</v>
       </c>
       <c r="AF43" s="7">
-        <v>1.6651349999999998</v>
-      </c>
-      <c r="AG43" s="6">
-        <v>3.0137400000000003</v>
-      </c>
-      <c r="AH43" s="6">
-        <v>1.7153324999999999</v>
+        <v>-3.9140000000000001</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>-0.54</v>
+      </c>
+      <c r="AH43" s="7">
+        <v>-0.6</v>
       </c>
       <c r="AI43" s="7">
-        <v>-3.9140000000000001</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="AJ43" s="7">
-        <v>-0.54</v>
+        <v>-0.58099999999999996</v>
       </c>
       <c r="AK43" s="7">
-        <v>-0.6</v>
+        <v>-0.51200000000000001</v>
       </c>
       <c r="AL43" s="7">
-        <v>-0.63100000000000001</v>
+        <v>-0.44900000000000001</v>
       </c>
       <c r="AM43" s="7">
-        <v>-0.58099999999999996</v>
+        <v>-0.41599999999999998</v>
       </c>
       <c r="AN43" s="7">
-        <v>-0.51200000000000001</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="AO43" s="7">
-        <v>-0.44900000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="AP43" s="7">
-        <v>-0.41599999999999998</v>
+        <v>-0.36199999999999999</v>
       </c>
       <c r="AQ43" s="7">
-        <v>-0.38700000000000001</v>
-      </c>
-      <c r="AR43" s="7">
-        <v>-0.37</v>
-      </c>
-      <c r="AS43" s="7">
-        <v>-0.36199999999999999</v>
-      </c>
-      <c r="AT43" s="7">
         <v>-0.374</v>
       </c>
+      <c r="AR43" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AT43" s="4">
+        <v>0.14799999999999999</v>
+      </c>
       <c r="AU43" s="4">
-        <v>0.02</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AV43" s="4">
-        <v>6.4000000000000001E-2</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="AW43" s="4">
-        <v>0.14799999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="AX43" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AY43" s="4">
-        <v>0.38300000000000001</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="AZ43" s="4">
-        <v>0.495</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="BA43" s="4">
-        <v>0.59099999999999997</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="BB43" s="4">
-        <v>0.66600000000000004</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="BC43" s="4">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="BD43" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="BE43" s="4">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="BF43" s="4">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9159,92 +8720,83 @@
       <c r="AD44" s="6">
         <v>3.1502249999999998</v>
       </c>
-      <c r="AE44" s="7">
-        <v>1.9043700000000001</v>
+      <c r="AE44" s="6">
+        <v>3.0194700000000001</v>
       </c>
       <c r="AF44" s="7">
-        <v>1.5281549999999999</v>
-      </c>
-      <c r="AG44" s="6">
-        <v>3.0194700000000001</v>
-      </c>
-      <c r="AH44" s="6">
-        <v>1.7162625</v>
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>-0.309</v>
+      </c>
+      <c r="AH44" s="7">
+        <v>-0.315</v>
       </c>
       <c r="AI44" s="7">
-        <v>-0.30099999999999999</v>
+        <v>-0.313</v>
       </c>
       <c r="AJ44" s="7">
-        <v>-0.309</v>
+        <v>-0.311</v>
       </c>
       <c r="AK44" s="7">
-        <v>-0.315</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="AL44" s="7">
-        <v>-0.313</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="AM44" s="7">
-        <v>-0.311</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="AN44" s="7">
-        <v>-0.29699999999999999</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="AO44" s="7">
-        <v>-0.28499999999999998</v>
+        <v>-0.30199999999999999</v>
       </c>
       <c r="AP44" s="7">
-        <v>-0.28299999999999997</v>
+        <v>-0.307</v>
       </c>
       <c r="AQ44" s="7">
-        <v>-0.29199999999999998</v>
-      </c>
-      <c r="AR44" s="7">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="AS44" s="7">
-        <v>-0.307</v>
-      </c>
-      <c r="AT44" s="7">
         <v>-0.32800000000000001</v>
       </c>
+      <c r="AR44" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS44" s="4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AT44" s="4">
+        <v>0.26500000000000001</v>
+      </c>
       <c r="AU44" s="4">
-        <v>0.04</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="AV44" s="4">
-        <v>0.13100000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AW44" s="4">
-        <v>0.26500000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AX44" s="4">
-        <v>0.40799999999999997</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="AY44" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="AZ44" s="4">
-        <v>0.63400000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="BA44" s="4">
-        <v>0.70799999999999996</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="BB44" s="4">
-        <v>0.75900000000000001</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="BC44" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="BD44" s="4">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="BE44" s="4">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="BF44" s="4">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9335,92 +8887,83 @@
       <c r="AD45" s="6">
         <v>3.0722800000000001</v>
       </c>
-      <c r="AE45" s="7">
-        <v>1.90506</v>
+      <c r="AE45" s="6">
+        <v>2.9777475</v>
       </c>
       <c r="AF45" s="7">
-        <v>1.6282349999999999</v>
-      </c>
-      <c r="AG45" s="6">
-        <v>2.9777475</v>
-      </c>
-      <c r="AH45" s="6">
-        <v>1.7666474999999999</v>
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>-0.437</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>-0.46600000000000003</v>
       </c>
       <c r="AI45" s="7">
-        <v>-0.35799999999999998</v>
+        <v>-0.44400000000000001</v>
       </c>
       <c r="AJ45" s="7">
-        <v>-0.437</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="AK45" s="7">
-        <v>-0.46600000000000003</v>
+        <v>-0.379</v>
       </c>
       <c r="AL45" s="7">
-        <v>-0.44400000000000001</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="AM45" s="7">
-        <v>-0.40899999999999997</v>
+        <v>-0.436</v>
       </c>
       <c r="AN45" s="7">
-        <v>-0.379</v>
+        <v>-0.55600000000000005</v>
       </c>
       <c r="AO45" s="7">
-        <v>-0.38700000000000001</v>
+        <v>-0.72899999999999998</v>
       </c>
       <c r="AP45" s="7">
-        <v>-0.436</v>
+        <v>-0.97299999999999998</v>
       </c>
       <c r="AQ45" s="7">
-        <v>-0.55600000000000005</v>
-      </c>
-      <c r="AR45" s="7">
-        <v>-0.72899999999999998</v>
-      </c>
-      <c r="AS45" s="7">
-        <v>-0.97299999999999998</v>
-      </c>
-      <c r="AT45" s="7">
         <v>-1.2829999999999999</v>
       </c>
+      <c r="AR45" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AS45" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="AT45" s="4">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="AU45" s="4">
-        <v>0.05</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="AV45" s="4">
-        <v>0.153</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="AW45" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="AX45" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AY45" s="4">
-        <v>0.52800000000000002</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="AZ45" s="4">
-        <v>0.61199999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="BA45" s="4">
-        <v>0.67</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="BB45" s="4">
-        <v>0.70699999999999996</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="BC45" s="4">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="BD45" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="BE45" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="BF45" s="4">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9511,92 +9054,83 @@
       <c r="AD46" s="6">
         <v>2.74512</v>
       </c>
-      <c r="AE46" s="7">
-        <v>1.75098</v>
+      <c r="AE46" s="6">
+        <v>2.8351550000000003</v>
       </c>
       <c r="AF46" s="7">
-        <v>1.857</v>
-      </c>
-      <c r="AG46" s="6">
-        <v>2.8351550000000003</v>
-      </c>
-      <c r="AH46" s="6">
-        <v>1.80399</v>
+        <v>0.41</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>0.373</v>
       </c>
       <c r="AI46" s="7">
-        <v>0.41</v>
+        <v>0.372</v>
       </c>
       <c r="AJ46" s="7">
-        <v>0.40600000000000003</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="AK46" s="7">
-        <v>0.373</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="AL46" s="7">
-        <v>0.372</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="AM46" s="7">
-        <v>0.39600000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="AN46" s="7">
+        <v>0.374</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AP46" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AR46" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AS46" s="4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AT46" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="AO46" s="7">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="AP46" s="7">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="AQ46" s="7">
-        <v>0.374</v>
-      </c>
-      <c r="AR46" s="7">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="AS46" s="7">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="AT46" s="7">
-        <v>0.4</v>
-      </c>
       <c r="AU46" s="4">
-        <v>0.08</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="AV46" s="4">
-        <v>0.20200000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AW46" s="4">
-        <v>0.33800000000000002</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="AX46" s="4">
-        <v>0.42299999999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AY46" s="4">
-        <v>0.49399999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="AZ46" s="4">
-        <v>0.63800000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="BA46" s="4">
-        <v>0.68300000000000005</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="BB46" s="4">
-        <v>0.71899999999999997</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="BC46" s="4">
-        <v>0.749</v>
-      </c>
-      <c r="BD46" s="4">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="BE46" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="BF46" s="4">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9687,92 +9221,83 @@
       <c r="AD47" s="6">
         <v>2.92679</v>
       </c>
-      <c r="AE47" s="7">
-        <v>1.6867299999999998</v>
+      <c r="AE47" s="6">
+        <v>3.0149875000000002</v>
       </c>
       <c r="AF47" s="7">
-        <v>1.6732650000000002</v>
-      </c>
-      <c r="AG47" s="6">
-        <v>3.0149875000000002</v>
-      </c>
-      <c r="AH47" s="6">
-        <v>1.6799975</v>
+        <v>-0.78900000000000003</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>-0.70399999999999996</v>
+      </c>
+      <c r="AH47" s="7">
+        <v>-0.54500000000000004</v>
       </c>
       <c r="AI47" s="7">
-        <v>-0.78900000000000003</v>
+        <v>-0.44400000000000001</v>
       </c>
       <c r="AJ47" s="7">
-        <v>-0.70399999999999996</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="AK47" s="7">
-        <v>-0.54500000000000004</v>
+        <v>-0.379</v>
       </c>
       <c r="AL47" s="7">
-        <v>-0.44400000000000001</v>
+        <v>-0.35599999999999998</v>
       </c>
       <c r="AM47" s="7">
-        <v>-0.40799999999999997</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="AN47" s="7">
-        <v>-0.379</v>
+        <v>-0.36199999999999999</v>
       </c>
       <c r="AO47" s="7">
-        <v>-0.35599999999999998</v>
+        <v>-0.373</v>
       </c>
       <c r="AP47" s="7">
-        <v>-0.34899999999999998</v>
+        <v>-0.39900000000000002</v>
       </c>
       <c r="AQ47" s="7">
-        <v>-0.36199999999999999</v>
-      </c>
-      <c r="AR47" s="7">
-        <v>-0.373</v>
-      </c>
-      <c r="AS47" s="7">
-        <v>-0.39900000000000002</v>
-      </c>
-      <c r="AT47" s="7">
         <v>-0.44800000000000001</v>
       </c>
+      <c r="AR47" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS47" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="AT47" s="4">
+        <v>0.33</v>
+      </c>
       <c r="AU47" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AV47" s="4">
-        <v>0.182</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AW47" s="4">
-        <v>0.33</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AX47" s="4">
-        <v>0.46800000000000003</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="AY47" s="4">
-        <v>0.57599999999999996</v>
+        <v>0.749</v>
       </c>
       <c r="AZ47" s="4">
-        <v>0.65600000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="BA47" s="4">
-        <v>0.71199999999999997</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="BB47" s="4">
-        <v>0.749</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="BC47" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="BD47" s="4">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="BE47" s="4">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="BF47" s="4">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9863,92 +9388,83 @@
       <c r="AD48" s="5">
         <v>2.9670350000000001</v>
       </c>
-      <c r="AE48" s="4">
-        <v>1.6825299999999999</v>
+      <c r="AE48" s="5">
+        <v>2.9635350000000003</v>
       </c>
       <c r="AF48" s="4">
-        <v>1.69265</v>
-      </c>
-      <c r="AG48" s="5">
-        <v>2.9635350000000003</v>
-      </c>
-      <c r="AH48" s="5">
-        <v>1.6875899999999999</v>
+        <v>-1.2390000000000001</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>0.93700000000000006</v>
       </c>
       <c r="AI48" s="4">
-        <v>-1.2390000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="AJ48" s="4">
-        <v>0.98799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AK48" s="4">
-        <v>0.93700000000000006</v>
+        <v>0.67</v>
       </c>
       <c r="AL48" s="4">
-        <v>0.81299999999999994</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AM48" s="4">
-        <v>0.73</v>
+        <v>0.621</v>
       </c>
       <c r="AN48" s="4">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="AO48" s="4">
-        <v>0.64500000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="AP48" s="4">
-        <v>0.621</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AQ48" s="4">
-        <v>0.61</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="AR48" s="4">
-        <v>0.60199999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="AS48" s="4">
-        <v>0.60499999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="AT48" s="4">
-        <v>0.60599999999999998</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="AU48" s="4">
-        <v>0.01</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AV48" s="4">
-        <v>0.05</v>
+        <v>0.313</v>
       </c>
       <c r="AW48" s="4">
-        <v>0.11799999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="AX48" s="4">
-        <v>0.21099999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="AY48" s="4">
-        <v>0.313</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="AZ48" s="4">
-        <v>0.41099999999999998</v>
+        <v>0.628</v>
       </c>
       <c r="BA48" s="4">
-        <v>0.497</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="BB48" s="4">
-        <v>0.56899999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="BC48" s="4">
-        <v>0.628</v>
-      </c>
-      <c r="BD48" s="4">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BE48" s="4">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="BF48" s="4">
         <v>0.746</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10039,92 +9555,83 @@
       <c r="AD49" s="5">
         <v>3.15517</v>
       </c>
-      <c r="AE49" s="4">
-        <v>1.6327199999999999</v>
+      <c r="AE49" s="5">
+        <v>3.1421575000000002</v>
       </c>
       <c r="AF49" s="4">
-        <v>1.557075</v>
-      </c>
-      <c r="AG49" s="5">
-        <v>3.1421575000000002</v>
-      </c>
-      <c r="AH49" s="5">
-        <v>1.5948975000000001</v>
+        <v>-11.176</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>-0.318</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>-0.42</v>
       </c>
       <c r="AI49" s="4">
-        <v>-11.176</v>
+        <v>-0.46600000000000003</v>
       </c>
       <c r="AJ49" s="4">
-        <v>-0.318</v>
+        <v>-0.48</v>
       </c>
       <c r="AK49" s="4">
-        <v>-0.42</v>
+        <v>-0.45</v>
       </c>
       <c r="AL49" s="4">
-        <v>-0.46600000000000003</v>
+        <v>-0.42299999999999999</v>
       </c>
       <c r="AM49" s="4">
-        <v>-0.48</v>
+        <v>-0.39100000000000001</v>
       </c>
       <c r="AN49" s="4">
-        <v>-0.45</v>
+        <v>-0.36199999999999999</v>
       </c>
       <c r="AO49" s="4">
-        <v>-0.42299999999999999</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="AP49" s="4">
-        <v>-0.39100000000000001</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="AQ49" s="4">
-        <v>-0.36199999999999999</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="AR49" s="4">
-        <v>-0.33500000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="AS49" s="4">
-        <v>-0.31900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AT49" s="4">
-        <v>-0.30399999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="AU49" s="4">
-        <v>0.02</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AV49" s="4">
-        <v>6.9000000000000006E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="AW49" s="4">
-        <v>0.152</v>
+        <v>0.46</v>
       </c>
       <c r="AX49" s="4">
-        <v>0.25800000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AY49" s="4">
-        <v>0.36499999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="AZ49" s="4">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="BA49" s="4">
-        <v>0.54</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="BB49" s="4">
-        <v>0.60599999999999998</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="BC49" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="BD49" s="4">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="BE49" s="4">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="BF49" s="4">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10215,92 +9722,83 @@
       <c r="AD50" s="5">
         <v>2.90056</v>
       </c>
-      <c r="AE50" s="4">
-        <v>1.6858299999999999</v>
+      <c r="AE50" s="5">
+        <v>2.9263225000000004</v>
       </c>
       <c r="AF50" s="4">
-        <v>1.7747949999999999</v>
-      </c>
-      <c r="AG50" s="5">
-        <v>2.9263225000000004</v>
-      </c>
-      <c r="AH50" s="5">
-        <v>1.7303124999999999</v>
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>1.095</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>1.0620000000000001</v>
       </c>
       <c r="AI50" s="4">
-        <v>1.1339999999999999</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="AJ50" s="4">
-        <v>1.095</v>
+        <v>0.628</v>
       </c>
       <c r="AK50" s="4">
-        <v>1.0620000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AL50" s="4">
-        <v>0.88300000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AM50" s="4">
-        <v>0.628</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AN50" s="4">
-        <v>0.53400000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="AO50" s="4">
-        <v>0.48899999999999999</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AP50" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="AQ50" s="4">
-        <v>0.439</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="AR50" s="4">
-        <v>0.45400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="AS50" s="4">
-        <v>0.51300000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AT50" s="4">
-        <v>0.60399999999999998</v>
+        <v>0.112</v>
       </c>
       <c r="AU50" s="4">
-        <v>0.02</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="AV50" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="AW50" s="4">
-        <v>0.112</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AX50" s="4">
-        <v>0.19700000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="AY50" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AZ50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="BA50" s="4">
-        <v>0.47699999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="BB50" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="BC50" s="4">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="BD50" s="4">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="BE50" s="4">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="BF50" s="4">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10391,92 +9889,83 @@
       <c r="AD51" s="5">
         <v>3.083415</v>
       </c>
-      <c r="AE51" s="4">
-        <v>1.638835</v>
+      <c r="AE51" s="5">
+        <v>3.1021125000000001</v>
       </c>
       <c r="AF51" s="4">
-        <v>1.6362649999999999</v>
-      </c>
-      <c r="AG51" s="5">
-        <v>3.1021125000000001</v>
-      </c>
-      <c r="AH51" s="5">
-        <v>1.6375500000000001</v>
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>-0.48</v>
       </c>
       <c r="AI51" s="4">
-        <v>-0.38400000000000001</v>
+        <v>-0.49</v>
       </c>
       <c r="AJ51" s="4">
-        <v>-0.45400000000000001</v>
+        <v>-0.47599999999999998</v>
       </c>
       <c r="AK51" s="4">
-        <v>-0.48</v>
+        <v>-0.44600000000000001</v>
       </c>
       <c r="AL51" s="4">
-        <v>-0.49</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="AM51" s="4">
-        <v>-0.47599999999999998</v>
+        <v>-0.4</v>
       </c>
       <c r="AN51" s="4">
-        <v>-0.44600000000000001</v>
+        <v>-0.38100000000000001</v>
       </c>
       <c r="AO51" s="4">
-        <v>-0.42699999999999999</v>
+        <v>-0.36699999999999999</v>
       </c>
       <c r="AP51" s="4">
-        <v>-0.4</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="AQ51" s="4">
-        <v>-0.38100000000000001</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="AR51" s="4">
-        <v>-0.36699999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AS51" s="4">
-        <v>-0.36799999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="AT51" s="4">
-        <v>-0.41499999999999998</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="AU51" s="4">
-        <v>0.03</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AV51" s="4">
-        <v>0.10299999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AW51" s="4">
-        <v>0.21299999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AX51" s="4">
-        <v>0.33500000000000002</v>
+        <v>0.61</v>
       </c>
       <c r="AY51" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="AZ51" s="4">
-        <v>0.53800000000000003</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="BA51" s="4">
-        <v>0.61</v>
+        <v>0.747</v>
       </c>
       <c r="BB51" s="4">
-        <v>0.66700000000000004</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="BC51" s="4">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="BD51" s="4">
-        <v>0.747</v>
-      </c>
-      <c r="BE51" s="4">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="BF51" s="4">
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10567,92 +10056,83 @@
       <c r="AD52" s="5">
         <v>2.7546949999999999</v>
       </c>
-      <c r="AE52" s="4">
-        <v>1.5937000000000001</v>
+      <c r="AE52" s="5">
+        <v>2.8798349999999999</v>
       </c>
       <c r="AF52" s="4">
-        <v>1.84535</v>
-      </c>
-      <c r="AG52" s="5">
-        <v>2.8798349999999999</v>
-      </c>
-      <c r="AH52" s="5">
-        <v>1.719525</v>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>0.34599999999999997</v>
       </c>
       <c r="AI52" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="AJ52" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>0.317</v>
+      </c>
+      <c r="AL52" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="AN52" s="4">
         <v>0.34300000000000003</v>
       </c>
-      <c r="AK52" s="4">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="AL52" s="4">
+      <c r="AO52" s="4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AP52" s="4">
         <v>0.35799999999999998</v>
       </c>
-      <c r="AM52" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="AN52" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="AO52" s="4">
+      <c r="AQ52" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AR52" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AT52" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AU52" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AP52" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="AQ52" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="AR52" s="4">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AS52" s="4">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="AT52" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="AU52" s="4">
-        <v>0.04</v>
-      </c>
       <c r="AV52" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="AW52" s="4">
-        <v>0.23699999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AX52" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AY52" s="4">
-        <v>0.48499999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AZ52" s="4">
-        <v>0.54500000000000004</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="BA52" s="4">
-        <v>0.59299999999999997</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="BB52" s="4">
-        <v>0.63100000000000001</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="BC52" s="4">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="BD52" s="4">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="BE52" s="4">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="BF52" s="4">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10743,92 +10223,83 @@
       <c r="AD53" s="5">
         <v>2.9273600000000002</v>
       </c>
-      <c r="AE53" s="4">
-        <v>1.532305</v>
+      <c r="AE53" s="5">
+        <v>3.0556175000000003</v>
       </c>
       <c r="AF53" s="4">
-        <v>1.6854399999999998</v>
-      </c>
-      <c r="AG53" s="5">
-        <v>3.0556175000000003</v>
-      </c>
-      <c r="AH53" s="5">
-        <v>1.6088724999999999</v>
+        <v>-1.05</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>-0.88600000000000001</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>-0.86099999999999999</v>
       </c>
       <c r="AI53" s="4">
-        <v>-1.05</v>
+        <v>-0.84899999999999998</v>
       </c>
       <c r="AJ53" s="4">
-        <v>-0.88600000000000001</v>
+        <v>-0.81699999999999995</v>
       </c>
       <c r="AK53" s="4">
-        <v>-0.86099999999999999</v>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="AL53" s="4">
-        <v>-0.84899999999999998</v>
+        <v>-0.749</v>
       </c>
       <c r="AM53" s="4">
-        <v>-0.81699999999999995</v>
+        <v>-0.69099999999999995</v>
       </c>
       <c r="AN53" s="4">
-        <v>-0.78500000000000003</v>
+        <v>-0.63600000000000001</v>
       </c>
       <c r="AO53" s="4">
-        <v>-0.749</v>
+        <v>-0.59399999999999997</v>
       </c>
       <c r="AP53" s="4">
-        <v>-0.69099999999999995</v>
+        <v>-0.55200000000000005</v>
       </c>
       <c r="AQ53" s="4">
-        <v>-0.63600000000000001</v>
+        <v>-0.51700000000000002</v>
       </c>
       <c r="AR53" s="4">
-        <v>-0.59399999999999997</v>
+        <v>0.02</v>
       </c>
       <c r="AS53" s="4">
-        <v>-0.55200000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AT53" s="4">
-        <v>-0.51700000000000002</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="AU53" s="4">
-        <v>0.02</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="AV53" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>0.379</v>
       </c>
       <c r="AW53" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="AX53" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="AY53" s="4">
-        <v>0.379</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="AZ53" s="4">
-        <v>0.46700000000000003</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="BA53" s="4">
-        <v>0.54</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="BB53" s="4">
-        <v>0.60199999999999998</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="BC53" s="4">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="BD53" s="4">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="BE53" s="4">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="BF53" s="4">
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10919,92 +10390,83 @@
       <c r="AD54" s="5">
         <v>2.9699900000000001</v>
       </c>
-      <c r="AE54" s="4">
-        <v>1.574255</v>
+      <c r="AE54" s="5">
+        <v>2.997315</v>
       </c>
       <c r="AF54" s="4">
-        <v>1.705665</v>
-      </c>
-      <c r="AG54" s="5">
-        <v>2.997315</v>
-      </c>
-      <c r="AH54" s="5">
-        <v>1.6399599999999999</v>
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>2.0640000000000001</v>
       </c>
       <c r="AI54" s="4">
-        <v>1.9570000000000001</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="AJ54" s="4">
-        <v>1.9990000000000001</v>
+        <v>2.093</v>
       </c>
       <c r="AK54" s="4">
-        <v>2.0640000000000001</v>
+        <v>2.0219999999999998</v>
       </c>
       <c r="AL54" s="4">
-        <v>2.1019999999999999</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="AM54" s="4">
-        <v>2.093</v>
+        <v>1.802</v>
       </c>
       <c r="AN54" s="4">
-        <v>2.0219999999999998</v>
+        <v>1.62</v>
       </c>
       <c r="AO54" s="4">
-        <v>1.9159999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="AP54" s="4">
-        <v>1.802</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="AQ54" s="4">
-        <v>1.62</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="AR54" s="4">
-        <v>1.4239999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS54" s="4">
-        <v>1.1779999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AT54" s="4">
-        <v>0.91100000000000003</v>
+        <v>0.113</v>
       </c>
       <c r="AU54" s="4">
-        <v>0.02</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="AV54" s="4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AW54" s="4">
-        <v>0.113</v>
+        <v>0.315</v>
       </c>
       <c r="AX54" s="4">
-        <v>0.18099999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="AY54" s="4">
-        <v>0.25</v>
+        <v>0.432</v>
       </c>
       <c r="AZ54" s="4">
-        <v>0.315</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="BA54" s="4">
-        <v>0.376</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="BB54" s="4">
-        <v>0.432</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="BC54" s="4">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="BD54" s="4">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="BE54" s="4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="BF54" s="4">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11095,92 +10557,83 @@
       <c r="AD55" s="5">
         <v>3.1519149999999998</v>
       </c>
-      <c r="AE55" s="4">
-        <v>1.525795</v>
+      <c r="AE55" s="5">
+        <v>3.1730974999999999</v>
       </c>
       <c r="AF55" s="4">
-        <v>1.580975</v>
-      </c>
-      <c r="AG55" s="5">
-        <v>3.1730974999999999</v>
-      </c>
-      <c r="AH55" s="5">
-        <v>1.553385</v>
+        <v>-5.3869999999999996</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>-0.65400000000000003</v>
       </c>
       <c r="AI55" s="4">
-        <v>-5.3869999999999996</v>
+        <v>-0.67200000000000004</v>
       </c>
       <c r="AJ55" s="4">
-        <v>-0.59599999999999997</v>
+        <v>-0.66300000000000003</v>
       </c>
       <c r="AK55" s="4">
-        <v>-0.65400000000000003</v>
+        <v>-0.61099999999999999</v>
       </c>
       <c r="AL55" s="4">
-        <v>-0.67200000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="AM55" s="4">
-        <v>-0.66300000000000003</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="AN55" s="4">
-        <v>-0.61099999999999999</v>
+        <v>-0.38100000000000001</v>
       </c>
       <c r="AO55" s="4">
-        <v>-0.54</v>
+        <v>-0.32300000000000001</v>
       </c>
       <c r="AP55" s="4">
-        <v>-0.46500000000000002</v>
+        <v>-0.30599999999999999</v>
       </c>
       <c r="AQ55" s="4">
-        <v>-0.38100000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="AR55" s="4">
-        <v>-0.32300000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="AS55" s="4">
-        <v>-0.30599999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AT55" s="4">
-        <v>-0.3</v>
+        <v>0.128</v>
       </c>
       <c r="AU55" s="4">
-        <v>0.02</v>
+        <v>0.218</v>
       </c>
       <c r="AV55" s="4">
-        <v>5.8000000000000003E-2</v>
+        <v>0.311</v>
       </c>
       <c r="AW55" s="4">
-        <v>0.128</v>
+        <v>0.4</v>
       </c>
       <c r="AX55" s="4">
-        <v>0.218</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="AY55" s="4">
-        <v>0.311</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="AZ55" s="4">
-        <v>0.4</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="BA55" s="4">
-        <v>0.47699999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="BB55" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="BC55" s="4">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="BD55" s="4">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="BE55" s="4">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="BF55" s="4">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -11271,92 +10724,83 @@
       <c r="AD56" s="6">
         <v>2.7933950000000003</v>
       </c>
-      <c r="AE56" s="7">
-        <v>1.5723750000000001</v>
+      <c r="AE56" s="6">
+        <v>2.8598474999999999</v>
       </c>
       <c r="AF56" s="7">
-        <v>1.896555</v>
-      </c>
-      <c r="AG56" s="6">
-        <v>2.8598474999999999</v>
-      </c>
-      <c r="AH56" s="6">
-        <v>1.7344650000000001</v>
+        <v>2.62</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="AH56" s="7">
+        <v>0.77100000000000002</v>
       </c>
       <c r="AI56" s="7">
-        <v>2.62</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="AJ56" s="7">
-        <v>0.79</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="AK56" s="7">
-        <v>0.77100000000000002</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="AL56" s="7">
-        <v>0.75700000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="AM56" s="7">
-        <v>0.76100000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="AN56" s="7">
-        <v>0.76400000000000001</v>
+        <v>-0.85099999999999998</v>
       </c>
       <c r="AO56" s="7">
-        <v>0.80200000000000005</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="AP56" s="7">
-        <v>0.84399999999999997</v>
+        <v>-0.56499999999999995</v>
       </c>
       <c r="AQ56" s="7">
-        <v>-0.85099999999999998</v>
-      </c>
-      <c r="AR56" s="7">
-        <v>-0.67100000000000004</v>
-      </c>
-      <c r="AS56" s="7">
-        <v>-0.56499999999999995</v>
-      </c>
-      <c r="AT56" s="7">
         <v>-0.49</v>
       </c>
+      <c r="AR56" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS56" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AT56" s="4">
+        <v>0.20699999999999999</v>
+      </c>
       <c r="AU56" s="4">
-        <v>0.03</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AV56" s="4">
-        <v>9.7000000000000003E-2</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="AW56" s="4">
-        <v>0.20699999999999999</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AX56" s="4">
-        <v>0.33500000000000002</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="AY56" s="4">
-        <v>0.44900000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="AZ56" s="4">
-        <v>0.53600000000000003</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="BA56" s="4">
-        <v>0.59299999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="BB56" s="4">
-        <v>0.63900000000000001</v>
+        <v>1.123</v>
       </c>
       <c r="BC56" s="4">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="BD56" s="4">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="BE56" s="4">
-        <v>1.123</v>
-      </c>
-      <c r="BF56" s="4">
         <v>1.212</v>
       </c>
     </row>
-    <row r="57" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -11447,92 +10891,83 @@
       <c r="AD57" s="6">
         <v>2.9037499999999996</v>
       </c>
-      <c r="AE57" s="7">
-        <v>1.5656699999999999</v>
+      <c r="AE57" s="6">
+        <v>2.962405</v>
       </c>
       <c r="AF57" s="7">
-        <v>1.7874150000000002</v>
-      </c>
-      <c r="AG57" s="6">
-        <v>2.962405</v>
-      </c>
-      <c r="AH57" s="6">
-        <v>1.6765425</v>
+        <v>-336.59300000000002</v>
+      </c>
+      <c r="AG57" s="7">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="AH57" s="7">
+        <v>2.5430000000000001</v>
       </c>
       <c r="AI57" s="7">
-        <v>-336.59300000000002</v>
+        <v>2.5590000000000002</v>
       </c>
       <c r="AJ57" s="7">
-        <v>2.5510000000000002</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="AK57" s="7">
-        <v>2.5430000000000001</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="AL57" s="7">
-        <v>2.5590000000000002</v>
+        <v>2.4729999999999999</v>
       </c>
       <c r="AM57" s="7">
-        <v>2.5710000000000002</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="AN57" s="7">
-        <v>2.5110000000000001</v>
+        <v>2.2570000000000001</v>
       </c>
       <c r="AO57" s="7">
-        <v>2.4729999999999999</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="AP57" s="7">
-        <v>2.3740000000000001</v>
+        <v>1.9390000000000001</v>
       </c>
       <c r="AQ57" s="7">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="AR57" s="7">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="AS57" s="7">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="AT57" s="7">
         <v>1.732</v>
       </c>
+      <c r="AR57" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AT57" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="AU57" s="4">
-        <v>0.01</v>
+        <v>0.121</v>
       </c>
       <c r="AV57" s="4">
-        <v>3.3000000000000002E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="AW57" s="4">
-        <v>7.0999999999999994E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AX57" s="4">
-        <v>0.121</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AY57" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="AZ57" s="4">
-        <v>0.23499999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="BA57" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="BB57" s="4">
-        <v>0.34300000000000003</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="BC57" s="4">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="BD57" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="BE57" s="4">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="BF57" s="4">
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -11623,92 +11058,83 @@
       <c r="AD58" s="6">
         <v>3.0823400000000003</v>
       </c>
-      <c r="AE58" s="7">
-        <v>1.51322</v>
+      <c r="AE58" s="6">
+        <v>3.1376249999999999</v>
       </c>
       <c r="AF58" s="7">
-        <v>1.6542149999999998</v>
-      </c>
-      <c r="AG58" s="6">
-        <v>3.1376249999999999</v>
-      </c>
-      <c r="AH58" s="6">
-        <v>1.5837174999999999</v>
+        <v>-2.1440000000000001</v>
+      </c>
+      <c r="AG58" s="7">
+        <v>-1.833</v>
+      </c>
+      <c r="AH58" s="7">
+        <v>-1.4219999999999999</v>
       </c>
       <c r="AI58" s="7">
-        <v>-2.1440000000000001</v>
+        <v>-1.083</v>
       </c>
       <c r="AJ58" s="7">
-        <v>-1.833</v>
+        <v>-0.89700000000000002</v>
       </c>
       <c r="AK58" s="7">
-        <v>-1.4219999999999999</v>
+        <v>-0.76700000000000002</v>
       </c>
       <c r="AL58" s="7">
-        <v>-1.083</v>
+        <v>-0.64900000000000002</v>
       </c>
       <c r="AM58" s="7">
-        <v>-0.89700000000000002</v>
+        <v>-0.54200000000000004</v>
       </c>
       <c r="AN58" s="7">
-        <v>-0.76700000000000002</v>
+        <v>-0.44900000000000001</v>
       </c>
       <c r="AO58" s="7">
-        <v>-0.64900000000000002</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="AP58" s="7">
-        <v>-0.54200000000000004</v>
+        <v>-0.373</v>
       </c>
       <c r="AQ58" s="7">
-        <v>-0.44900000000000001</v>
-      </c>
-      <c r="AR58" s="7">
-        <v>-0.39400000000000002</v>
-      </c>
-      <c r="AS58" s="7">
-        <v>-0.373</v>
-      </c>
-      <c r="AT58" s="7">
         <v>-0.35899999999999999</v>
       </c>
+      <c r="AR58" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AS58" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AT58" s="4">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="AU58" s="4">
-        <v>0.03</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="AV58" s="4">
-        <v>8.3000000000000004E-2</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AW58" s="4">
-        <v>0.16500000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="AX58" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AY58" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="AZ58" s="4">
-        <v>0.442</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="BA58" s="4">
-        <v>0.51600000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="BB58" s="4">
-        <v>0.57899999999999996</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="BC58" s="4">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="BD58" s="4">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="BE58" s="4">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="BF58" s="4">
         <v>0.73</v>
       </c>
     </row>
-    <row r="59" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -11799,92 +11225,83 @@
       <c r="AD59" s="6">
         <v>2.731455</v>
       </c>
-      <c r="AE59" s="7">
-        <v>1.9335133333333332</v>
+      <c r="AE59" s="6">
+        <v>2.7488791666666668</v>
       </c>
       <c r="AF59" s="7">
-        <v>1.905465</v>
-      </c>
-      <c r="AG59" s="6">
-        <v>2.7488791666666668</v>
-      </c>
-      <c r="AH59" s="6">
-        <v>1.9194891666666667</v>
+        <v>0.185</v>
+      </c>
+      <c r="AG59" s="7">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="AH59" s="7">
+        <v>0.37219999999999998</v>
       </c>
       <c r="AI59" s="7">
-        <v>0.185</v>
+        <v>0.50090000000000001</v>
       </c>
       <c r="AJ59" s="7">
-        <v>0.24729999999999999</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="AK59" s="7">
-        <v>0.37219999999999998</v>
+        <v>0.52159999999999995</v>
       </c>
       <c r="AL59" s="7">
-        <v>0.50090000000000001</v>
+        <v>0.53939999999999999</v>
       </c>
       <c r="AM59" s="7">
-        <v>0.51719999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AN59" s="7">
-        <v>0.52159999999999995</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="AO59" s="7">
-        <v>0.53939999999999999</v>
+        <v>0.4768</v>
       </c>
       <c r="AP59" s="7">
-        <v>0.56100000000000005</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="AQ59" s="7">
-        <v>0.58420000000000005</v>
-      </c>
-      <c r="AR59" s="7">
-        <v>0.4768</v>
-      </c>
-      <c r="AS59" s="7">
-        <v>0.48630000000000001</v>
-      </c>
-      <c r="AT59" s="7">
         <v>0.50829999999999997</v>
       </c>
+      <c r="AR59" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AS59" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AT59" s="4">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="AU59" s="4">
-        <v>0.02</v>
+        <v>0.253</v>
       </c>
       <c r="AV59" s="4">
-        <v>6.4000000000000001E-2</v>
+        <v>0.374</v>
       </c>
       <c r="AW59" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AX59" s="4">
-        <v>0.253</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="AY59" s="4">
-        <v>0.374</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="AZ59" s="4">
-        <v>0.46800000000000003</v>
+        <v>0.624</v>
       </c>
       <c r="BA59" s="4">
-        <v>0.53200000000000003</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="BB59" s="4">
-        <v>0.58299999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="BC59" s="4">
-        <v>0.624</v>
-      </c>
-      <c r="BD59" s="4">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="BE59" s="4">
-        <v>0.748</v>
-      </c>
-      <c r="BF59" s="4">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -11975,92 +11392,83 @@
       <c r="AD60" s="6">
         <v>3.1436650000000004</v>
       </c>
-      <c r="AE60" s="7">
-        <v>1.7647966666666666</v>
+      <c r="AE60" s="6">
+        <v>3.0540475000000002</v>
       </c>
       <c r="AF60" s="7">
-        <v>1.5714000000000001</v>
-      </c>
-      <c r="AG60" s="6">
-        <v>3.0540475000000002</v>
-      </c>
-      <c r="AH60" s="6">
-        <v>1.6680983333333335</v>
+        <v>-0.7339</v>
+      </c>
+      <c r="AG60" s="7">
+        <v>-0.70220000000000005</v>
+      </c>
+      <c r="AH60" s="7">
+        <v>-0.70979999999999999</v>
       </c>
       <c r="AI60" s="7">
-        <v>-0.7339</v>
+        <v>-0.68720000000000003</v>
       </c>
       <c r="AJ60" s="7">
-        <v>-0.70220000000000005</v>
+        <v>-0.6946</v>
       </c>
       <c r="AK60" s="7">
-        <v>-0.70979999999999999</v>
+        <v>-0.66039999999999999</v>
       </c>
       <c r="AL60" s="7">
-        <v>-0.68720000000000003</v>
+        <v>-0.65869999999999995</v>
       </c>
       <c r="AM60" s="7">
-        <v>-0.6946</v>
+        <v>-0.64380000000000004</v>
       </c>
       <c r="AN60" s="7">
-        <v>-0.66039999999999999</v>
+        <v>-0.62419999999999998</v>
       </c>
       <c r="AO60" s="7">
-        <v>-0.65869999999999995</v>
+        <v>-0.64029999999999998</v>
       </c>
       <c r="AP60" s="7">
-        <v>-0.64380000000000004</v>
+        <v>-0.65639999999999998</v>
       </c>
       <c r="AQ60" s="7">
-        <v>-0.62419999999999998</v>
-      </c>
-      <c r="AR60" s="7">
-        <v>-0.64029999999999998</v>
-      </c>
-      <c r="AS60" s="7">
-        <v>-0.65639999999999998</v>
-      </c>
-      <c r="AT60" s="7">
         <v>-0.67759999999999998</v>
       </c>
+      <c r="AR60" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS60" s="4">
+        <v>0.108</v>
+      </c>
+      <c r="AT60" s="4">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="AU60" s="4">
-        <v>0.04</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AV60" s="4">
-        <v>0.108</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="AW60" s="4">
-        <v>0.21199999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AX60" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="AY60" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="AZ60" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="BA60" s="4">
-        <v>0.58599999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="BB60" s="4">
-        <v>0.64100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="BC60" s="4">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="BD60" s="4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="BE60" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="BF60" s="4">
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -12151,92 +11559,83 @@
       <c r="AD61" s="6">
         <v>3.0706600000000002</v>
       </c>
-      <c r="AE61" s="7">
-        <v>1.7761433333333334</v>
+      <c r="AE61" s="6">
+        <v>3.013818333333333</v>
       </c>
       <c r="AF61" s="7">
-        <v>1.665</v>
-      </c>
-      <c r="AG61" s="6">
-        <v>3.013818333333333</v>
-      </c>
-      <c r="AH61" s="6">
-        <v>1.7205716666666668</v>
+        <v>1.6236999999999999</v>
+      </c>
+      <c r="AG61" s="7">
+        <v>-1.7226999999999999</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>-1.4894000000000001</v>
       </c>
       <c r="AI61" s="7">
-        <v>1.6236999999999999</v>
+        <v>-1.0132000000000001</v>
       </c>
       <c r="AJ61" s="7">
-        <v>-1.7226999999999999</v>
+        <v>-0.79159999999999997</v>
       </c>
       <c r="AK61" s="7">
-        <v>-1.4894000000000001</v>
+        <v>-0.71279999999999999</v>
       </c>
       <c r="AL61" s="7">
-        <v>-1.0132000000000001</v>
+        <v>-0.66820000000000002</v>
       </c>
       <c r="AM61" s="7">
-        <v>-0.79159999999999997</v>
+        <v>-0.6331</v>
       </c>
       <c r="AN61" s="7">
-        <v>-0.71279999999999999</v>
+        <v>-0.61880000000000002</v>
       </c>
       <c r="AO61" s="7">
-        <v>-0.66820000000000002</v>
+        <v>-0.60119999999999996</v>
       </c>
       <c r="AP61" s="7">
-        <v>-0.6331</v>
+        <v>-0.62239999999999995</v>
       </c>
       <c r="AQ61" s="7">
-        <v>-0.61880000000000002</v>
-      </c>
-      <c r="AR61" s="7">
-        <v>-0.60119999999999996</v>
-      </c>
-      <c r="AS61" s="7">
-        <v>-0.62239999999999995</v>
-      </c>
-      <c r="AT61" s="7">
         <v>-0.65090000000000003</v>
       </c>
+      <c r="AR61" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AS61" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AT61" s="4">
+        <v>0.124</v>
+      </c>
       <c r="AU61" s="4">
-        <v>0.02</v>
+        <v>0.221</v>
       </c>
       <c r="AV61" s="4">
-        <v>5.5E-2</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AW61" s="4">
-        <v>0.124</v>
+        <v>0.434</v>
       </c>
       <c r="AX61" s="4">
-        <v>0.221</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="AY61" s="4">
-        <v>0.33100000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AZ61" s="4">
-        <v>0.434</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="BA61" s="4">
-        <v>0.52300000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="BB61" s="4">
-        <v>0.59799999999999998</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="BC61" s="4">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="BD61" s="4">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="BE61" s="4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="BF61" s="4">
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -12327,92 +11726,83 @@
       <c r="AD62" s="6">
         <v>2.7576999999999998</v>
       </c>
-      <c r="AE62" s="7">
-        <v>1.7385566666666668</v>
+      <c r="AE62" s="6">
+        <v>2.8440466666666664</v>
       </c>
       <c r="AF62" s="7">
-        <v>1.8198350000000001</v>
-      </c>
-      <c r="AG62" s="6">
-        <v>2.8440466666666664</v>
-      </c>
-      <c r="AH62" s="6">
-        <v>1.7791958333333335</v>
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>0.1401</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0.16339999999999999</v>
       </c>
       <c r="AI62" s="7">
-        <v>0.12670000000000001</v>
+        <v>-0.23880000000000001</v>
       </c>
       <c r="AJ62" s="7">
-        <v>0.1401</v>
+        <v>-0.26229999999999998</v>
       </c>
       <c r="AK62" s="7">
-        <v>0.16339999999999999</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="AL62" s="7">
-        <v>-0.23880000000000001</v>
+        <v>-0.2979</v>
       </c>
       <c r="AM62" s="7">
-        <v>-0.26229999999999998</v>
+        <v>-0.31340000000000001</v>
       </c>
       <c r="AN62" s="7">
-        <v>-0.28599999999999998</v>
+        <v>-0.32169999999999999</v>
       </c>
       <c r="AO62" s="7">
-        <v>-0.2979</v>
+        <v>-0.33300000000000002</v>
       </c>
       <c r="AP62" s="7">
-        <v>-0.31340000000000001</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="AQ62" s="7">
-        <v>-0.32169999999999999</v>
-      </c>
-      <c r="AR62" s="7">
-        <v>-0.33300000000000002</v>
-      </c>
-      <c r="AS62" s="7">
-        <v>0.34510000000000002</v>
-      </c>
-      <c r="AT62" s="7">
         <v>0.3891</v>
       </c>
+      <c r="AR62" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AS62" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AT62" s="4">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="AU62" s="4">
-        <v>0.05</v>
+        <v>0.373</v>
       </c>
       <c r="AV62" s="4">
-        <v>0.13700000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AW62" s="4">
-        <v>0.21199999999999999</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AX62" s="4">
-        <v>0.373</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AY62" s="4">
-        <v>0.46300000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="AZ62" s="4">
-        <v>0.53400000000000003</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="BA62" s="4">
-        <v>0.58899999999999997</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="BB62" s="4">
-        <v>0.63200000000000001</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="BC62" s="4">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="BD62" s="4">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="BE62" s="4">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="BF62" s="4">
         <v>0.751</v>
       </c>
     </row>
-    <row r="63" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -12503,92 +11893,83 @@
       <c r="AD63" s="6">
         <v>2.9354399999999998</v>
       </c>
-      <c r="AE63" s="7">
-        <v>1.6753766666666667</v>
+      <c r="AE63" s="6">
+        <v>3.0215083333333332</v>
       </c>
       <c r="AF63" s="7">
-        <v>1.6518549999999999</v>
-      </c>
-      <c r="AG63" s="6">
-        <v>3.0215083333333332</v>
-      </c>
-      <c r="AH63" s="6">
-        <v>1.6636158333333333</v>
+        <v>-2.1291000000000002</v>
+      </c>
+      <c r="AG63" s="7">
+        <v>-1.6798999999999999</v>
+      </c>
+      <c r="AH63" s="7">
+        <v>-1.0463</v>
       </c>
       <c r="AI63" s="7">
-        <v>-2.1291000000000002</v>
+        <v>-0.67379999999999995</v>
       </c>
       <c r="AJ63" s="7">
-        <v>-1.6798999999999999</v>
+        <v>-0.5615</v>
       </c>
       <c r="AK63" s="7">
-        <v>-1.0463</v>
+        <v>-0.49070000000000003</v>
       </c>
       <c r="AL63" s="7">
-        <v>-0.67379999999999995</v>
+        <v>-0.44869999999999999</v>
       </c>
       <c r="AM63" s="7">
-        <v>-0.5615</v>
+        <v>-0.42620000000000002</v>
       </c>
       <c r="AN63" s="7">
-        <v>-0.49070000000000003</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="AO63" s="7">
-        <v>-0.44869999999999999</v>
+        <v>-0.42980000000000002</v>
       </c>
       <c r="AP63" s="7">
-        <v>-0.42620000000000002</v>
+        <v>-0.45590000000000003</v>
       </c>
       <c r="AQ63" s="7">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="AR63" s="7">
-        <v>-0.42980000000000002</v>
-      </c>
-      <c r="AS63" s="7">
-        <v>-0.45590000000000003</v>
-      </c>
-      <c r="AT63" s="7">
         <v>-0.4854</v>
       </c>
+      <c r="AR63" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AS63" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AT63" s="4">
+        <v>0.222</v>
+      </c>
       <c r="AU63" s="4">
-        <v>0.04</v>
+        <v>0.374</v>
       </c>
       <c r="AV63" s="4">
-        <v>9.9000000000000005E-2</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="AW63" s="4">
-        <v>0.222</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="AX63" s="4">
-        <v>0.374</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="AY63" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AZ63" s="4">
-        <v>0.61199999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="BA63" s="4">
-        <v>0.68700000000000006</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="BB63" s="4">
-        <v>0.73599999999999999</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="BC63" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="BD63" s="4">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="BE63" s="4">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="BF63" s="4">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -12679,92 +12060,83 @@
       <c r="AD64" s="5">
         <v>2.968</v>
       </c>
-      <c r="AE64" s="4">
-        <v>1.6703166666666667</v>
+      <c r="AE64" s="5">
+        <v>2.9648433333333335</v>
       </c>
       <c r="AF64" s="4">
-        <v>1.69096</v>
-      </c>
-      <c r="AG64" s="5">
-        <v>2.9648433333333335</v>
-      </c>
-      <c r="AH64" s="5">
-        <v>1.6806383333333335</v>
+        <v>3.6777000000000002</v>
+      </c>
+      <c r="AG64" s="4">
+        <v>3.2503000000000002</v>
+      </c>
+      <c r="AH64" s="4">
+        <v>2.944</v>
       </c>
       <c r="AI64" s="4">
-        <v>3.6777000000000002</v>
+        <v>2.6086999999999998</v>
       </c>
       <c r="AJ64" s="4">
-        <v>3.2503000000000002</v>
+        <v>2.0491999999999999</v>
       </c>
       <c r="AK64" s="4">
-        <v>2.944</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="AL64" s="4">
-        <v>2.6086999999999998</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="AM64" s="4">
-        <v>2.0491999999999999</v>
+        <v>0.56769999999999998</v>
       </c>
       <c r="AN64" s="4">
-        <v>0.53879999999999995</v>
+        <v>0.57030000000000003</v>
       </c>
       <c r="AO64" s="4">
-        <v>0.55730000000000002</v>
+        <v>0.55959999999999999</v>
       </c>
       <c r="AP64" s="4">
-        <v>0.56769999999999998</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="AQ64" s="4">
-        <v>0.57030000000000003</v>
+        <v>0.57620000000000005</v>
       </c>
       <c r="AR64" s="4">
-        <v>0.55959999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="AS64" s="4">
-        <v>0.56759999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AT64" s="4">
-        <v>0.57620000000000005</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AU64" s="4">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AV64" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="AW64" s="4">
-        <v>8.5000000000000006E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="AX64" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="AY64" s="4">
-        <v>0.20599999999999999</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="AZ64" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="BA64" s="4">
-        <v>0.38100000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="BB64" s="4">
-        <v>0.45700000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="BC64" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="BD64" s="4">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="BE64" s="4">
-        <v>0.627</v>
-      </c>
-      <c r="BF64" s="4">
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -12855,92 +12227,83 @@
       <c r="AD65" s="5">
         <v>3.1556350000000002</v>
       </c>
-      <c r="AE65" s="4">
-        <v>1.6262099999999997</v>
+      <c r="AE65" s="5">
+        <v>3.1434924999999998</v>
       </c>
       <c r="AF65" s="4">
-        <v>1.55677</v>
-      </c>
-      <c r="AG65" s="5">
-        <v>3.1434924999999998</v>
-      </c>
-      <c r="AH65" s="5">
-        <v>1.5914899999999998</v>
+        <v>-2.4790000000000001</v>
+      </c>
+      <c r="AG65" s="4">
+        <v>-2.3717000000000001</v>
+      </c>
+      <c r="AH65" s="4">
+        <v>-2.2079</v>
       </c>
       <c r="AI65" s="4">
-        <v>-2.4790000000000001</v>
+        <v>0.9577</v>
       </c>
       <c r="AJ65" s="4">
-        <v>-2.3717000000000001</v>
+        <v>-0.50580000000000003</v>
       </c>
       <c r="AK65" s="4">
-        <v>-2.2079</v>
+        <v>-0.52910000000000001</v>
       </c>
       <c r="AL65" s="4">
-        <v>0.9577</v>
+        <v>-0.51970000000000005</v>
       </c>
       <c r="AM65" s="4">
-        <v>-0.50580000000000003</v>
+        <v>-0.50049999999999994</v>
       </c>
       <c r="AN65" s="4">
-        <v>-0.52910000000000001</v>
+        <v>-0.48520000000000002</v>
       </c>
       <c r="AO65" s="4">
-        <v>-0.51970000000000005</v>
+        <v>-0.47370000000000001</v>
       </c>
       <c r="AP65" s="4">
-        <v>-0.50049999999999994</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="AQ65" s="4">
-        <v>-0.48520000000000002</v>
+        <v>-0.45140000000000002</v>
       </c>
       <c r="AR65" s="4">
-        <v>-0.47370000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="AS65" s="4">
-        <v>-0.46400000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AT65" s="4">
-        <v>-0.45140000000000002</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AU65" s="4">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AV65" s="4">
-        <v>4.9000000000000002E-2</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AW65" s="4">
-        <v>9.8000000000000004E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="AX65" s="4">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="AY65" s="4">
-        <v>0.25800000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AZ65" s="4">
-        <v>0.35499999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="BA65" s="4">
-        <v>0.44</v>
+        <v>0.627</v>
       </c>
       <c r="BB65" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="BC65" s="4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="BD65" s="4">
-        <v>0.627</v>
-      </c>
-      <c r="BE65" s="4">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="BF65" s="4">
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -13031,92 +12394,83 @@
       <c r="AD66" s="5">
         <v>2.9032549999999997</v>
       </c>
-      <c r="AE66" s="4">
-        <v>1.6762066666666666</v>
+      <c r="AE66" s="5">
+        <v>2.9289241666666666</v>
       </c>
       <c r="AF66" s="4">
-        <v>1.770975</v>
-      </c>
-      <c r="AG66" s="5">
-        <v>2.9289241666666666</v>
-      </c>
-      <c r="AH66" s="5">
-        <v>1.7235908333333332</v>
+        <v>4.1154000000000002</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>4.0053999999999998</v>
+      </c>
+      <c r="AH66" s="4">
+        <v>3.8847</v>
       </c>
       <c r="AI66" s="4">
-        <v>4.1154000000000002</v>
+        <v>0.1971</v>
       </c>
       <c r="AJ66" s="4">
-        <v>4.0053999999999998</v>
+        <v>0.23880000000000001</v>
       </c>
       <c r="AK66" s="4">
-        <v>3.8847</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="AL66" s="4">
-        <v>0.1971</v>
+        <v>0.31159999999999999</v>
       </c>
       <c r="AM66" s="4">
-        <v>0.23880000000000001</v>
+        <v>0.33539999999999998</v>
       </c>
       <c r="AN66" s="4">
-        <v>0.28189999999999998</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AO66" s="4">
-        <v>0.31159999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="AP66" s="4">
-        <v>0.33539999999999998</v>
+        <v>0.43780000000000002</v>
       </c>
       <c r="AQ66" s="4">
-        <v>0.36249999999999999</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="AR66" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="AS66" s="4">
-        <v>0.43780000000000002</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AT66" s="4">
-        <v>0.51890000000000003</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="AU66" s="4">
-        <v>0.02</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AV66" s="4">
-        <v>4.3999999999999997E-2</v>
+        <v>0.223</v>
       </c>
       <c r="AW66" s="4">
-        <v>8.4000000000000005E-2</v>
+        <v>0.308</v>
       </c>
       <c r="AX66" s="4">
-        <v>0.14399999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AY66" s="4">
-        <v>0.223</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AZ66" s="4">
-        <v>0.308</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="BA66" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="BB66" s="4">
-        <v>0.46800000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="BC66" s="4">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="BD66" s="4">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="BE66" s="4">
-        <v>0.626</v>
-      </c>
-      <c r="BF66" s="4">
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -13207,92 +12561,83 @@
       <c r="AD67" s="5">
         <v>3.087345</v>
       </c>
-      <c r="AE67" s="4">
-        <v>1.6336766666666664</v>
+      <c r="AE67" s="5">
+        <v>3.1055491666666666</v>
       </c>
       <c r="AF67" s="4">
-        <v>1.62869</v>
-      </c>
-      <c r="AG67" s="5">
-        <v>3.1055491666666666</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1.6311833333333332</v>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="AG67" s="4">
+        <v>-0.39629999999999999</v>
+      </c>
+      <c r="AH67" s="4">
+        <v>-0.46910000000000002</v>
       </c>
       <c r="AI67" s="4">
-        <v>-0.33800000000000002</v>
+        <v>-0.52549999999999997</v>
       </c>
       <c r="AJ67" s="4">
-        <v>-0.39629999999999999</v>
+        <v>-0.56930000000000003</v>
       </c>
       <c r="AK67" s="4">
-        <v>-0.46910000000000002</v>
+        <v>-0.57830000000000004</v>
       </c>
       <c r="AL67" s="4">
-        <v>-0.52549999999999997</v>
+        <v>-0.58919999999999995</v>
       </c>
       <c r="AM67" s="4">
-        <v>-0.56930000000000003</v>
+        <v>-0.57430000000000003</v>
       </c>
       <c r="AN67" s="4">
-        <v>-0.57830000000000004</v>
+        <v>-0.56200000000000006</v>
       </c>
       <c r="AO67" s="4">
-        <v>-0.58919999999999995</v>
+        <v>-0.54690000000000005</v>
       </c>
       <c r="AP67" s="4">
-        <v>-0.57430000000000003</v>
+        <v>-0.54059999999999997</v>
       </c>
       <c r="AQ67" s="4">
-        <v>-0.56200000000000006</v>
+        <v>-0.55420000000000003</v>
       </c>
       <c r="AR67" s="4">
-        <v>-0.54690000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="AS67" s="4">
-        <v>-0.54059999999999997</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="AT67" s="4">
-        <v>-0.55420000000000003</v>
+        <v>0.155</v>
       </c>
       <c r="AU67" s="4">
-        <v>0.02</v>
+        <v>0.255</v>
       </c>
       <c r="AV67" s="4">
-        <v>7.3999999999999996E-2</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AW67" s="4">
-        <v>0.155</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="AX67" s="4">
-        <v>0.255</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="AY67" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="AZ67" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="BA67" s="4">
-        <v>0.53100000000000003</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="BB67" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="BC67" s="4">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="BD67" s="4">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="BE67" s="4">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="BF67" s="4">
         <v>0.747</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -13383,92 +12728,83 @@
       <c r="AD68" s="5">
         <v>2.9406850000000002</v>
       </c>
-      <c r="AE68" s="4">
-        <v>1.54288</v>
+      <c r="AE68" s="5">
+        <v>3.0609074999999999</v>
       </c>
       <c r="AF68" s="4">
-        <v>1.654345</v>
-      </c>
-      <c r="AG68" s="5">
-        <v>3.0609074999999999</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1.5986125</v>
+        <v>-1.7576000000000001</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>-1.3924000000000001</v>
+      </c>
+      <c r="AH68" s="4">
+        <v>-1.0051000000000001</v>
       </c>
       <c r="AI68" s="4">
-        <v>-1.7576000000000001</v>
+        <v>-0.8276</v>
       </c>
       <c r="AJ68" s="4">
-        <v>-1.3924000000000001</v>
+        <v>-0.71950000000000003</v>
       </c>
       <c r="AK68" s="4">
-        <v>-1.0051000000000001</v>
+        <v>-0.63959999999999995</v>
       </c>
       <c r="AL68" s="4">
-        <v>-0.8276</v>
+        <v>-0.57030000000000003</v>
       </c>
       <c r="AM68" s="4">
-        <v>-0.71950000000000003</v>
+        <v>-0.53369999999999995</v>
       </c>
       <c r="AN68" s="4">
-        <v>-0.63959999999999995</v>
+        <v>-0.5262</v>
       </c>
       <c r="AO68" s="4">
-        <v>-0.57030000000000003</v>
+        <v>-0.52159999999999995</v>
       </c>
       <c r="AP68" s="4">
-        <v>-0.53369999999999995</v>
+        <v>-0.52869999999999995</v>
       </c>
       <c r="AQ68" s="4">
-        <v>-0.5262</v>
+        <v>-0.53049999999999997</v>
       </c>
       <c r="AR68" s="4">
-        <v>-0.52159999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="AS68" s="4">
-        <v>-0.52869999999999995</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AT68" s="4">
-        <v>-0.53049999999999997</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="AU68" s="4">
-        <v>0.03</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AV68" s="4">
-        <v>8.3000000000000004E-2</v>
+        <v>0.37</v>
       </c>
       <c r="AW68" s="4">
-        <v>0.17100000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AX68" s="4">
-        <v>0.27300000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="AY68" s="4">
-        <v>0.37</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AZ68" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="BA68" s="4">
-        <v>0.53</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="BB68" s="4">
-        <v>0.58899999999999997</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="BC68" s="4">
-        <v>0.623</v>
-      </c>
-      <c r="BD68" s="4">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="BE68" s="4">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="BF68" s="4">
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -13559,92 +12895,83 @@
       <c r="AD69" s="5">
         <v>2.97207</v>
       </c>
-      <c r="AE69" s="4">
-        <v>1.5669599999999999</v>
+      <c r="AE69" s="5">
+        <v>2.9999916666666668</v>
       </c>
       <c r="AF69" s="4">
-        <v>1.7029649999999998</v>
-      </c>
-      <c r="AG69" s="5">
-        <v>2.9999916666666668</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1.6349624999999999</v>
+        <v>5.2176999999999998</v>
+      </c>
+      <c r="AG69" s="4">
+        <v>4.2937000000000003</v>
+      </c>
+      <c r="AH69" s="4">
+        <v>3.9161999999999999</v>
       </c>
       <c r="AI69" s="4">
-        <v>5.2176999999999998</v>
+        <v>3.5787</v>
       </c>
       <c r="AJ69" s="4">
-        <v>4.2937000000000003</v>
+        <v>3.2742</v>
       </c>
       <c r="AK69" s="4">
-        <v>3.9161999999999999</v>
+        <v>2.9756</v>
       </c>
       <c r="AL69" s="4">
-        <v>3.5787</v>
+        <v>2.7395999999999998</v>
       </c>
       <c r="AM69" s="4">
-        <v>3.2742</v>
+        <v>2.5280999999999998</v>
       </c>
       <c r="AN69" s="4">
-        <v>2.9756</v>
+        <v>2.3403</v>
       </c>
       <c r="AO69" s="4">
-        <v>2.7395999999999998</v>
+        <v>2.133</v>
       </c>
       <c r="AP69" s="4">
-        <v>2.5280999999999998</v>
+        <v>1.9133</v>
       </c>
       <c r="AQ69" s="4">
-        <v>2.3403</v>
+        <v>1.6646000000000001</v>
       </c>
       <c r="AR69" s="4">
-        <v>2.133</v>
+        <v>0.02</v>
       </c>
       <c r="AS69" s="4">
-        <v>1.9133</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AT69" s="4">
-        <v>1.6646000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="AU69" s="4">
-        <v>0.02</v>
+        <v>0.191</v>
       </c>
       <c r="AV69" s="4">
-        <v>6.0999999999999999E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AW69" s="4">
-        <v>0.122</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="AX69" s="4">
-        <v>0.191</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="AY69" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="AZ69" s="4">
-        <v>0.32600000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="BA69" s="4">
-        <v>0.38400000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="BB69" s="4">
-        <v>0.437</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="BC69" s="4">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="BD69" s="4">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="BE69" s="4">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="BF69" s="4">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -13735,92 +13062,83 @@
       <c r="AD70" s="5">
         <v>2.9106649999999998</v>
       </c>
-      <c r="AE70" s="4">
-        <v>1.5638166666666666</v>
+      <c r="AE70" s="5">
+        <v>2.9669841666666663</v>
       </c>
       <c r="AF70" s="4">
-        <v>1.772265</v>
-      </c>
-      <c r="AG70" s="5">
-        <v>2.9669841666666663</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1.6680408333333334</v>
+        <v>5.7907999999999999</v>
+      </c>
+      <c r="AG70" s="4">
+        <v>5.6835000000000004</v>
+      </c>
+      <c r="AH70" s="4">
+        <v>5.1058000000000003</v>
       </c>
       <c r="AI70" s="4">
-        <v>5.7907999999999999</v>
+        <v>3.1345999999999998</v>
       </c>
       <c r="AJ70" s="4">
-        <v>5.6835000000000004</v>
+        <v>2.6272000000000002</v>
       </c>
       <c r="AK70" s="4">
-        <v>5.1058000000000003</v>
+        <v>2.4777999999999998</v>
       </c>
       <c r="AL70" s="4">
-        <v>3.1345999999999998</v>
+        <v>2.3889</v>
       </c>
       <c r="AM70" s="4">
-        <v>2.6272000000000002</v>
+        <v>2.2631000000000001</v>
       </c>
       <c r="AN70" s="4">
-        <v>2.4777999999999998</v>
+        <v>2.1701000000000001</v>
       </c>
       <c r="AO70" s="4">
-        <v>2.3889</v>
+        <v>2.0966999999999998</v>
       </c>
       <c r="AP70" s="4">
-        <v>2.2631000000000001</v>
+        <v>1.978</v>
       </c>
       <c r="AQ70" s="4">
-        <v>2.1701000000000001</v>
+        <v>1.8514999999999999</v>
       </c>
       <c r="AR70" s="4">
-        <v>2.0966999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="AS70" s="4">
-        <v>1.978</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AT70" s="4">
-        <v>1.8514999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="AU70" s="4">
-        <v>0.02</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="AV70" s="4">
-        <v>6.2E-2</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="AW70" s="4">
-        <v>0.112</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AX70" s="4">
-        <v>0.17699999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AY70" s="4">
-        <v>0.25700000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AZ70" s="4">
-        <v>0.32900000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="BA70" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="BB70" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="BC70" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="BD70" s="4">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="BE70" s="4">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="BF70" s="4">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -13911,88 +13229,79 @@
       <c r="AD71" s="6">
         <v>3.0886149999999999</v>
       </c>
-      <c r="AE71" s="7">
-        <v>1.5170833333333331</v>
+      <c r="AE71" s="6">
+        <v>3.1410941666666665</v>
       </c>
       <c r="AF71" s="7">
-        <v>1.6436500000000001</v>
-      </c>
-      <c r="AG71" s="6">
-        <v>3.1410941666666665</v>
-      </c>
-      <c r="AH71" s="6">
-        <v>1.5803666666666665</v>
+        <v>-1.1162000000000001</v>
+      </c>
+      <c r="AG71" s="7">
+        <v>-1.8694</v>
+      </c>
+      <c r="AH71" s="7">
+        <v>-1.4684999999999999</v>
       </c>
       <c r="AI71" s="7">
-        <v>-1.1162000000000001</v>
+        <v>-1.2996000000000001</v>
       </c>
       <c r="AJ71" s="7">
-        <v>-1.8694</v>
+        <v>-1.1675</v>
       </c>
       <c r="AK71" s="7">
-        <v>-1.4684999999999999</v>
+        <v>-1.0274000000000001</v>
       </c>
       <c r="AL71" s="7">
-        <v>-1.2996000000000001</v>
+        <v>-0.90069999999999995</v>
       </c>
       <c r="AM71" s="7">
-        <v>-1.1675</v>
+        <v>-0.78769999999999996</v>
       </c>
       <c r="AN71" s="7">
-        <v>-1.0274000000000001</v>
+        <v>-0.68789999999999996</v>
       </c>
       <c r="AO71" s="7">
-        <v>-0.90069999999999995</v>
+        <v>-0.6069</v>
       </c>
       <c r="AP71" s="7">
-        <v>-0.78769999999999996</v>
+        <v>-0.56200000000000006</v>
       </c>
       <c r="AQ71" s="7">
-        <v>-0.68789999999999996</v>
-      </c>
-      <c r="AR71" s="7">
-        <v>-0.6069</v>
-      </c>
-      <c r="AS71" s="7">
-        <v>-0.56200000000000006</v>
-      </c>
-      <c r="AT71" s="7">
         <v>-0.54190000000000005</v>
       </c>
+      <c r="AR71" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AS71" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AT71" s="4">
+        <v>0.114</v>
+      </c>
       <c r="AU71" s="4">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="AV71" s="4">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AW71" s="4">
-        <v>0.114</v>
+        <v>0.38</v>
       </c>
       <c r="AX71" s="4">
-        <v>0.2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AY71" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AZ71" s="4">
-        <v>0.38</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA71" s="4">
-        <v>0.45900000000000002</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="BB71" s="4">
-        <v>0.52700000000000002</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="BC71" s="4">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="BD71" s="4">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="BE71" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="BF71" s="4">
         <v>0.69899999999999995</v>
       </c>
     </row>

--- a/ztml/rdata/simple_dataset.xlsx
+++ b/ztml/rdata/simple_dataset.xlsx
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -6197,173 +6197,173 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="1">
         <v>7</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="1">
         <v>12</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="1">
         <v>3</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="1">
         <v>6</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="1">
         <v>5</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="1">
         <v>14</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="1">
         <v>83</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="1">
         <v>52</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="1">
         <v>110</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="1">
         <v>160</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="1">
         <v>140</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="1">
         <v>111</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="1">
         <v>148</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="1">
         <v>138</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="1">
         <v>1.98</v>
       </c>
-      <c r="W28" s="10">
+      <c r="W28" s="1">
         <v>2.02</v>
       </c>
-      <c r="X28" s="10">
+      <c r="X28" s="1">
         <v>2.12</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="4">
         <v>2.0749999999999997</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="4">
         <v>5.4237133650909986E-2</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AA28" s="1">
         <v>4.2720000000000002</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AB28" s="1">
         <v>24.452999999999999</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="1">
         <v>146.43</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD28" s="5">
         <v>2.9089399999999999</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AE28" s="5">
         <v>3.1434199999999999</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AF28" s="5">
         <v>3.0261800000000001</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AG28" s="4">
         <v>-4.1210000000000004</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AH28" s="4">
         <v>-3.28</v>
       </c>
-      <c r="AI28" s="11">
+      <c r="AI28" s="4">
         <v>-2.5139999999999998</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AJ28" s="4">
         <v>-1.232</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AK28" s="4">
         <v>-0.76300000000000001</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AL28" s="4">
         <v>-0.64500000000000002</v>
       </c>
-      <c r="AM28" s="11">
+      <c r="AM28" s="4">
         <v>-0.55400000000000005</v>
       </c>
-      <c r="AN28" s="11">
+      <c r="AN28" s="4">
         <v>-0.496</v>
       </c>
-      <c r="AO28" s="11">
+      <c r="AO28" s="4">
         <v>-0.45900000000000002</v>
       </c>
-      <c r="AP28" s="11">
+      <c r="AP28" s="4">
         <v>-0.44500000000000001</v>
       </c>
-      <c r="AQ28" s="11">
+      <c r="AQ28" s="4">
         <v>-0.45200000000000001</v>
       </c>
-      <c r="AR28" s="11">
+      <c r="AR28" s="4">
         <v>-0.45300000000000001</v>
       </c>
-      <c r="AS28" s="11">
+      <c r="AS28" s="4">
         <v>0.06</v>
       </c>
-      <c r="AT28" s="11">
+      <c r="AT28" s="4">
         <v>0.152</v>
       </c>
-      <c r="AU28" s="11">
+      <c r="AU28" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AV28" s="11">
+      <c r="AV28" s="4">
         <v>0.376</v>
       </c>
-      <c r="AW28" s="11">
+      <c r="AW28" s="4">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AX28" s="11">
+      <c r="AX28" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="AY28" s="11">
+      <c r="AY28" s="4">
         <v>0.65200000000000002</v>
       </c>
-      <c r="AZ28" s="11">
+      <c r="AZ28" s="4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="BA28" s="11">
+      <c r="BA28" s="4">
         <v>0.748</v>
       </c>
-      <c r="BB28" s="11">
+      <c r="BB28" s="4">
         <v>0.77700000000000002</v>
       </c>
-      <c r="BC28" s="11">
+      <c r="BC28" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="BD28" s="11">
+      <c r="BD28" s="4">
         <v>0.81499999999999995</v>
       </c>
     </row>
@@ -6877,173 +6877,173 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="10">
         <v>4</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>7</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <v>12</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="10">
         <v>5</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="10">
         <v>6</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="10">
         <v>5</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="10">
         <v>50</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="10">
         <v>83</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="10">
         <v>52</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="10">
         <v>145</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="10">
         <v>160</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="10">
         <v>140</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="10">
         <v>139</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="10">
         <v>148</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="10">
         <v>138</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="10">
         <v>1.96</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="10">
         <v>2.02</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="10">
         <v>2.12</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="Y32" s="11">
         <v>2.0733333333333333</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="Z32" s="11">
         <v>5.7348835113617561E-2</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA32" s="10">
         <v>4.3460000000000001</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB32" s="10">
         <v>24.582000000000001</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32" s="10">
         <v>153.99</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AD32" s="12">
         <v>3.1181000000000001</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AE32" s="12">
         <v>3.1474849999999996</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AF32" s="12">
         <v>3.1327924999999999</v>
       </c>
-      <c r="AG32" s="4">
+      <c r="AG32" s="11">
         <v>-7.6520000000000001</v>
       </c>
-      <c r="AH32" s="4">
+      <c r="AH32" s="11">
         <v>-7.0369999999999999</v>
       </c>
-      <c r="AI32" s="4">
+      <c r="AI32" s="11">
         <v>-1.194</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AJ32" s="11">
         <v>-1.097</v>
       </c>
-      <c r="AK32" s="4">
+      <c r="AK32" s="11">
         <v>-1.028</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AL32" s="11">
         <v>-0.97299999999999998</v>
       </c>
-      <c r="AM32" s="4">
+      <c r="AM32" s="11">
         <v>-0.872</v>
       </c>
-      <c r="AN32" s="4">
+      <c r="AN32" s="11">
         <v>-0.753</v>
       </c>
-      <c r="AO32" s="4">
+      <c r="AO32" s="11">
         <v>-0.61899999999999999</v>
       </c>
-      <c r="AP32" s="4">
+      <c r="AP32" s="11">
         <v>-0.501</v>
       </c>
-      <c r="AQ32" s="4">
+      <c r="AQ32" s="11">
         <v>-0.40500000000000003</v>
       </c>
-      <c r="AR32" s="4">
+      <c r="AR32" s="11">
         <v>-0.36299999999999999</v>
       </c>
-      <c r="AS32" s="4">
+      <c r="AS32" s="11">
         <v>0.03</v>
       </c>
-      <c r="AT32" s="4">
+      <c r="AT32" s="11">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AU32" s="4">
+      <c r="AU32" s="11">
         <v>0.128</v>
       </c>
-      <c r="AV32" s="4">
+      <c r="AV32" s="11">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AW32" s="4">
+      <c r="AW32" s="11">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AX32" s="4">
+      <c r="AX32" s="11">
         <v>0.38300000000000001</v>
       </c>
-      <c r="AY32" s="4">
+      <c r="AY32" s="11">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AZ32" s="4">
+      <c r="AZ32" s="11">
         <v>0.52400000000000002</v>
       </c>
-      <c r="BA32" s="4">
+      <c r="BA32" s="11">
         <v>0.58299999999999996</v>
       </c>
-      <c r="BB32" s="4">
+      <c r="BB32" s="11">
         <v>0.63400000000000001</v>
       </c>
-      <c r="BC32" s="4">
+      <c r="BC32" s="11">
         <v>0.67900000000000005</v>
       </c>
-      <c r="BD32" s="4">
+      <c r="BD32" s="11">
         <v>0.71399999999999997</v>
       </c>
     </row>
